--- a/food-service/2021/2021-q2-nutrient-analysis-wk2.xlsx
+++ b/food-service/2021/2021-q2-nutrient-analysis-wk2.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11985"/>
+    <workbookView activeTab="0" windowHeight="11985" windowWidth="25200" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
     <sheet name="Report" sheetId="1" r:id="rId1"/>
@@ -3309,204 +3309,214 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" mc:Ignorable="x14ac">
+  <numFmts count="8">
+    <numFmt numFmtId="5" formatCode="&quot;$&quot;#,##0_);(&quot;$&quot;#,##0)"/>
+    <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red](&quot;$&quot;#,##0)"/>
+    <numFmt numFmtId="7" formatCode="&quot;$&quot;#,##0.00_);(&quot;$&quot;#,##0.00)"/>
+    <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red](&quot;$&quot;#,##0.00)"/>
+    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* (#,##0);_(* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* (#,##0);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* (#,##0.00);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* (#,##0.00);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+  </numFmts>
   <fonts count="29">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color rgb="FF000000"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color rgb="FF000000"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="18"/>
-      <color theme="3"/>
       <name val="Calibri Light"/>
       <family val="2"/>
+      <color rgb="FF44546A"/>
+      <sz val="18"/>
       <scheme val="major"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <b/>
+      <color rgb="FF44546A"/>
+      <sz val="15"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <b/>
+      <color rgb="FF44546A"/>
+      <sz val="13"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <b/>
+      <color rgb="FF44546A"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color rgb="FF006100"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color rgb="FF9C0006"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C5700"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color rgb="FF9C5700"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color rgb="FF3F3F76"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <b/>
+      <color rgb="FF3F3F3F"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <b/>
+      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <b/>
+      <color rgb="FFFFFFFF"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color rgb="FFFF0000"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <i/>
+      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <b/>
+      <color rgb="FF000000"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color rgb="FFFFFFFF"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <name val="sans-serif"/>
+      <color rgb="FF333333"/>
       <sz val="8"/>
-      <color indexed="63"/>
-      <name val="sans-serif"/>
     </font>
     <font>
+      <name val="serif"/>
+      <color rgb="FF000000"/>
       <sz val="10"/>
-      <color indexed="8"/>
-      <name val="serif"/>
     </font>
     <font>
+      <name val="sans-serif"/>
+      <color rgb="FF333333"/>
       <sz val="10"/>
-      <color indexed="63"/>
-      <name val="sans-serif"/>
     </font>
     <font>
+      <name val="serif"/>
       <b/>
+      <color rgb="FF000000"/>
       <sz val="10"/>
-      <color indexed="8"/>
-      <name val="serif"/>
     </font>
     <font>
+      <name val="sans-serif"/>
       <b/>
+      <color rgb="FF333333"/>
       <sz val="8"/>
-      <color indexed="63"/>
-      <name val="sans-serif"/>
     </font>
     <font>
+      <name val="sans-serif"/>
       <b/>
+      <color rgb="FF333333"/>
       <sz val="10"/>
-      <color indexed="63"/>
-      <name val="sans-serif"/>
     </font>
     <font>
+      <name val="sans-serif"/>
       <b/>
       <i/>
+      <color rgb="FF000000"/>
       <sz val="10"/>
-      <color indexed="8"/>
-      <name val="sans-serif"/>
     </font>
     <font>
+      <name val="sans-serif"/>
+      <color rgb="FF000000"/>
       <sz val="8"/>
-      <color indexed="8"/>
-      <name val="sans-serif"/>
     </font>
     <font>
+      <name val="sans-serif"/>
       <b/>
+      <color rgb="FF808080"/>
       <sz val="10"/>
-      <color indexed="23"/>
-      <name val="sans-serif"/>
     </font>
     <font>
+      <name val="sans-serif"/>
       <b/>
+      <color rgb="FF333333"/>
       <sz val="12"/>
-      <color indexed="63"/>
-      <name val="sans-serif"/>
     </font>
     <font>
+      <name val="sans-serif"/>
       <b/>
+      <color rgb="FF333333"/>
       <sz val="9"/>
-      <color indexed="63"/>
-      <name val="sans-serif"/>
     </font>
   </fonts>
   <fills count="35">
@@ -3553,139 +3563,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor rgb="FF4472C4"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79998168889431442"/>
+        <fgColor rgb="FFD9E2F3"/>
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.59999389629810485"/>
+        <fgColor rgb="FFB4C6E7"/>
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.39997558519241921"/>
+        <fgColor rgb="FF8EAADB"/>
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor rgb="FFED7D31"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.79998168889431442"/>
+        <fgColor rgb="FFFBE4D5"/>
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.59999389629810485"/>
+        <fgColor rgb="FFF7CAAC"/>
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.39997558519241921"/>
+        <fgColor rgb="FFF4B083"/>
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor rgb="FFA5A5A5"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.79998168889431442"/>
+        <fgColor rgb="FFECECEC"/>
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.59999389629810485"/>
+        <fgColor rgb="FFDADADA"/>
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.39997558519241921"/>
+        <fgColor rgb="FFC8C8C8"/>
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor rgb="FFFFC000"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.79998168889431442"/>
+        <fgColor rgb="FFFFF2CB"/>
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.59999389629810485"/>
+        <fgColor rgb="FFFEE598"/>
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.39997558519241921"/>
+        <fgColor rgb="FFFFD965"/>
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor rgb="FF5B9BD5"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.79998168889431442"/>
+        <fgColor rgb="FFDEEAF6"/>
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.59999389629810485"/>
+        <fgColor rgb="FFBDD6EE"/>
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.39997558519241921"/>
+        <fgColor rgb="FF9CC2E5"/>
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor rgb="FF70AD47"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79998168889431442"/>
+        <fgColor rgb="FFE2EFD9"/>
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59999389629810485"/>
+        <fgColor rgb="FFC5E0B3"/>
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.39997558519241921"/>
+        <fgColor rgb="FFA8D08D"/>
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
@@ -3704,38 +3714,72 @@
   </fills>
   <borders count="14">
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
       <bottom style="thick">
-        <color theme="4"/>
+        <color rgb="FF4472C4"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
       <bottom style="thick">
-        <color theme="4" tint="0.499984740745262"/>
+        <color rgb="FFA1B8E1"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
       <bottom style="medium">
-        <color theme="4" tint="0.39997558519241921"/>
+        <color rgb="FF8EAADB"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <left style="thin">
@@ -3750,7 +3794,9 @@
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <left style="thin">
@@ -3765,16 +3811,26 @@
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <left style="double">
@@ -3789,7 +3845,9 @@
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <left style="thin">
@@ -3804,18 +3862,26 @@
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF4472C4"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF4472C4"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <left style="thin">
@@ -3830,23 +3896,31 @@
       <bottom style="thin">
         <color rgb="FFCCCCCC"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <left style="thin">
         <color rgb="FFCCCCCC"/>
       </left>
-      <right/>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
       <top style="thin">
         <color rgb="FFCCCCCC"/>
       </top>
       <bottom style="thin">
         <color rgb="FFCCCCCC"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
-      <left/>
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
       <right style="thin">
         <color rgb="FFCCCCCC"/>
       </right>
@@ -3856,145 +3930,153 @@
       <bottom style="thin">
         <color rgb="FFCCCCCC"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
       <top style="thin">
         <color rgb="FFCCCCCC"/>
       </top>
       <bottom style="thin">
         <color rgb="FFCCCCCC"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
   </borders>
   <cellStyleXfs count="42">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellStyleXfs>
   <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="25" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="25" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="25" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="25" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="34" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="24" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -4351,14 +4433,13 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y305"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="60" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A304" sqref="A304:Y304"/>
+    <sheetView zoomScale="60" workbookViewId="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100">
+      <selection pane="topLeft" activeCell="T166" sqref="T166"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="27.42578125" customWidth="1"/>
     <col min="2" max="2" width="9.5703125" customWidth="1"/>
@@ -4372,12 +4453,8 @@
     <col min="16" max="16" width="2.140625" customWidth="1"/>
     <col min="17" max="17" width="6" customWidth="1"/>
     <col min="18" max="18" width="8.28515625" customWidth="1"/>
-    <col min="19" max="19" width="2.5703125" customWidth="1"/>
-    <col min="20" max="20" width="0.85546875" customWidth="1"/>
-    <col min="21" max="22" width="0.28515625" customWidth="1"/>
-    <col min="23" max="23" width="221.85546875" customWidth="1"/>
-    <col min="24" max="25" width="121.85546875" customWidth="1"/>
-    <col min="26" max="26" width="0.7109375" customWidth="1"/>
+    <col min="19" max="19" width="2.7" customWidth="1"/>
+    <col min="20" max="20" width="3.53" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:25">
@@ -4406,9 +4483,6 @@
       <c r="Q1" s="24"/>
       <c r="R1" s="24"/>
       <c r="S1" s="24"/>
-      <c r="T1" s="24"/>
-      <c r="U1" s="24"/>
-      <c r="V1" s="24"/>
     </row>
     <row r="2" spans="1:25">
       <c r="A2" s="22"/>
@@ -4432,9 +4506,6 @@
       <c r="Q2" s="24"/>
       <c r="R2" s="24"/>
       <c r="S2" s="24"/>
-      <c r="T2" s="24"/>
-      <c r="U2" s="24"/>
-      <c r="V2" s="24"/>
     </row>
     <row r="3" spans="1:25">
       <c r="A3" s="22"/>
@@ -4458,9 +4529,6 @@
       <c r="Q3" s="24"/>
       <c r="R3" s="24"/>
       <c r="S3" s="24"/>
-      <c r="T3" s="24"/>
-      <c r="U3" s="24"/>
-      <c r="V3" s="24"/>
     </row>
     <row r="4" spans="1:25">
       <c r="A4" s="25" t="s">
@@ -4483,8 +4551,7 @@
       <c r="P4" s="26"/>
       <c r="Q4" s="26"/>
       <c r="R4" s="26"/>
-      <c r="S4" s="26"/>
-      <c r="T4" s="27"/>
+      <c r="S4" s="27"/>
     </row>
     <row r="5" spans="1:25">
       <c r="A5" s="1" t="s">
@@ -4513,8 +4580,7 @@
         <v>9</v>
       </c>
       <c r="R5" s="18"/>
-      <c r="S5" s="18"/>
-      <c r="T5" s="19"/>
+      <c r="S5" s="19"/>
     </row>
     <row r="6" spans="1:25">
       <c r="A6" s="1" t="s">
@@ -4543,8 +4609,7 @@
         <v>9</v>
       </c>
       <c r="R6" s="18"/>
-      <c r="S6" s="18"/>
-      <c r="T6" s="19"/>
+      <c r="S6" s="19"/>
     </row>
     <row r="7" spans="1:25">
       <c r="A7" s="1" t="s">
@@ -4573,8 +4638,7 @@
         <v>16</v>
       </c>
       <c r="R7" s="18"/>
-      <c r="S7" s="18"/>
-      <c r="T7" s="19"/>
+      <c r="S7" s="19"/>
     </row>
     <row r="8" spans="1:25">
       <c r="A8" s="1" t="s">
@@ -4603,8 +4667,7 @@
         <v>20</v>
       </c>
       <c r="R8" s="18"/>
-      <c r="S8" s="18"/>
-      <c r="T8" s="19"/>
+      <c r="S8" s="19"/>
     </row>
     <row r="9" spans="1:25">
       <c r="A9" s="1" t="s">
@@ -4629,8 +4692,7 @@
       <c r="P9" s="18"/>
       <c r="Q9" s="18"/>
       <c r="R9" s="18"/>
-      <c r="S9" s="18"/>
-      <c r="T9" s="19"/>
+      <c r="S9" s="19"/>
     </row>
     <row r="10" spans="1:25">
       <c r="A10" s="1" t="s">
@@ -4655,8 +4717,7 @@
       <c r="P10" s="18"/>
       <c r="Q10" s="18"/>
       <c r="R10" s="18"/>
-      <c r="S10" s="18"/>
-      <c r="T10" s="19"/>
+      <c r="S10" s="19"/>
     </row>
     <row r="11" spans="1:25">
       <c r="A11" s="7"/>
@@ -4678,7 +4739,6 @@
       <c r="Q11" s="7"/>
       <c r="R11" s="7"/>
       <c r="S11" s="7"/>
-      <c r="T11" s="7"/>
     </row>
     <row r="12" spans="1:25">
       <c r="A12" s="20" t="s">
@@ -4702,7 +4762,6 @@
       <c r="Q12" s="20"/>
       <c r="R12" s="20"/>
       <c r="S12" s="20"/>
-      <c r="T12" s="20"/>
     </row>
     <row r="13" spans="1:25">
       <c r="A13" s="10" t="s">
@@ -4726,9 +4785,8 @@
       <c r="Q13" s="10"/>
       <c r="R13" s="10"/>
       <c r="S13" s="10"/>
-      <c r="T13" s="10"/>
-    </row>
-    <row r="14" spans="1:25" ht="18" customHeight="1">
+    </row>
+    <row ht="18" customHeight="1" r="14" spans="1:25">
       <c r="A14" s="21"/>
       <c r="B14" s="21"/>
       <c r="C14" s="21"/>
@@ -4748,12 +4806,6 @@
       <c r="Q14" s="21"/>
       <c r="R14" s="21"/>
       <c r="S14" s="21"/>
-      <c r="T14" s="21"/>
-      <c r="U14" s="21"/>
-      <c r="V14" s="21"/>
-      <c r="W14" s="21"/>
-      <c r="X14" s="21"/>
-      <c r="Y14" s="21"/>
     </row>
     <row r="15" spans="1:25">
       <c r="A15" s="11" t="s">
@@ -4777,12 +4829,6 @@
       <c r="Q15" s="11"/>
       <c r="R15" s="11"/>
       <c r="S15" s="11"/>
-      <c r="T15" s="11"/>
-      <c r="U15" s="11"/>
-      <c r="V15" s="11"/>
-      <c r="W15" s="11"/>
-      <c r="X15" s="11"/>
-      <c r="Y15" s="11"/>
     </row>
     <row r="16" spans="1:25">
       <c r="A16" s="15" t="s">
@@ -4806,12 +4852,6 @@
       <c r="Q16" s="15"/>
       <c r="R16" s="15"/>
       <c r="S16" s="15"/>
-      <c r="T16" s="15"/>
-      <c r="U16" s="15"/>
-      <c r="V16" s="15"/>
-      <c r="W16" s="15"/>
-      <c r="X16" s="15"/>
-      <c r="Y16" s="15"/>
     </row>
     <row r="17" spans="1:25">
       <c r="A17" s="16"/>
@@ -4833,12 +4873,6 @@
       <c r="Q17" s="16"/>
       <c r="R17" s="16"/>
       <c r="S17" s="16"/>
-      <c r="T17" s="16"/>
-      <c r="U17" s="16"/>
-      <c r="V17" s="16"/>
-      <c r="W17" s="16"/>
-      <c r="X17" s="16"/>
-      <c r="Y17" s="16"/>
     </row>
     <row r="18" spans="1:25">
       <c r="A18" s="9"/>
@@ -4862,12 +4896,6 @@
       <c r="Q18" s="14"/>
       <c r="R18" s="14"/>
       <c r="S18" s="14"/>
-      <c r="T18" s="14"/>
-      <c r="U18" s="14"/>
-      <c r="V18" s="9"/>
-      <c r="W18" s="9"/>
-      <c r="X18" s="3"/>
-      <c r="Y18" s="3"/>
     </row>
     <row r="19" spans="1:25">
       <c r="A19" s="11" t="s">
@@ -4891,14 +4919,8 @@
       <c r="Q19" s="11"/>
       <c r="R19" s="11"/>
       <c r="S19" s="11"/>
-      <c r="T19" s="11"/>
-      <c r="U19" s="11"/>
-      <c r="V19" s="11"/>
-      <c r="W19" s="11"/>
-      <c r="X19" s="11"/>
-      <c r="Y19" s="11"/>
-    </row>
-    <row r="20" spans="1:25" ht="22.5">
+    </row>
+    <row ht="22.5" r="20" spans="1:25">
       <c r="A20" s="4" t="s">
         <v>29</v>
       </c>
@@ -4944,12 +4966,6 @@
         <v>41</v>
       </c>
       <c r="S20" s="9"/>
-      <c r="T20" s="9"/>
-      <c r="U20" s="9"/>
-      <c r="V20" s="9"/>
-      <c r="W20" s="9"/>
-      <c r="X20" s="9"/>
-      <c r="Y20" s="9"/>
     </row>
     <row r="21" spans="1:25">
       <c r="A21" s="2" t="s">
@@ -4997,12 +5013,6 @@
         <v>54</v>
       </c>
       <c r="S21" s="9"/>
-      <c r="T21" s="9"/>
-      <c r="U21" s="9"/>
-      <c r="V21" s="9"/>
-      <c r="W21" s="9"/>
-      <c r="X21" s="9"/>
-      <c r="Y21" s="9"/>
     </row>
     <row r="22" spans="1:25">
       <c r="A22" s="2" t="s">
@@ -5050,12 +5060,6 @@
         <v>47</v>
       </c>
       <c r="S22" s="9"/>
-      <c r="T22" s="9"/>
-      <c r="U22" s="9"/>
-      <c r="V22" s="9"/>
-      <c r="W22" s="9"/>
-      <c r="X22" s="9"/>
-      <c r="Y22" s="9"/>
     </row>
     <row r="23" spans="1:25">
       <c r="A23" s="2" t="s">
@@ -5103,12 +5107,6 @@
         <v>47</v>
       </c>
       <c r="S23" s="9"/>
-      <c r="T23" s="9"/>
-      <c r="U23" s="9"/>
-      <c r="V23" s="9"/>
-      <c r="W23" s="9"/>
-      <c r="X23" s="9"/>
-      <c r="Y23" s="9"/>
     </row>
     <row r="24" spans="1:25">
       <c r="A24" s="2" t="s">
@@ -5156,12 +5154,6 @@
         <v>84</v>
       </c>
       <c r="S24" s="9"/>
-      <c r="T24" s="9"/>
-      <c r="U24" s="9"/>
-      <c r="V24" s="9"/>
-      <c r="W24" s="9"/>
-      <c r="X24" s="9"/>
-      <c r="Y24" s="9"/>
     </row>
     <row r="25" spans="1:25">
       <c r="A25" s="2" t="s">
@@ -5209,12 +5201,6 @@
         <v>84</v>
       </c>
       <c r="S25" s="9"/>
-      <c r="T25" s="9"/>
-      <c r="U25" s="9"/>
-      <c r="V25" s="9"/>
-      <c r="W25" s="9"/>
-      <c r="X25" s="9"/>
-      <c r="Y25" s="9"/>
     </row>
     <row r="26" spans="1:25">
       <c r="A26" s="2" t="s">
@@ -5262,12 +5248,6 @@
         <v>108</v>
       </c>
       <c r="S26" s="9"/>
-      <c r="T26" s="9"/>
-      <c r="U26" s="9"/>
-      <c r="V26" s="9"/>
-      <c r="W26" s="9"/>
-      <c r="X26" s="9"/>
-      <c r="Y26" s="9"/>
     </row>
     <row r="27" spans="1:25">
       <c r="A27" s="2" t="s">
@@ -5315,12 +5295,6 @@
         <v>120</v>
       </c>
       <c r="S27" s="9"/>
-      <c r="T27" s="9"/>
-      <c r="U27" s="9"/>
-      <c r="V27" s="9"/>
-      <c r="W27" s="9"/>
-      <c r="X27" s="9"/>
-      <c r="Y27" s="9"/>
     </row>
     <row r="28" spans="1:25">
       <c r="A28" s="2" t="s">
@@ -5368,12 +5342,6 @@
         <v>126</v>
       </c>
       <c r="S28" s="9"/>
-      <c r="T28" s="9"/>
-      <c r="U28" s="9"/>
-      <c r="V28" s="9"/>
-      <c r="W28" s="9"/>
-      <c r="X28" s="9"/>
-      <c r="Y28" s="9"/>
     </row>
     <row r="29" spans="1:25">
       <c r="A29" s="2" t="s">
@@ -5421,15 +5389,9 @@
         <v>137</v>
       </c>
       <c r="S29" s="9"/>
-      <c r="T29" s="9"/>
-      <c r="U29" s="9"/>
-      <c r="V29" s="9"/>
-      <c r="W29" s="9"/>
-      <c r="X29" s="9"/>
-      <c r="Y29" s="9"/>
     </row>
     <row r="30" spans="1:25">
-      <c r="A30" s="9"/>
+      <c r="A30" s="3"/>
       <c r="B30" s="9"/>
       <c r="C30" s="9"/>
       <c r="D30" s="9"/>
@@ -5448,12 +5410,6 @@
       <c r="Q30" s="9"/>
       <c r="R30" s="9"/>
       <c r="S30" s="9"/>
-      <c r="T30" s="9"/>
-      <c r="U30" s="9"/>
-      <c r="V30" s="9"/>
-      <c r="W30" s="9"/>
-      <c r="X30" s="9"/>
-      <c r="Y30" s="9"/>
     </row>
     <row r="31" spans="1:25">
       <c r="A31" s="11" t="s">
@@ -5477,14 +5433,8 @@
       <c r="Q31" s="11"/>
       <c r="R31" s="11"/>
       <c r="S31" s="11"/>
-      <c r="T31" s="11"/>
-      <c r="U31" s="11"/>
-      <c r="V31" s="11"/>
-      <c r="W31" s="11"/>
-      <c r="X31" s="11"/>
-      <c r="Y31" s="11"/>
-    </row>
-    <row r="32" spans="1:25" ht="22.5">
+    </row>
+    <row ht="22.5" r="32" spans="1:25">
       <c r="A32" s="4" t="s">
         <v>29</v>
       </c>
@@ -5530,12 +5480,6 @@
         <v>41</v>
       </c>
       <c r="S32" s="9"/>
-      <c r="T32" s="9"/>
-      <c r="U32" s="9"/>
-      <c r="V32" s="9"/>
-      <c r="W32" s="9"/>
-      <c r="X32" s="9"/>
-      <c r="Y32" s="9"/>
     </row>
     <row r="33" spans="1:25">
       <c r="A33" s="2" t="s">
@@ -5583,12 +5527,6 @@
         <v>151</v>
       </c>
       <c r="S33" s="9"/>
-      <c r="T33" s="9"/>
-      <c r="U33" s="9"/>
-      <c r="V33" s="9"/>
-      <c r="W33" s="9"/>
-      <c r="X33" s="9"/>
-      <c r="Y33" s="9"/>
     </row>
     <row r="34" spans="1:25">
       <c r="A34" s="2" t="s">
@@ -5636,14 +5574,8 @@
         <v>162</v>
       </c>
       <c r="S34" s="9"/>
-      <c r="T34" s="9"/>
-      <c r="U34" s="9"/>
-      <c r="V34" s="9"/>
-      <c r="W34" s="9"/>
-      <c r="X34" s="9"/>
-      <c r="Y34" s="9"/>
-    </row>
-    <row r="35" spans="1:25" ht="22.5">
+    </row>
+    <row ht="22.5" r="35" spans="1:25">
       <c r="A35" s="2" t="s">
         <v>163</v>
       </c>
@@ -5689,12 +5621,6 @@
         <v>174</v>
       </c>
       <c r="S35" s="9"/>
-      <c r="T35" s="9"/>
-      <c r="U35" s="9"/>
-      <c r="V35" s="9"/>
-      <c r="W35" s="9"/>
-      <c r="X35" s="9"/>
-      <c r="Y35" s="9"/>
     </row>
     <row r="36" spans="1:25">
       <c r="A36" s="2" t="s">
@@ -5742,12 +5668,6 @@
         <v>183</v>
       </c>
       <c r="S36" s="9"/>
-      <c r="T36" s="9"/>
-      <c r="U36" s="9"/>
-      <c r="V36" s="9"/>
-      <c r="W36" s="9"/>
-      <c r="X36" s="9"/>
-      <c r="Y36" s="9"/>
     </row>
     <row r="37" spans="1:25">
       <c r="A37" s="2" t="s">
@@ -5795,12 +5715,6 @@
         <v>120</v>
       </c>
       <c r="S37" s="9"/>
-      <c r="T37" s="9"/>
-      <c r="U37" s="9"/>
-      <c r="V37" s="9"/>
-      <c r="W37" s="9"/>
-      <c r="X37" s="9"/>
-      <c r="Y37" s="9"/>
     </row>
     <row r="38" spans="1:25">
       <c r="A38" s="2" t="s">
@@ -5848,12 +5762,6 @@
         <v>84</v>
       </c>
       <c r="S38" s="9"/>
-      <c r="T38" s="9"/>
-      <c r="U38" s="9"/>
-      <c r="V38" s="9"/>
-      <c r="W38" s="9"/>
-      <c r="X38" s="9"/>
-      <c r="Y38" s="9"/>
     </row>
     <row r="39" spans="1:25">
       <c r="A39" s="2" t="s">
@@ -5901,12 +5809,6 @@
         <v>137</v>
       </c>
       <c r="S39" s="9"/>
-      <c r="T39" s="9"/>
-      <c r="U39" s="9"/>
-      <c r="V39" s="9"/>
-      <c r="W39" s="9"/>
-      <c r="X39" s="9"/>
-      <c r="Y39" s="9"/>
     </row>
     <row r="40" spans="1:25">
       <c r="A40" s="2" t="s">
@@ -5954,12 +5856,6 @@
         <v>47</v>
       </c>
       <c r="S40" s="9"/>
-      <c r="T40" s="9"/>
-      <c r="U40" s="9"/>
-      <c r="V40" s="9"/>
-      <c r="W40" s="9"/>
-      <c r="X40" s="9"/>
-      <c r="Y40" s="9"/>
     </row>
     <row r="41" spans="1:25">
       <c r="A41" s="2" t="s">
@@ -6007,12 +5903,6 @@
         <v>84</v>
       </c>
       <c r="S41" s="9"/>
-      <c r="T41" s="9"/>
-      <c r="U41" s="9"/>
-      <c r="V41" s="9"/>
-      <c r="W41" s="9"/>
-      <c r="X41" s="9"/>
-      <c r="Y41" s="9"/>
     </row>
     <row r="42" spans="1:25">
       <c r="A42" s="9"/>
@@ -6034,12 +5924,6 @@
       <c r="Q42" s="9"/>
       <c r="R42" s="9"/>
       <c r="S42" s="9"/>
-      <c r="T42" s="9"/>
-      <c r="U42" s="9"/>
-      <c r="V42" s="9"/>
-      <c r="W42" s="9"/>
-      <c r="X42" s="9"/>
-      <c r="Y42" s="9"/>
     </row>
     <row r="43" spans="1:25">
       <c r="A43" s="11" t="s">
@@ -6063,14 +5947,8 @@
       <c r="Q43" s="11"/>
       <c r="R43" s="11"/>
       <c r="S43" s="11"/>
-      <c r="T43" s="11"/>
-      <c r="U43" s="11"/>
-      <c r="V43" s="11"/>
-      <c r="W43" s="11"/>
-      <c r="X43" s="11"/>
-      <c r="Y43" s="11"/>
-    </row>
-    <row r="44" spans="1:25" ht="22.5">
+    </row>
+    <row ht="22.5" r="44" spans="1:25">
       <c r="A44" s="4" t="s">
         <v>29</v>
       </c>
@@ -6116,12 +5994,6 @@
         <v>41</v>
       </c>
       <c r="S44" s="9"/>
-      <c r="T44" s="9"/>
-      <c r="U44" s="9"/>
-      <c r="V44" s="9"/>
-      <c r="W44" s="9"/>
-      <c r="X44" s="9"/>
-      <c r="Y44" s="9"/>
     </row>
     <row r="45" spans="1:25">
       <c r="A45" s="2" t="s">
@@ -6169,12 +6041,6 @@
         <v>218</v>
       </c>
       <c r="S45" s="9"/>
-      <c r="T45" s="9"/>
-      <c r="U45" s="9"/>
-      <c r="V45" s="9"/>
-      <c r="W45" s="9"/>
-      <c r="X45" s="9"/>
-      <c r="Y45" s="9"/>
     </row>
     <row r="46" spans="1:25">
       <c r="A46" s="2" t="s">
@@ -6222,12 +6088,6 @@
         <v>227</v>
       </c>
       <c r="S46" s="9"/>
-      <c r="T46" s="9"/>
-      <c r="U46" s="9"/>
-      <c r="V46" s="9"/>
-      <c r="W46" s="9"/>
-      <c r="X46" s="9"/>
-      <c r="Y46" s="9"/>
     </row>
     <row r="47" spans="1:25">
       <c r="A47" s="2" t="s">
@@ -6275,12 +6135,6 @@
         <v>187</v>
       </c>
       <c r="S47" s="9"/>
-      <c r="T47" s="9"/>
-      <c r="U47" s="9"/>
-      <c r="V47" s="9"/>
-      <c r="W47" s="9"/>
-      <c r="X47" s="9"/>
-      <c r="Y47" s="9"/>
     </row>
     <row r="48" spans="1:25">
       <c r="A48" s="2" t="s">
@@ -6328,12 +6182,6 @@
         <v>241</v>
       </c>
       <c r="S48" s="9"/>
-      <c r="T48" s="9"/>
-      <c r="U48" s="9"/>
-      <c r="V48" s="9"/>
-      <c r="W48" s="9"/>
-      <c r="X48" s="9"/>
-      <c r="Y48" s="9"/>
     </row>
     <row r="49" spans="1:25">
       <c r="A49" s="2" t="s">
@@ -6381,12 +6229,6 @@
         <v>251</v>
       </c>
       <c r="S49" s="9"/>
-      <c r="T49" s="9"/>
-      <c r="U49" s="9"/>
-      <c r="V49" s="9"/>
-      <c r="W49" s="9"/>
-      <c r="X49" s="9"/>
-      <c r="Y49" s="9"/>
     </row>
     <row r="50" spans="1:25">
       <c r="A50" s="2" t="s">
@@ -6434,12 +6276,6 @@
         <v>259</v>
       </c>
       <c r="S50" s="9"/>
-      <c r="T50" s="9"/>
-      <c r="U50" s="9"/>
-      <c r="V50" s="9"/>
-      <c r="W50" s="9"/>
-      <c r="X50" s="9"/>
-      <c r="Y50" s="9"/>
     </row>
     <row r="51" spans="1:25">
       <c r="A51" s="2" t="s">
@@ -6487,12 +6323,6 @@
         <v>268</v>
       </c>
       <c r="S51" s="9"/>
-      <c r="T51" s="9"/>
-      <c r="U51" s="9"/>
-      <c r="V51" s="9"/>
-      <c r="W51" s="9"/>
-      <c r="X51" s="9"/>
-      <c r="Y51" s="9"/>
     </row>
     <row r="52" spans="1:25">
       <c r="A52" s="2" t="s">
@@ -6540,12 +6370,6 @@
         <v>276</v>
       </c>
       <c r="S52" s="9"/>
-      <c r="T52" s="9"/>
-      <c r="U52" s="9"/>
-      <c r="V52" s="9"/>
-      <c r="W52" s="9"/>
-      <c r="X52" s="9"/>
-      <c r="Y52" s="9"/>
     </row>
     <row r="53" spans="1:25">
       <c r="A53" s="2" t="s">
@@ -6593,12 +6417,6 @@
         <v>285</v>
       </c>
       <c r="S53" s="9"/>
-      <c r="T53" s="9"/>
-      <c r="U53" s="9"/>
-      <c r="V53" s="9"/>
-      <c r="W53" s="9"/>
-      <c r="X53" s="9"/>
-      <c r="Y53" s="9"/>
     </row>
     <row r="54" spans="1:25">
       <c r="A54" s="2" t="s">
@@ -6646,12 +6464,6 @@
         <v>294</v>
       </c>
       <c r="S54" s="9"/>
-      <c r="T54" s="9"/>
-      <c r="U54" s="9"/>
-      <c r="V54" s="9"/>
-      <c r="W54" s="9"/>
-      <c r="X54" s="9"/>
-      <c r="Y54" s="9"/>
     </row>
     <row r="55" spans="1:25">
       <c r="A55" s="2" t="s">
@@ -6699,14 +6511,8 @@
         <v>84</v>
       </c>
       <c r="S55" s="9"/>
-      <c r="T55" s="9"/>
-      <c r="U55" s="9"/>
-      <c r="V55" s="9"/>
-      <c r="W55" s="9"/>
-      <c r="X55" s="9"/>
-      <c r="Y55" s="9"/>
-    </row>
-    <row r="56" spans="1:25" ht="22.5">
+    </row>
+    <row ht="22.5" r="56" spans="1:25">
       <c r="A56" s="2" t="s">
         <v>301</v>
       </c>
@@ -6752,12 +6558,6 @@
         <v>308</v>
       </c>
       <c r="S56" s="9"/>
-      <c r="T56" s="9"/>
-      <c r="U56" s="9"/>
-      <c r="V56" s="9"/>
-      <c r="W56" s="9"/>
-      <c r="X56" s="9"/>
-      <c r="Y56" s="9"/>
     </row>
     <row r="57" spans="1:25">
       <c r="A57" s="2" t="s">
@@ -6805,12 +6605,6 @@
         <v>137</v>
       </c>
       <c r="S57" s="9"/>
-      <c r="T57" s="9"/>
-      <c r="U57" s="9"/>
-      <c r="V57" s="9"/>
-      <c r="W57" s="9"/>
-      <c r="X57" s="9"/>
-      <c r="Y57" s="9"/>
     </row>
     <row r="58" spans="1:25">
       <c r="A58" s="2" t="s">
@@ -6858,12 +6652,6 @@
         <v>47</v>
       </c>
       <c r="S58" s="9"/>
-      <c r="T58" s="9"/>
-      <c r="U58" s="9"/>
-      <c r="V58" s="9"/>
-      <c r="W58" s="9"/>
-      <c r="X58" s="9"/>
-      <c r="Y58" s="9"/>
     </row>
     <row r="59" spans="1:25">
       <c r="A59" s="9"/>
@@ -6885,12 +6673,6 @@
       <c r="Q59" s="9"/>
       <c r="R59" s="9"/>
       <c r="S59" s="9"/>
-      <c r="T59" s="9"/>
-      <c r="U59" s="9"/>
-      <c r="V59" s="9"/>
-      <c r="W59" s="9"/>
-      <c r="X59" s="9"/>
-      <c r="Y59" s="9"/>
     </row>
     <row r="60" spans="1:25">
       <c r="A60" s="9"/>
@@ -6914,12 +6696,6 @@
       <c r="Q60" s="14"/>
       <c r="R60" s="14"/>
       <c r="S60" s="14"/>
-      <c r="T60" s="14"/>
-      <c r="U60" s="14"/>
-      <c r="V60" s="9"/>
-      <c r="W60" s="9"/>
-      <c r="X60" s="3"/>
-      <c r="Y60" s="3"/>
     </row>
     <row r="61" spans="1:25">
       <c r="A61" s="11" t="s">
@@ -6943,14 +6719,8 @@
       <c r="Q61" s="11"/>
       <c r="R61" s="11"/>
       <c r="S61" s="11"/>
-      <c r="T61" s="11"/>
-      <c r="U61" s="11"/>
-      <c r="V61" s="11"/>
-      <c r="W61" s="11"/>
-      <c r="X61" s="11"/>
-      <c r="Y61" s="11"/>
-    </row>
-    <row r="62" spans="1:25" ht="22.5">
+    </row>
+    <row ht="22.5" r="62" spans="1:25">
       <c r="A62" s="4" t="s">
         <v>29</v>
       </c>
@@ -6996,12 +6766,6 @@
         <v>41</v>
       </c>
       <c r="S62" s="9"/>
-      <c r="T62" s="9"/>
-      <c r="U62" s="9"/>
-      <c r="V62" s="9"/>
-      <c r="W62" s="9"/>
-      <c r="X62" s="9"/>
-      <c r="Y62" s="9"/>
     </row>
     <row r="63" spans="1:25">
       <c r="A63" s="2" t="s">
@@ -7049,12 +6813,6 @@
         <v>54</v>
       </c>
       <c r="S63" s="9"/>
-      <c r="T63" s="9"/>
-      <c r="U63" s="9"/>
-      <c r="V63" s="9"/>
-      <c r="W63" s="9"/>
-      <c r="X63" s="9"/>
-      <c r="Y63" s="9"/>
     </row>
     <row r="64" spans="1:25">
       <c r="A64" s="2" t="s">
@@ -7102,12 +6860,6 @@
         <v>47</v>
       </c>
       <c r="S64" s="9"/>
-      <c r="T64" s="9"/>
-      <c r="U64" s="9"/>
-      <c r="V64" s="9"/>
-      <c r="W64" s="9"/>
-      <c r="X64" s="9"/>
-      <c r="Y64" s="9"/>
     </row>
     <row r="65" spans="1:25">
       <c r="A65" s="2" t="s">
@@ -7155,12 +6907,6 @@
         <v>318</v>
       </c>
       <c r="S65" s="9"/>
-      <c r="T65" s="9"/>
-      <c r="U65" s="9"/>
-      <c r="V65" s="9"/>
-      <c r="W65" s="9"/>
-      <c r="X65" s="9"/>
-      <c r="Y65" s="9"/>
     </row>
     <row r="66" spans="1:25">
       <c r="A66" s="2" t="s">
@@ -7208,12 +6954,6 @@
         <v>329</v>
       </c>
       <c r="S66" s="9"/>
-      <c r="T66" s="9"/>
-      <c r="U66" s="9"/>
-      <c r="V66" s="9"/>
-      <c r="W66" s="9"/>
-      <c r="X66" s="9"/>
-      <c r="Y66" s="9"/>
     </row>
     <row r="67" spans="1:25">
       <c r="A67" s="2" t="s">
@@ -7261,12 +7001,6 @@
         <v>124</v>
       </c>
       <c r="S67" s="9"/>
-      <c r="T67" s="9"/>
-      <c r="U67" s="9"/>
-      <c r="V67" s="9"/>
-      <c r="W67" s="9"/>
-      <c r="X67" s="9"/>
-      <c r="Y67" s="9"/>
     </row>
     <row r="68" spans="1:25">
       <c r="A68" s="2" t="s">
@@ -7314,12 +7048,6 @@
         <v>342</v>
       </c>
       <c r="S68" s="9"/>
-      <c r="T68" s="9"/>
-      <c r="U68" s="9"/>
-      <c r="V68" s="9"/>
-      <c r="W68" s="9"/>
-      <c r="X68" s="9"/>
-      <c r="Y68" s="9"/>
     </row>
     <row r="69" spans="1:25">
       <c r="A69" s="2" t="s">
@@ -7367,12 +7095,6 @@
         <v>147</v>
       </c>
       <c r="S69" s="9"/>
-      <c r="T69" s="9"/>
-      <c r="U69" s="9"/>
-      <c r="V69" s="9"/>
-      <c r="W69" s="9"/>
-      <c r="X69" s="9"/>
-      <c r="Y69" s="9"/>
     </row>
     <row r="70" spans="1:25">
       <c r="A70" s="2" t="s">
@@ -7420,12 +7142,6 @@
         <v>126</v>
       </c>
       <c r="S70" s="9"/>
-      <c r="T70" s="9"/>
-      <c r="U70" s="9"/>
-      <c r="V70" s="9"/>
-      <c r="W70" s="9"/>
-      <c r="X70" s="9"/>
-      <c r="Y70" s="9"/>
     </row>
     <row r="71" spans="1:25">
       <c r="A71" s="2" t="s">
@@ -7473,12 +7189,6 @@
         <v>137</v>
       </c>
       <c r="S71" s="9"/>
-      <c r="T71" s="9"/>
-      <c r="U71" s="9"/>
-      <c r="V71" s="9"/>
-      <c r="W71" s="9"/>
-      <c r="X71" s="9"/>
-      <c r="Y71" s="9"/>
     </row>
     <row r="72" spans="1:25">
       <c r="A72" s="9"/>
@@ -7500,12 +7210,6 @@
       <c r="Q72" s="9"/>
       <c r="R72" s="9"/>
       <c r="S72" s="9"/>
-      <c r="T72" s="9"/>
-      <c r="U72" s="9"/>
-      <c r="V72" s="9"/>
-      <c r="W72" s="9"/>
-      <c r="X72" s="9"/>
-      <c r="Y72" s="9"/>
     </row>
     <row r="73" spans="1:25">
       <c r="A73" s="11" t="s">
@@ -7529,14 +7233,8 @@
       <c r="Q73" s="11"/>
       <c r="R73" s="11"/>
       <c r="S73" s="11"/>
-      <c r="T73" s="11"/>
-      <c r="U73" s="11"/>
-      <c r="V73" s="11"/>
-      <c r="W73" s="11"/>
-      <c r="X73" s="11"/>
-      <c r="Y73" s="11"/>
-    </row>
-    <row r="74" spans="1:25" ht="22.5">
+    </row>
+    <row ht="22.5" r="74" spans="1:25">
       <c r="A74" s="4" t="s">
         <v>29</v>
       </c>
@@ -7582,12 +7280,6 @@
         <v>41</v>
       </c>
       <c r="S74" s="9"/>
-      <c r="T74" s="9"/>
-      <c r="U74" s="9"/>
-      <c r="V74" s="9"/>
-      <c r="W74" s="9"/>
-      <c r="X74" s="9"/>
-      <c r="Y74" s="9"/>
     </row>
     <row r="75" spans="1:25">
       <c r="A75" s="2" t="s">
@@ -7635,12 +7327,6 @@
         <v>357</v>
       </c>
       <c r="S75" s="9"/>
-      <c r="T75" s="9"/>
-      <c r="U75" s="9"/>
-      <c r="V75" s="9"/>
-      <c r="W75" s="9"/>
-      <c r="X75" s="9"/>
-      <c r="Y75" s="9"/>
     </row>
     <row r="76" spans="1:25">
       <c r="A76" s="2" t="s">
@@ -7688,12 +7374,6 @@
         <v>368</v>
       </c>
       <c r="S76" s="9"/>
-      <c r="T76" s="9"/>
-      <c r="U76" s="9"/>
-      <c r="V76" s="9"/>
-      <c r="W76" s="9"/>
-      <c r="X76" s="9"/>
-      <c r="Y76" s="9"/>
     </row>
     <row r="77" spans="1:25">
       <c r="A77" s="2" t="s">
@@ -7741,12 +7421,6 @@
         <v>378</v>
       </c>
       <c r="S77" s="9"/>
-      <c r="T77" s="9"/>
-      <c r="U77" s="9"/>
-      <c r="V77" s="9"/>
-      <c r="W77" s="9"/>
-      <c r="X77" s="9"/>
-      <c r="Y77" s="9"/>
     </row>
     <row r="78" spans="1:25">
       <c r="A78" s="2" t="s">
@@ -7794,12 +7468,6 @@
         <v>384</v>
       </c>
       <c r="S78" s="9"/>
-      <c r="T78" s="9"/>
-      <c r="U78" s="9"/>
-      <c r="V78" s="9"/>
-      <c r="W78" s="9"/>
-      <c r="X78" s="9"/>
-      <c r="Y78" s="9"/>
     </row>
     <row r="79" spans="1:25">
       <c r="A79" s="2" t="s">
@@ -7847,12 +7515,6 @@
         <v>47</v>
       </c>
       <c r="S79" s="9"/>
-      <c r="T79" s="9"/>
-      <c r="U79" s="9"/>
-      <c r="V79" s="9"/>
-      <c r="W79" s="9"/>
-      <c r="X79" s="9"/>
-      <c r="Y79" s="9"/>
     </row>
     <row r="80" spans="1:25">
       <c r="A80" s="2" t="s">
@@ -7900,12 +7562,6 @@
         <v>84</v>
       </c>
       <c r="S80" s="9"/>
-      <c r="T80" s="9"/>
-      <c r="U80" s="9"/>
-      <c r="V80" s="9"/>
-      <c r="W80" s="9"/>
-      <c r="X80" s="9"/>
-      <c r="Y80" s="9"/>
     </row>
     <row r="81" spans="1:25">
       <c r="A81" s="2" t="s">
@@ -7953,12 +7609,6 @@
         <v>398</v>
       </c>
       <c r="S81" s="9"/>
-      <c r="T81" s="9"/>
-      <c r="U81" s="9"/>
-      <c r="V81" s="9"/>
-      <c r="W81" s="9"/>
-      <c r="X81" s="9"/>
-      <c r="Y81" s="9"/>
     </row>
     <row r="82" spans="1:25">
       <c r="A82" s="2" t="s">
@@ -8006,12 +7656,6 @@
         <v>137</v>
       </c>
       <c r="S82" s="9"/>
-      <c r="T82" s="9"/>
-      <c r="U82" s="9"/>
-      <c r="V82" s="9"/>
-      <c r="W82" s="9"/>
-      <c r="X82" s="9"/>
-      <c r="Y82" s="9"/>
     </row>
     <row r="83" spans="1:25">
       <c r="A83" s="2" t="s">
@@ -8059,12 +7703,6 @@
         <v>47</v>
       </c>
       <c r="S83" s="9"/>
-      <c r="T83" s="9"/>
-      <c r="U83" s="9"/>
-      <c r="V83" s="9"/>
-      <c r="W83" s="9"/>
-      <c r="X83" s="9"/>
-      <c r="Y83" s="9"/>
     </row>
     <row r="84" spans="1:25">
       <c r="A84" s="9"/>
@@ -8086,12 +7724,6 @@
       <c r="Q84" s="9"/>
       <c r="R84" s="9"/>
       <c r="S84" s="9"/>
-      <c r="T84" s="9"/>
-      <c r="U84" s="9"/>
-      <c r="V84" s="9"/>
-      <c r="W84" s="9"/>
-      <c r="X84" s="9"/>
-      <c r="Y84" s="9"/>
     </row>
     <row r="85" spans="1:25">
       <c r="A85" s="11" t="s">
@@ -8115,14 +7747,8 @@
       <c r="Q85" s="11"/>
       <c r="R85" s="11"/>
       <c r="S85" s="11"/>
-      <c r="T85" s="11"/>
-      <c r="U85" s="11"/>
-      <c r="V85" s="11"/>
-      <c r="W85" s="11"/>
-      <c r="X85" s="11"/>
-      <c r="Y85" s="11"/>
-    </row>
-    <row r="86" spans="1:25" ht="22.5">
+    </row>
+    <row ht="22.5" r="86" spans="1:25">
       <c r="A86" s="4" t="s">
         <v>29</v>
       </c>
@@ -8168,12 +7794,6 @@
         <v>41</v>
       </c>
       <c r="S86" s="9"/>
-      <c r="T86" s="9"/>
-      <c r="U86" s="9"/>
-      <c r="V86" s="9"/>
-      <c r="W86" s="9"/>
-      <c r="X86" s="9"/>
-      <c r="Y86" s="9"/>
     </row>
     <row r="87" spans="1:25">
       <c r="A87" s="2" t="s">
@@ -8221,12 +7841,6 @@
         <v>405</v>
       </c>
       <c r="S87" s="9"/>
-      <c r="T87" s="9"/>
-      <c r="U87" s="9"/>
-      <c r="V87" s="9"/>
-      <c r="W87" s="9"/>
-      <c r="X87" s="9"/>
-      <c r="Y87" s="9"/>
     </row>
     <row r="88" spans="1:25">
       <c r="A88" s="2" t="s">
@@ -8274,14 +7888,8 @@
         <v>416</v>
       </c>
       <c r="S88" s="9"/>
-      <c r="T88" s="9"/>
-      <c r="U88" s="9"/>
-      <c r="V88" s="9"/>
-      <c r="W88" s="9"/>
-      <c r="X88" s="9"/>
-      <c r="Y88" s="9"/>
-    </row>
-    <row r="89" spans="1:25" ht="22.5">
+    </row>
+    <row ht="22.5" r="89" spans="1:25">
       <c r="A89" s="2" t="s">
         <v>417</v>
       </c>
@@ -8327,12 +7935,6 @@
         <v>424</v>
       </c>
       <c r="S89" s="9"/>
-      <c r="T89" s="9"/>
-      <c r="U89" s="9"/>
-      <c r="V89" s="9"/>
-      <c r="W89" s="9"/>
-      <c r="X89" s="9"/>
-      <c r="Y89" s="9"/>
     </row>
     <row r="90" spans="1:25">
       <c r="A90" s="2" t="s">
@@ -8380,12 +7982,6 @@
         <v>429</v>
       </c>
       <c r="S90" s="9"/>
-      <c r="T90" s="9"/>
-      <c r="U90" s="9"/>
-      <c r="V90" s="9"/>
-      <c r="W90" s="9"/>
-      <c r="X90" s="9"/>
-      <c r="Y90" s="9"/>
     </row>
     <row r="91" spans="1:25">
       <c r="A91" s="2" t="s">
@@ -8433,12 +8029,6 @@
         <v>120</v>
       </c>
       <c r="S91" s="9"/>
-      <c r="T91" s="9"/>
-      <c r="U91" s="9"/>
-      <c r="V91" s="9"/>
-      <c r="W91" s="9"/>
-      <c r="X91" s="9"/>
-      <c r="Y91" s="9"/>
     </row>
     <row r="92" spans="1:25">
       <c r="A92" s="2" t="s">
@@ -8486,14 +8076,8 @@
         <v>268</v>
       </c>
       <c r="S92" s="9"/>
-      <c r="T92" s="9"/>
-      <c r="U92" s="9"/>
-      <c r="V92" s="9"/>
-      <c r="W92" s="9"/>
-      <c r="X92" s="9"/>
-      <c r="Y92" s="9"/>
-    </row>
-    <row r="93" spans="1:25" ht="22.5">
+    </row>
+    <row ht="22.5" r="93" spans="1:25">
       <c r="A93" s="2" t="s">
         <v>443</v>
       </c>
@@ -8539,12 +8123,6 @@
         <v>451</v>
       </c>
       <c r="S93" s="9"/>
-      <c r="T93" s="9"/>
-      <c r="U93" s="9"/>
-      <c r="V93" s="9"/>
-      <c r="W93" s="9"/>
-      <c r="X93" s="9"/>
-      <c r="Y93" s="9"/>
     </row>
     <row r="94" spans="1:25">
       <c r="A94" s="2" t="s">
@@ -8592,12 +8170,6 @@
         <v>456</v>
       </c>
       <c r="S94" s="9"/>
-      <c r="T94" s="9"/>
-      <c r="U94" s="9"/>
-      <c r="V94" s="9"/>
-      <c r="W94" s="9"/>
-      <c r="X94" s="9"/>
-      <c r="Y94" s="9"/>
     </row>
     <row r="95" spans="1:25">
       <c r="A95" s="2" t="s">
@@ -8645,12 +8217,6 @@
         <v>462</v>
       </c>
       <c r="S95" s="9"/>
-      <c r="T95" s="9"/>
-      <c r="U95" s="9"/>
-      <c r="V95" s="9"/>
-      <c r="W95" s="9"/>
-      <c r="X95" s="9"/>
-      <c r="Y95" s="9"/>
     </row>
     <row r="96" spans="1:25">
       <c r="A96" s="2" t="s">
@@ -8698,12 +8264,6 @@
         <v>466</v>
       </c>
       <c r="S96" s="9"/>
-      <c r="T96" s="9"/>
-      <c r="U96" s="9"/>
-      <c r="V96" s="9"/>
-      <c r="W96" s="9"/>
-      <c r="X96" s="9"/>
-      <c r="Y96" s="9"/>
     </row>
     <row r="97" spans="1:25">
       <c r="A97" s="2" t="s">
@@ -8751,14 +8311,8 @@
         <v>47</v>
       </c>
       <c r="S97" s="9"/>
-      <c r="T97" s="9"/>
-      <c r="U97" s="9"/>
-      <c r="V97" s="9"/>
-      <c r="W97" s="9"/>
-      <c r="X97" s="9"/>
-      <c r="Y97" s="9"/>
-    </row>
-    <row r="98" spans="1:25" ht="22.5">
+    </row>
+    <row ht="22.5" r="98" spans="1:25">
       <c r="A98" s="2" t="s">
         <v>474</v>
       </c>
@@ -8804,12 +8358,6 @@
         <v>217</v>
       </c>
       <c r="S98" s="9"/>
-      <c r="T98" s="9"/>
-      <c r="U98" s="9"/>
-      <c r="V98" s="9"/>
-      <c r="W98" s="9"/>
-      <c r="X98" s="9"/>
-      <c r="Y98" s="9"/>
     </row>
     <row r="99" spans="1:25">
       <c r="A99" s="2" t="s">
@@ -8857,12 +8405,6 @@
         <v>137</v>
       </c>
       <c r="S99" s="9"/>
-      <c r="T99" s="9"/>
-      <c r="U99" s="9"/>
-      <c r="V99" s="9"/>
-      <c r="W99" s="9"/>
-      <c r="X99" s="9"/>
-      <c r="Y99" s="9"/>
     </row>
     <row r="100" spans="1:25">
       <c r="A100" s="2" t="s">
@@ -8910,12 +8452,6 @@
         <v>47</v>
       </c>
       <c r="S100" s="9"/>
-      <c r="T100" s="9"/>
-      <c r="U100" s="9"/>
-      <c r="V100" s="9"/>
-      <c r="W100" s="9"/>
-      <c r="X100" s="9"/>
-      <c r="Y100" s="9"/>
     </row>
     <row r="101" spans="1:25">
       <c r="A101" s="9"/>
@@ -8937,12 +8473,6 @@
       <c r="Q101" s="9"/>
       <c r="R101" s="9"/>
       <c r="S101" s="9"/>
-      <c r="T101" s="9"/>
-      <c r="U101" s="9"/>
-      <c r="V101" s="9"/>
-      <c r="W101" s="9"/>
-      <c r="X101" s="9"/>
-      <c r="Y101" s="9"/>
     </row>
     <row r="102" spans="1:25">
       <c r="A102" s="9"/>
@@ -8966,12 +8496,6 @@
       <c r="Q102" s="14"/>
       <c r="R102" s="14"/>
       <c r="S102" s="14"/>
-      <c r="T102" s="14"/>
-      <c r="U102" s="14"/>
-      <c r="V102" s="9"/>
-      <c r="W102" s="9"/>
-      <c r="X102" s="3"/>
-      <c r="Y102" s="3"/>
     </row>
     <row r="103" spans="1:25">
       <c r="A103" s="11" t="s">
@@ -8995,14 +8519,8 @@
       <c r="Q103" s="11"/>
       <c r="R103" s="11"/>
       <c r="S103" s="11"/>
-      <c r="T103" s="11"/>
-      <c r="U103" s="11"/>
-      <c r="V103" s="11"/>
-      <c r="W103" s="11"/>
-      <c r="X103" s="11"/>
-      <c r="Y103" s="11"/>
-    </row>
-    <row r="104" spans="1:25" ht="22.5">
+    </row>
+    <row ht="22.5" r="104" spans="1:25">
       <c r="A104" s="4" t="s">
         <v>29</v>
       </c>
@@ -9048,12 +8566,6 @@
         <v>41</v>
       </c>
       <c r="S104" s="9"/>
-      <c r="T104" s="9"/>
-      <c r="U104" s="9"/>
-      <c r="V104" s="9"/>
-      <c r="W104" s="9"/>
-      <c r="X104" s="9"/>
-      <c r="Y104" s="9"/>
     </row>
     <row r="105" spans="1:25">
       <c r="A105" s="2" t="s">
@@ -9101,12 +8613,6 @@
         <v>54</v>
       </c>
       <c r="S105" s="9"/>
-      <c r="T105" s="9"/>
-      <c r="U105" s="9"/>
-      <c r="V105" s="9"/>
-      <c r="W105" s="9"/>
-      <c r="X105" s="9"/>
-      <c r="Y105" s="9"/>
     </row>
     <row r="106" spans="1:25">
       <c r="A106" s="2" t="s">
@@ -9154,12 +8660,6 @@
         <v>47</v>
       </c>
       <c r="S106" s="9"/>
-      <c r="T106" s="9"/>
-      <c r="U106" s="9"/>
-      <c r="V106" s="9"/>
-      <c r="W106" s="9"/>
-      <c r="X106" s="9"/>
-      <c r="Y106" s="9"/>
     </row>
     <row r="107" spans="1:25">
       <c r="A107" s="2" t="s">
@@ -9207,12 +8707,6 @@
         <v>47</v>
       </c>
       <c r="S107" s="9"/>
-      <c r="T107" s="9"/>
-      <c r="U107" s="9"/>
-      <c r="V107" s="9"/>
-      <c r="W107" s="9"/>
-      <c r="X107" s="9"/>
-      <c r="Y107" s="9"/>
     </row>
     <row r="108" spans="1:25">
       <c r="A108" s="2" t="s">
@@ -9260,12 +8754,6 @@
         <v>493</v>
       </c>
       <c r="S108" s="9"/>
-      <c r="T108" s="9"/>
-      <c r="U108" s="9"/>
-      <c r="V108" s="9"/>
-      <c r="W108" s="9"/>
-      <c r="X108" s="9"/>
-      <c r="Y108" s="9"/>
     </row>
     <row r="109" spans="1:25">
       <c r="A109" s="2" t="s">
@@ -9313,14 +8801,8 @@
         <v>84</v>
       </c>
       <c r="S109" s="9"/>
-      <c r="T109" s="9"/>
-      <c r="U109" s="9"/>
-      <c r="V109" s="9"/>
-      <c r="W109" s="9"/>
-      <c r="X109" s="9"/>
-      <c r="Y109" s="9"/>
-    </row>
-    <row r="110" spans="1:25" ht="22.5">
+    </row>
+    <row ht="22.5" r="110" spans="1:25">
       <c r="A110" s="2" t="s">
         <v>500</v>
       </c>
@@ -9366,12 +8848,6 @@
         <v>169</v>
       </c>
       <c r="S110" s="9"/>
-      <c r="T110" s="9"/>
-      <c r="U110" s="9"/>
-      <c r="V110" s="9"/>
-      <c r="W110" s="9"/>
-      <c r="X110" s="9"/>
-      <c r="Y110" s="9"/>
     </row>
     <row r="111" spans="1:25">
       <c r="A111" s="2" t="s">
@@ -9419,12 +8895,6 @@
         <v>84</v>
       </c>
       <c r="S111" s="9"/>
-      <c r="T111" s="9"/>
-      <c r="U111" s="9"/>
-      <c r="V111" s="9"/>
-      <c r="W111" s="9"/>
-      <c r="X111" s="9"/>
-      <c r="Y111" s="9"/>
     </row>
     <row r="112" spans="1:25">
       <c r="A112" s="2" t="s">
@@ -9472,12 +8942,6 @@
         <v>126</v>
       </c>
       <c r="S112" s="9"/>
-      <c r="T112" s="9"/>
-      <c r="U112" s="9"/>
-      <c r="V112" s="9"/>
-      <c r="W112" s="9"/>
-      <c r="X112" s="9"/>
-      <c r="Y112" s="9"/>
     </row>
     <row r="113" spans="1:25">
       <c r="A113" s="2" t="s">
@@ -9525,12 +8989,6 @@
         <v>137</v>
       </c>
       <c r="S113" s="9"/>
-      <c r="T113" s="9"/>
-      <c r="U113" s="9"/>
-      <c r="V113" s="9"/>
-      <c r="W113" s="9"/>
-      <c r="X113" s="9"/>
-      <c r="Y113" s="9"/>
     </row>
     <row r="114" spans="1:25">
       <c r="A114" s="9"/>
@@ -9552,12 +9010,6 @@
       <c r="Q114" s="9"/>
       <c r="R114" s="9"/>
       <c r="S114" s="9"/>
-      <c r="T114" s="9"/>
-      <c r="U114" s="9"/>
-      <c r="V114" s="9"/>
-      <c r="W114" s="9"/>
-      <c r="X114" s="9"/>
-      <c r="Y114" s="9"/>
     </row>
     <row r="115" spans="1:25">
       <c r="A115" s="11" t="s">
@@ -9581,14 +9033,8 @@
       <c r="Q115" s="11"/>
       <c r="R115" s="11"/>
       <c r="S115" s="11"/>
-      <c r="T115" s="11"/>
-      <c r="U115" s="11"/>
-      <c r="V115" s="11"/>
-      <c r="W115" s="11"/>
-      <c r="X115" s="11"/>
-      <c r="Y115" s="11"/>
-    </row>
-    <row r="116" spans="1:25" ht="22.5">
+    </row>
+    <row ht="22.5" r="116" spans="1:25">
       <c r="A116" s="4" t="s">
         <v>29</v>
       </c>
@@ -9634,12 +9080,6 @@
         <v>41</v>
       </c>
       <c r="S116" s="9"/>
-      <c r="T116" s="9"/>
-      <c r="U116" s="9"/>
-      <c r="V116" s="9"/>
-      <c r="W116" s="9"/>
-      <c r="X116" s="9"/>
-      <c r="Y116" s="9"/>
     </row>
     <row r="117" spans="1:25">
       <c r="A117" s="2" t="s">
@@ -9687,12 +9127,6 @@
         <v>519</v>
       </c>
       <c r="S117" s="9"/>
-      <c r="T117" s="9"/>
-      <c r="U117" s="9"/>
-      <c r="V117" s="9"/>
-      <c r="W117" s="9"/>
-      <c r="X117" s="9"/>
-      <c r="Y117" s="9"/>
     </row>
     <row r="118" spans="1:25">
       <c r="A118" s="2" t="s">
@@ -9740,12 +9174,6 @@
         <v>424</v>
       </c>
       <c r="S118" s="9"/>
-      <c r="T118" s="9"/>
-      <c r="U118" s="9"/>
-      <c r="V118" s="9"/>
-      <c r="W118" s="9"/>
-      <c r="X118" s="9"/>
-      <c r="Y118" s="9"/>
     </row>
     <row r="119" spans="1:25">
       <c r="A119" s="2" t="s">
@@ -9793,12 +9221,6 @@
         <v>534</v>
       </c>
       <c r="S119" s="9"/>
-      <c r="T119" s="9"/>
-      <c r="U119" s="9"/>
-      <c r="V119" s="9"/>
-      <c r="W119" s="9"/>
-      <c r="X119" s="9"/>
-      <c r="Y119" s="9"/>
     </row>
     <row r="120" spans="1:25">
       <c r="A120" s="2" t="s">
@@ -9846,12 +9268,6 @@
         <v>542</v>
       </c>
       <c r="S120" s="9"/>
-      <c r="T120" s="9"/>
-      <c r="U120" s="9"/>
-      <c r="V120" s="9"/>
-      <c r="W120" s="9"/>
-      <c r="X120" s="9"/>
-      <c r="Y120" s="9"/>
     </row>
     <row r="121" spans="1:25">
       <c r="A121" s="2" t="s">
@@ -9899,14 +9315,8 @@
         <v>551</v>
       </c>
       <c r="S121" s="9"/>
-      <c r="T121" s="9"/>
-      <c r="U121" s="9"/>
-      <c r="V121" s="9"/>
-      <c r="W121" s="9"/>
-      <c r="X121" s="9"/>
-      <c r="Y121" s="9"/>
-    </row>
-    <row r="122" spans="1:25" ht="22.5">
+    </row>
+    <row ht="22.5" r="122" spans="1:25">
       <c r="A122" s="2" t="s">
         <v>552</v>
       </c>
@@ -9952,12 +9362,6 @@
         <v>556</v>
       </c>
       <c r="S122" s="9"/>
-      <c r="T122" s="9"/>
-      <c r="U122" s="9"/>
-      <c r="V122" s="9"/>
-      <c r="W122" s="9"/>
-      <c r="X122" s="9"/>
-      <c r="Y122" s="9"/>
     </row>
     <row r="123" spans="1:25">
       <c r="A123" s="2" t="s">
@@ -10005,12 +9409,6 @@
         <v>47</v>
       </c>
       <c r="S123" s="9"/>
-      <c r="T123" s="9"/>
-      <c r="U123" s="9"/>
-      <c r="V123" s="9"/>
-      <c r="W123" s="9"/>
-      <c r="X123" s="9"/>
-      <c r="Y123" s="9"/>
     </row>
     <row r="124" spans="1:25">
       <c r="A124" s="2" t="s">
@@ -10058,12 +9456,6 @@
         <v>570</v>
       </c>
       <c r="S124" s="9"/>
-      <c r="T124" s="9"/>
-      <c r="U124" s="9"/>
-      <c r="V124" s="9"/>
-      <c r="W124" s="9"/>
-      <c r="X124" s="9"/>
-      <c r="Y124" s="9"/>
     </row>
     <row r="125" spans="1:25">
       <c r="A125" s="2" t="s">
@@ -10111,12 +9503,6 @@
         <v>137</v>
       </c>
       <c r="S125" s="9"/>
-      <c r="T125" s="9"/>
-      <c r="U125" s="9"/>
-      <c r="V125" s="9"/>
-      <c r="W125" s="9"/>
-      <c r="X125" s="9"/>
-      <c r="Y125" s="9"/>
     </row>
     <row r="126" spans="1:25">
       <c r="A126" s="2" t="s">
@@ -10164,12 +9550,6 @@
         <v>47</v>
       </c>
       <c r="S126" s="9"/>
-      <c r="T126" s="9"/>
-      <c r="U126" s="9"/>
-      <c r="V126" s="9"/>
-      <c r="W126" s="9"/>
-      <c r="X126" s="9"/>
-      <c r="Y126" s="9"/>
     </row>
     <row r="127" spans="1:25">
       <c r="A127" s="9"/>
@@ -10191,12 +9571,6 @@
       <c r="Q127" s="9"/>
       <c r="R127" s="9"/>
       <c r="S127" s="9"/>
-      <c r="T127" s="9"/>
-      <c r="U127" s="9"/>
-      <c r="V127" s="9"/>
-      <c r="W127" s="9"/>
-      <c r="X127" s="9"/>
-      <c r="Y127" s="9"/>
     </row>
     <row r="128" spans="1:25">
       <c r="A128" s="11" t="s">
@@ -10220,14 +9594,8 @@
       <c r="Q128" s="11"/>
       <c r="R128" s="11"/>
       <c r="S128" s="11"/>
-      <c r="T128" s="11"/>
-      <c r="U128" s="11"/>
-      <c r="V128" s="11"/>
-      <c r="W128" s="11"/>
-      <c r="X128" s="11"/>
-      <c r="Y128" s="11"/>
-    </row>
-    <row r="129" spans="1:25" ht="22.5">
+    </row>
+    <row ht="22.5" r="129" spans="1:25">
       <c r="A129" s="4" t="s">
         <v>29</v>
       </c>
@@ -10273,12 +9641,6 @@
         <v>41</v>
       </c>
       <c r="S129" s="9"/>
-      <c r="T129" s="9"/>
-      <c r="U129" s="9"/>
-      <c r="V129" s="9"/>
-      <c r="W129" s="9"/>
-      <c r="X129" s="9"/>
-      <c r="Y129" s="9"/>
     </row>
     <row r="130" spans="1:25">
       <c r="A130" s="2" t="s">
@@ -10326,14 +9688,8 @@
         <v>578</v>
       </c>
       <c r="S130" s="9"/>
-      <c r="T130" s="9"/>
-      <c r="U130" s="9"/>
-      <c r="V130" s="9"/>
-      <c r="W130" s="9"/>
-      <c r="X130" s="9"/>
-      <c r="Y130" s="9"/>
-    </row>
-    <row r="131" spans="1:25" ht="22.5">
+    </row>
+    <row ht="22.5" r="131" spans="1:25">
       <c r="A131" s="2" t="s">
         <v>579</v>
       </c>
@@ -10379,12 +9735,6 @@
         <v>584</v>
       </c>
       <c r="S131" s="9"/>
-      <c r="T131" s="9"/>
-      <c r="U131" s="9"/>
-      <c r="V131" s="9"/>
-      <c r="W131" s="9"/>
-      <c r="X131" s="9"/>
-      <c r="Y131" s="9"/>
     </row>
     <row r="132" spans="1:25">
       <c r="A132" s="2" t="s">
@@ -10432,12 +9782,6 @@
         <v>592</v>
       </c>
       <c r="S132" s="9"/>
-      <c r="T132" s="9"/>
-      <c r="U132" s="9"/>
-      <c r="V132" s="9"/>
-      <c r="W132" s="9"/>
-      <c r="X132" s="9"/>
-      <c r="Y132" s="9"/>
     </row>
     <row r="133" spans="1:25">
       <c r="A133" s="2" t="s">
@@ -10485,12 +9829,6 @@
         <v>602</v>
       </c>
       <c r="S133" s="9"/>
-      <c r="T133" s="9"/>
-      <c r="U133" s="9"/>
-      <c r="V133" s="9"/>
-      <c r="W133" s="9"/>
-      <c r="X133" s="9"/>
-      <c r="Y133" s="9"/>
     </row>
     <row r="134" spans="1:25">
       <c r="A134" s="2" t="s">
@@ -10538,14 +9876,8 @@
         <v>608</v>
       </c>
       <c r="S134" s="9"/>
-      <c r="T134" s="9"/>
-      <c r="U134" s="9"/>
-      <c r="V134" s="9"/>
-      <c r="W134" s="9"/>
-      <c r="X134" s="9"/>
-      <c r="Y134" s="9"/>
-    </row>
-    <row r="135" spans="1:25" ht="22.5">
+    </row>
+    <row ht="22.5" r="135" spans="1:25">
       <c r="A135" s="2" t="s">
         <v>609</v>
       </c>
@@ -10591,12 +9923,6 @@
         <v>616</v>
       </c>
       <c r="S135" s="9"/>
-      <c r="T135" s="9"/>
-      <c r="U135" s="9"/>
-      <c r="V135" s="9"/>
-      <c r="W135" s="9"/>
-      <c r="X135" s="9"/>
-      <c r="Y135" s="9"/>
     </row>
     <row r="136" spans="1:25">
       <c r="A136" s="2" t="s">
@@ -10644,12 +9970,6 @@
         <v>621</v>
       </c>
       <c r="S136" s="9"/>
-      <c r="T136" s="9"/>
-      <c r="U136" s="9"/>
-      <c r="V136" s="9"/>
-      <c r="W136" s="9"/>
-      <c r="X136" s="9"/>
-      <c r="Y136" s="9"/>
     </row>
     <row r="137" spans="1:25">
       <c r="A137" s="2" t="s">
@@ -10697,12 +10017,6 @@
         <v>47</v>
       </c>
       <c r="S137" s="9"/>
-      <c r="T137" s="9"/>
-      <c r="U137" s="9"/>
-      <c r="V137" s="9"/>
-      <c r="W137" s="9"/>
-      <c r="X137" s="9"/>
-      <c r="Y137" s="9"/>
     </row>
     <row r="138" spans="1:25">
       <c r="A138" s="2" t="s">
@@ -10750,14 +10064,8 @@
         <v>53</v>
       </c>
       <c r="S138" s="9"/>
-      <c r="T138" s="9"/>
-      <c r="U138" s="9"/>
-      <c r="V138" s="9"/>
-      <c r="W138" s="9"/>
-      <c r="X138" s="9"/>
-      <c r="Y138" s="9"/>
-    </row>
-    <row r="139" spans="1:25" ht="22.5">
+    </row>
+    <row ht="22.5" r="139" spans="1:25">
       <c r="A139" s="2" t="s">
         <v>628</v>
       </c>
@@ -10803,12 +10111,6 @@
         <v>633</v>
       </c>
       <c r="S139" s="9"/>
-      <c r="T139" s="9"/>
-      <c r="U139" s="9"/>
-      <c r="V139" s="9"/>
-      <c r="W139" s="9"/>
-      <c r="X139" s="9"/>
-      <c r="Y139" s="9"/>
     </row>
     <row r="140" spans="1:25">
       <c r="A140" s="2" t="s">
@@ -10856,12 +10158,6 @@
         <v>137</v>
       </c>
       <c r="S140" s="9"/>
-      <c r="T140" s="9"/>
-      <c r="U140" s="9"/>
-      <c r="V140" s="9"/>
-      <c r="W140" s="9"/>
-      <c r="X140" s="9"/>
-      <c r="Y140" s="9"/>
     </row>
     <row r="141" spans="1:25">
       <c r="A141" s="2" t="s">
@@ -10909,12 +10205,6 @@
         <v>47</v>
       </c>
       <c r="S141" s="9"/>
-      <c r="T141" s="9"/>
-      <c r="U141" s="9"/>
-      <c r="V141" s="9"/>
-      <c r="W141" s="9"/>
-      <c r="X141" s="9"/>
-      <c r="Y141" s="9"/>
     </row>
     <row r="142" spans="1:25">
       <c r="A142" s="9"/>
@@ -10936,12 +10226,6 @@
       <c r="Q142" s="9"/>
       <c r="R142" s="9"/>
       <c r="S142" s="9"/>
-      <c r="T142" s="9"/>
-      <c r="U142" s="9"/>
-      <c r="V142" s="9"/>
-      <c r="W142" s="9"/>
-      <c r="X142" s="9"/>
-      <c r="Y142" s="9"/>
     </row>
     <row r="143" spans="1:25">
       <c r="A143" s="9"/>
@@ -10965,12 +10249,6 @@
       <c r="Q143" s="14"/>
       <c r="R143" s="14"/>
       <c r="S143" s="14"/>
-      <c r="T143" s="14"/>
-      <c r="U143" s="14"/>
-      <c r="V143" s="9"/>
-      <c r="W143" s="9"/>
-      <c r="X143" s="3"/>
-      <c r="Y143" s="3"/>
     </row>
     <row r="144" spans="1:25">
       <c r="A144" s="11" t="s">
@@ -10994,14 +10272,8 @@
       <c r="Q144" s="11"/>
       <c r="R144" s="11"/>
       <c r="S144" s="11"/>
-      <c r="T144" s="11"/>
-      <c r="U144" s="11"/>
-      <c r="V144" s="11"/>
-      <c r="W144" s="11"/>
-      <c r="X144" s="11"/>
-      <c r="Y144" s="11"/>
-    </row>
-    <row r="145" spans="1:25" ht="22.5">
+    </row>
+    <row ht="22.5" r="145" spans="1:25">
       <c r="A145" s="4" t="s">
         <v>29</v>
       </c>
@@ -11047,12 +10319,6 @@
         <v>41</v>
       </c>
       <c r="S145" s="9"/>
-      <c r="T145" s="9"/>
-      <c r="U145" s="9"/>
-      <c r="V145" s="9"/>
-      <c r="W145" s="9"/>
-      <c r="X145" s="9"/>
-      <c r="Y145" s="9"/>
     </row>
     <row r="146" spans="1:25">
       <c r="A146" s="2" t="s">
@@ -11100,12 +10366,6 @@
         <v>54</v>
       </c>
       <c r="S146" s="9"/>
-      <c r="T146" s="9"/>
-      <c r="U146" s="9"/>
-      <c r="V146" s="9"/>
-      <c r="W146" s="9"/>
-      <c r="X146" s="9"/>
-      <c r="Y146" s="9"/>
     </row>
     <row r="147" spans="1:25">
       <c r="A147" s="2" t="s">
@@ -11153,12 +10413,6 @@
         <v>47</v>
       </c>
       <c r="S147" s="9"/>
-      <c r="T147" s="9"/>
-      <c r="U147" s="9"/>
-      <c r="V147" s="9"/>
-      <c r="W147" s="9"/>
-      <c r="X147" s="9"/>
-      <c r="Y147" s="9"/>
     </row>
     <row r="148" spans="1:25">
       <c r="A148" s="2" t="s">
@@ -11206,12 +10460,6 @@
         <v>47</v>
       </c>
       <c r="S148" s="9"/>
-      <c r="T148" s="9"/>
-      <c r="U148" s="9"/>
-      <c r="V148" s="9"/>
-      <c r="W148" s="9"/>
-      <c r="X148" s="9"/>
-      <c r="Y148" s="9"/>
     </row>
     <row r="149" spans="1:25">
       <c r="A149" s="2" t="s">
@@ -11259,12 +10507,6 @@
         <v>641</v>
       </c>
       <c r="S149" s="9"/>
-      <c r="T149" s="9"/>
-      <c r="U149" s="9"/>
-      <c r="V149" s="9"/>
-      <c r="W149" s="9"/>
-      <c r="X149" s="9"/>
-      <c r="Y149" s="9"/>
     </row>
     <row r="150" spans="1:25">
       <c r="A150" s="2" t="s">
@@ -11312,12 +10554,6 @@
         <v>124</v>
       </c>
       <c r="S150" s="9"/>
-      <c r="T150" s="9"/>
-      <c r="U150" s="9"/>
-      <c r="V150" s="9"/>
-      <c r="W150" s="9"/>
-      <c r="X150" s="9"/>
-      <c r="Y150" s="9"/>
     </row>
     <row r="151" spans="1:25">
       <c r="A151" s="2" t="s">
@@ -11365,12 +10601,6 @@
         <v>647</v>
       </c>
       <c r="S151" s="9"/>
-      <c r="T151" s="9"/>
-      <c r="U151" s="9"/>
-      <c r="V151" s="9"/>
-      <c r="W151" s="9"/>
-      <c r="X151" s="9"/>
-      <c r="Y151" s="9"/>
     </row>
     <row r="152" spans="1:25">
       <c r="A152" s="2" t="s">
@@ -11418,12 +10648,6 @@
         <v>655</v>
       </c>
       <c r="S152" s="9"/>
-      <c r="T152" s="9"/>
-      <c r="U152" s="9"/>
-      <c r="V152" s="9"/>
-      <c r="W152" s="9"/>
-      <c r="X152" s="9"/>
-      <c r="Y152" s="9"/>
     </row>
     <row r="153" spans="1:25">
       <c r="A153" s="2" t="s">
@@ -11471,12 +10695,6 @@
         <v>126</v>
       </c>
       <c r="S153" s="9"/>
-      <c r="T153" s="9"/>
-      <c r="U153" s="9"/>
-      <c r="V153" s="9"/>
-      <c r="W153" s="9"/>
-      <c r="X153" s="9"/>
-      <c r="Y153" s="9"/>
     </row>
     <row r="154" spans="1:25">
       <c r="A154" s="2" t="s">
@@ -11524,12 +10742,6 @@
         <v>137</v>
       </c>
       <c r="S154" s="9"/>
-      <c r="T154" s="9"/>
-      <c r="U154" s="9"/>
-      <c r="V154" s="9"/>
-      <c r="W154" s="9"/>
-      <c r="X154" s="9"/>
-      <c r="Y154" s="9"/>
     </row>
     <row r="155" spans="1:25">
       <c r="A155" s="9"/>
@@ -11551,12 +10763,6 @@
       <c r="Q155" s="9"/>
       <c r="R155" s="9"/>
       <c r="S155" s="9"/>
-      <c r="T155" s="9"/>
-      <c r="U155" s="9"/>
-      <c r="V155" s="9"/>
-      <c r="W155" s="9"/>
-      <c r="X155" s="9"/>
-      <c r="Y155" s="9"/>
     </row>
     <row r="156" spans="1:25">
       <c r="A156" s="11" t="s">
@@ -11580,14 +10786,8 @@
       <c r="Q156" s="11"/>
       <c r="R156" s="11"/>
       <c r="S156" s="11"/>
-      <c r="T156" s="11"/>
-      <c r="U156" s="11"/>
-      <c r="V156" s="11"/>
-      <c r="W156" s="11"/>
-      <c r="X156" s="11"/>
-      <c r="Y156" s="11"/>
-    </row>
-    <row r="157" spans="1:25" ht="22.5">
+    </row>
+    <row ht="22.5" r="157" spans="1:25">
       <c r="A157" s="4" t="s">
         <v>29</v>
       </c>
@@ -11633,12 +10833,6 @@
         <v>41</v>
       </c>
       <c r="S157" s="9"/>
-      <c r="T157" s="9"/>
-      <c r="U157" s="9"/>
-      <c r="V157" s="9"/>
-      <c r="W157" s="9"/>
-      <c r="X157" s="9"/>
-      <c r="Y157" s="9"/>
     </row>
     <row r="158" spans="1:25">
       <c r="A158" s="2" t="s">
@@ -11686,12 +10880,6 @@
         <v>664</v>
       </c>
       <c r="S158" s="9"/>
-      <c r="T158" s="9"/>
-      <c r="U158" s="9"/>
-      <c r="V158" s="9"/>
-      <c r="W158" s="9"/>
-      <c r="X158" s="9"/>
-      <c r="Y158" s="9"/>
     </row>
     <row r="159" spans="1:25">
       <c r="A159" s="2" t="s">
@@ -11739,12 +10927,6 @@
         <v>673</v>
       </c>
       <c r="S159" s="9"/>
-      <c r="T159" s="9"/>
-      <c r="U159" s="9"/>
-      <c r="V159" s="9"/>
-      <c r="W159" s="9"/>
-      <c r="X159" s="9"/>
-      <c r="Y159" s="9"/>
     </row>
     <row r="160" spans="1:25">
       <c r="A160" s="2" t="s">
@@ -11792,12 +10974,6 @@
         <v>681</v>
       </c>
       <c r="S160" s="9"/>
-      <c r="T160" s="9"/>
-      <c r="U160" s="9"/>
-      <c r="V160" s="9"/>
-      <c r="W160" s="9"/>
-      <c r="X160" s="9"/>
-      <c r="Y160" s="9"/>
     </row>
     <row r="161" spans="1:25">
       <c r="A161" s="2" t="s">
@@ -11845,12 +11021,6 @@
         <v>686</v>
       </c>
       <c r="S161" s="9"/>
-      <c r="T161" s="9"/>
-      <c r="U161" s="9"/>
-      <c r="V161" s="9"/>
-      <c r="W161" s="9"/>
-      <c r="X161" s="9"/>
-      <c r="Y161" s="9"/>
     </row>
     <row r="162" spans="1:25">
       <c r="A162" s="2" t="s">
@@ -11898,12 +11068,6 @@
         <v>84</v>
       </c>
       <c r="S162" s="9"/>
-      <c r="T162" s="9"/>
-      <c r="U162" s="9"/>
-      <c r="V162" s="9"/>
-      <c r="W162" s="9"/>
-      <c r="X162" s="9"/>
-      <c r="Y162" s="9"/>
     </row>
     <row r="163" spans="1:25">
       <c r="A163" s="2" t="s">
@@ -11951,12 +11115,6 @@
         <v>84</v>
       </c>
       <c r="S163" s="9"/>
-      <c r="T163" s="9"/>
-      <c r="U163" s="9"/>
-      <c r="V163" s="9"/>
-      <c r="W163" s="9"/>
-      <c r="X163" s="9"/>
-      <c r="Y163" s="9"/>
     </row>
     <row r="164" spans="1:25">
       <c r="A164" s="2" t="s">
@@ -12004,12 +11162,6 @@
         <v>361</v>
       </c>
       <c r="S164" s="9"/>
-      <c r="T164" s="9"/>
-      <c r="U164" s="9"/>
-      <c r="V164" s="9"/>
-      <c r="W164" s="9"/>
-      <c r="X164" s="9"/>
-      <c r="Y164" s="9"/>
     </row>
     <row r="165" spans="1:25">
       <c r="A165" s="2" t="s">
@@ -12057,12 +11209,6 @@
         <v>137</v>
       </c>
       <c r="S165" s="9"/>
-      <c r="T165" s="9"/>
-      <c r="U165" s="9"/>
-      <c r="V165" s="9"/>
-      <c r="W165" s="9"/>
-      <c r="X165" s="9"/>
-      <c r="Y165" s="9"/>
     </row>
     <row r="166" spans="1:25">
       <c r="A166" s="2" t="s">
@@ -12110,12 +11256,6 @@
         <v>47</v>
       </c>
       <c r="S166" s="9"/>
-      <c r="T166" s="9"/>
-      <c r="U166" s="9"/>
-      <c r="V166" s="9"/>
-      <c r="W166" s="9"/>
-      <c r="X166" s="9"/>
-      <c r="Y166" s="9"/>
     </row>
     <row r="167" spans="1:25">
       <c r="A167" s="2" t="s">
@@ -12163,12 +11303,6 @@
         <v>53</v>
       </c>
       <c r="S167" s="9"/>
-      <c r="T167" s="9"/>
-      <c r="U167" s="9"/>
-      <c r="V167" s="9"/>
-      <c r="W167" s="9"/>
-      <c r="X167" s="9"/>
-      <c r="Y167" s="9"/>
     </row>
     <row r="168" spans="1:25">
       <c r="A168" s="9"/>
@@ -12190,12 +11324,6 @@
       <c r="Q168" s="9"/>
       <c r="R168" s="9"/>
       <c r="S168" s="9"/>
-      <c r="T168" s="9"/>
-      <c r="U168" s="9"/>
-      <c r="V168" s="9"/>
-      <c r="W168" s="9"/>
-      <c r="X168" s="9"/>
-      <c r="Y168" s="9"/>
     </row>
     <row r="169" spans="1:25">
       <c r="A169" s="11" t="s">
@@ -12219,14 +11347,8 @@
       <c r="Q169" s="11"/>
       <c r="R169" s="11"/>
       <c r="S169" s="11"/>
-      <c r="T169" s="11"/>
-      <c r="U169" s="11"/>
-      <c r="V169" s="11"/>
-      <c r="W169" s="11"/>
-      <c r="X169" s="11"/>
-      <c r="Y169" s="11"/>
-    </row>
-    <row r="170" spans="1:25" ht="22.5">
+    </row>
+    <row ht="22.5" r="170" spans="1:25">
       <c r="A170" s="4" t="s">
         <v>29</v>
       </c>
@@ -12272,12 +11394,6 @@
         <v>41</v>
       </c>
       <c r="S170" s="9"/>
-      <c r="T170" s="9"/>
-      <c r="U170" s="9"/>
-      <c r="V170" s="9"/>
-      <c r="W170" s="9"/>
-      <c r="X170" s="9"/>
-      <c r="Y170" s="9"/>
     </row>
     <row r="171" spans="1:25">
       <c r="A171" s="2" t="s">
@@ -12325,12 +11441,6 @@
         <v>479</v>
       </c>
       <c r="S171" s="9"/>
-      <c r="T171" s="9"/>
-      <c r="U171" s="9"/>
-      <c r="V171" s="9"/>
-      <c r="W171" s="9"/>
-      <c r="X171" s="9"/>
-      <c r="Y171" s="9"/>
     </row>
     <row r="172" spans="1:25">
       <c r="A172" s="2" t="s">
@@ -12378,12 +11488,6 @@
         <v>717</v>
       </c>
       <c r="S172" s="9"/>
-      <c r="T172" s="9"/>
-      <c r="U172" s="9"/>
-      <c r="V172" s="9"/>
-      <c r="W172" s="9"/>
-      <c r="X172" s="9"/>
-      <c r="Y172" s="9"/>
     </row>
     <row r="173" spans="1:25">
       <c r="A173" s="2" t="s">
@@ -12431,14 +11535,8 @@
         <v>83</v>
       </c>
       <c r="S173" s="9"/>
-      <c r="T173" s="9"/>
-      <c r="U173" s="9"/>
-      <c r="V173" s="9"/>
-      <c r="W173" s="9"/>
-      <c r="X173" s="9"/>
-      <c r="Y173" s="9"/>
-    </row>
-    <row r="174" spans="1:25" ht="22.5">
+    </row>
+    <row ht="22.5" r="174" spans="1:25">
       <c r="A174" s="2" t="s">
         <v>723</v>
       </c>
@@ -12484,14 +11582,8 @@
         <v>698</v>
       </c>
       <c r="S174" s="9"/>
-      <c r="T174" s="9"/>
-      <c r="U174" s="9"/>
-      <c r="V174" s="9"/>
-      <c r="W174" s="9"/>
-      <c r="X174" s="9"/>
-      <c r="Y174" s="9"/>
-    </row>
-    <row r="175" spans="1:25" ht="22.5">
+    </row>
+    <row ht="22.5" r="175" spans="1:25">
       <c r="A175" s="2" t="s">
         <v>729</v>
       </c>
@@ -12537,12 +11629,6 @@
         <v>733</v>
       </c>
       <c r="S175" s="9"/>
-      <c r="T175" s="9"/>
-      <c r="U175" s="9"/>
-      <c r="V175" s="9"/>
-      <c r="W175" s="9"/>
-      <c r="X175" s="9"/>
-      <c r="Y175" s="9"/>
     </row>
     <row r="176" spans="1:25">
       <c r="A176" s="2" t="s">
@@ -12590,12 +11676,6 @@
         <v>53</v>
       </c>
       <c r="S176" s="9"/>
-      <c r="T176" s="9"/>
-      <c r="U176" s="9"/>
-      <c r="V176" s="9"/>
-      <c r="W176" s="9"/>
-      <c r="X176" s="9"/>
-      <c r="Y176" s="9"/>
     </row>
     <row r="177" spans="1:25">
       <c r="A177" s="2" t="s">
@@ -12643,12 +11723,6 @@
         <v>742</v>
       </c>
       <c r="S177" s="9"/>
-      <c r="T177" s="9"/>
-      <c r="U177" s="9"/>
-      <c r="V177" s="9"/>
-      <c r="W177" s="9"/>
-      <c r="X177" s="9"/>
-      <c r="Y177" s="9"/>
     </row>
     <row r="178" spans="1:25">
       <c r="A178" s="2" t="s">
@@ -12696,12 +11770,6 @@
         <v>747</v>
       </c>
       <c r="S178" s="9"/>
-      <c r="T178" s="9"/>
-      <c r="U178" s="9"/>
-      <c r="V178" s="9"/>
-      <c r="W178" s="9"/>
-      <c r="X178" s="9"/>
-      <c r="Y178" s="9"/>
     </row>
     <row r="179" spans="1:25">
       <c r="A179" s="2" t="s">
@@ -12749,14 +11817,8 @@
         <v>120</v>
       </c>
       <c r="S179" s="9"/>
-      <c r="T179" s="9"/>
-      <c r="U179" s="9"/>
-      <c r="V179" s="9"/>
-      <c r="W179" s="9"/>
-      <c r="X179" s="9"/>
-      <c r="Y179" s="9"/>
-    </row>
-    <row r="180" spans="1:25" ht="22.5">
+    </row>
+    <row ht="22.5" r="180" spans="1:25">
       <c r="A180" s="2" t="s">
         <v>753</v>
       </c>
@@ -12802,12 +11864,6 @@
         <v>761</v>
       </c>
       <c r="S180" s="9"/>
-      <c r="T180" s="9"/>
-      <c r="U180" s="9"/>
-      <c r="V180" s="9"/>
-      <c r="W180" s="9"/>
-      <c r="X180" s="9"/>
-      <c r="Y180" s="9"/>
     </row>
     <row r="181" spans="1:25">
       <c r="A181" s="2" t="s">
@@ -12855,12 +11911,6 @@
         <v>137</v>
       </c>
       <c r="S181" s="9"/>
-      <c r="T181" s="9"/>
-      <c r="U181" s="9"/>
-      <c r="V181" s="9"/>
-      <c r="W181" s="9"/>
-      <c r="X181" s="9"/>
-      <c r="Y181" s="9"/>
     </row>
     <row r="182" spans="1:25">
       <c r="A182" s="2" t="s">
@@ -12908,12 +11958,6 @@
         <v>47</v>
       </c>
       <c r="S182" s="9"/>
-      <c r="T182" s="9"/>
-      <c r="U182" s="9"/>
-      <c r="V182" s="9"/>
-      <c r="W182" s="9"/>
-      <c r="X182" s="9"/>
-      <c r="Y182" s="9"/>
     </row>
     <row r="183" spans="1:25">
       <c r="A183" s="9"/>
@@ -12935,12 +11979,6 @@
       <c r="Q183" s="9"/>
       <c r="R183" s="9"/>
       <c r="S183" s="9"/>
-      <c r="T183" s="9"/>
-      <c r="U183" s="9"/>
-      <c r="V183" s="9"/>
-      <c r="W183" s="9"/>
-      <c r="X183" s="9"/>
-      <c r="Y183" s="9"/>
     </row>
     <row r="184" spans="1:25">
       <c r="A184" s="9"/>
@@ -12964,12 +12002,6 @@
       <c r="Q184" s="14"/>
       <c r="R184" s="14"/>
       <c r="S184" s="14"/>
-      <c r="T184" s="14"/>
-      <c r="U184" s="14"/>
-      <c r="V184" s="9"/>
-      <c r="W184" s="9"/>
-      <c r="X184" s="3"/>
-      <c r="Y184" s="3"/>
     </row>
     <row r="185" spans="1:25">
       <c r="A185" s="11" t="s">
@@ -12993,14 +12025,8 @@
       <c r="Q185" s="11"/>
       <c r="R185" s="11"/>
       <c r="S185" s="11"/>
-      <c r="T185" s="11"/>
-      <c r="U185" s="11"/>
-      <c r="V185" s="11"/>
-      <c r="W185" s="11"/>
-      <c r="X185" s="11"/>
-      <c r="Y185" s="11"/>
-    </row>
-    <row r="186" spans="1:25" ht="22.5">
+    </row>
+    <row ht="22.5" r="186" spans="1:25">
       <c r="A186" s="4" t="s">
         <v>29</v>
       </c>
@@ -13046,12 +12072,6 @@
         <v>41</v>
       </c>
       <c r="S186" s="9"/>
-      <c r="T186" s="9"/>
-      <c r="U186" s="9"/>
-      <c r="V186" s="9"/>
-      <c r="W186" s="9"/>
-      <c r="X186" s="9"/>
-      <c r="Y186" s="9"/>
     </row>
     <row r="187" spans="1:25">
       <c r="A187" s="2" t="s">
@@ -13099,12 +12119,6 @@
         <v>54</v>
       </c>
       <c r="S187" s="9"/>
-      <c r="T187" s="9"/>
-      <c r="U187" s="9"/>
-      <c r="V187" s="9"/>
-      <c r="W187" s="9"/>
-      <c r="X187" s="9"/>
-      <c r="Y187" s="9"/>
     </row>
     <row r="188" spans="1:25">
       <c r="A188" s="2" t="s">
@@ -13152,12 +12166,6 @@
         <v>47</v>
       </c>
       <c r="S188" s="9"/>
-      <c r="T188" s="9"/>
-      <c r="U188" s="9"/>
-      <c r="V188" s="9"/>
-      <c r="W188" s="9"/>
-      <c r="X188" s="9"/>
-      <c r="Y188" s="9"/>
     </row>
     <row r="189" spans="1:25">
       <c r="A189" s="2" t="s">
@@ -13205,12 +12213,6 @@
         <v>318</v>
       </c>
       <c r="S189" s="9"/>
-      <c r="T189" s="9"/>
-      <c r="U189" s="9"/>
-      <c r="V189" s="9"/>
-      <c r="W189" s="9"/>
-      <c r="X189" s="9"/>
-      <c r="Y189" s="9"/>
     </row>
     <row r="190" spans="1:25">
       <c r="A190" s="2" t="s">
@@ -13258,12 +12260,6 @@
         <v>771</v>
       </c>
       <c r="S190" s="9"/>
-      <c r="T190" s="9"/>
-      <c r="U190" s="9"/>
-      <c r="V190" s="9"/>
-      <c r="W190" s="9"/>
-      <c r="X190" s="9"/>
-      <c r="Y190" s="9"/>
     </row>
     <row r="191" spans="1:25">
       <c r="A191" s="2" t="s">
@@ -13311,12 +12307,6 @@
         <v>84</v>
       </c>
       <c r="S191" s="9"/>
-      <c r="T191" s="9"/>
-      <c r="U191" s="9"/>
-      <c r="V191" s="9"/>
-      <c r="W191" s="9"/>
-      <c r="X191" s="9"/>
-      <c r="Y191" s="9"/>
     </row>
     <row r="192" spans="1:25">
       <c r="A192" s="2" t="s">
@@ -13364,12 +12354,6 @@
         <v>342</v>
       </c>
       <c r="S192" s="9"/>
-      <c r="T192" s="9"/>
-      <c r="U192" s="9"/>
-      <c r="V192" s="9"/>
-      <c r="W192" s="9"/>
-      <c r="X192" s="9"/>
-      <c r="Y192" s="9"/>
     </row>
     <row r="193" spans="1:25">
       <c r="A193" s="2" t="s">
@@ -13417,12 +12401,6 @@
         <v>84</v>
       </c>
       <c r="S193" s="9"/>
-      <c r="T193" s="9"/>
-      <c r="U193" s="9"/>
-      <c r="V193" s="9"/>
-      <c r="W193" s="9"/>
-      <c r="X193" s="9"/>
-      <c r="Y193" s="9"/>
     </row>
     <row r="194" spans="1:25">
       <c r="A194" s="2" t="s">
@@ -13470,12 +12448,6 @@
         <v>126</v>
       </c>
       <c r="S194" s="9"/>
-      <c r="T194" s="9"/>
-      <c r="U194" s="9"/>
-      <c r="V194" s="9"/>
-      <c r="W194" s="9"/>
-      <c r="X194" s="9"/>
-      <c r="Y194" s="9"/>
     </row>
     <row r="195" spans="1:25">
       <c r="A195" s="2" t="s">
@@ -13523,12 +12495,6 @@
         <v>137</v>
       </c>
       <c r="S195" s="9"/>
-      <c r="T195" s="9"/>
-      <c r="U195" s="9"/>
-      <c r="V195" s="9"/>
-      <c r="W195" s="9"/>
-      <c r="X195" s="9"/>
-      <c r="Y195" s="9"/>
     </row>
     <row r="196" spans="1:25">
       <c r="A196" s="9"/>
@@ -13550,12 +12516,6 @@
       <c r="Q196" s="9"/>
       <c r="R196" s="9"/>
       <c r="S196" s="9"/>
-      <c r="T196" s="9"/>
-      <c r="U196" s="9"/>
-      <c r="V196" s="9"/>
-      <c r="W196" s="9"/>
-      <c r="X196" s="9"/>
-      <c r="Y196" s="9"/>
     </row>
     <row r="197" spans="1:25">
       <c r="A197" s="11" t="s">
@@ -13579,14 +12539,8 @@
       <c r="Q197" s="11"/>
       <c r="R197" s="11"/>
       <c r="S197" s="11"/>
-      <c r="T197" s="11"/>
-      <c r="U197" s="11"/>
-      <c r="V197" s="11"/>
-      <c r="W197" s="11"/>
-      <c r="X197" s="11"/>
-      <c r="Y197" s="11"/>
-    </row>
-    <row r="198" spans="1:25" ht="22.5">
+    </row>
+    <row ht="22.5" r="198" spans="1:25">
       <c r="A198" s="4" t="s">
         <v>29</v>
       </c>
@@ -13632,12 +12586,6 @@
         <v>41</v>
       </c>
       <c r="S198" s="9"/>
-      <c r="T198" s="9"/>
-      <c r="U198" s="9"/>
-      <c r="V198" s="9"/>
-      <c r="W198" s="9"/>
-      <c r="X198" s="9"/>
-      <c r="Y198" s="9"/>
     </row>
     <row r="199" spans="1:25">
       <c r="A199" s="2" t="s">
@@ -13685,12 +12633,6 @@
         <v>782</v>
       </c>
       <c r="S199" s="9"/>
-      <c r="T199" s="9"/>
-      <c r="U199" s="9"/>
-      <c r="V199" s="9"/>
-      <c r="W199" s="9"/>
-      <c r="X199" s="9"/>
-      <c r="Y199" s="9"/>
     </row>
     <row r="200" spans="1:25">
       <c r="A200" s="2" t="s">
@@ -13738,12 +12680,6 @@
         <v>791</v>
       </c>
       <c r="S200" s="9"/>
-      <c r="T200" s="9"/>
-      <c r="U200" s="9"/>
-      <c r="V200" s="9"/>
-      <c r="W200" s="9"/>
-      <c r="X200" s="9"/>
-      <c r="Y200" s="9"/>
     </row>
     <row r="201" spans="1:25">
       <c r="A201" s="2" t="s">
@@ -13791,12 +12727,6 @@
         <v>799</v>
       </c>
       <c r="S201" s="9"/>
-      <c r="T201" s="9"/>
-      <c r="U201" s="9"/>
-      <c r="V201" s="9"/>
-      <c r="W201" s="9"/>
-      <c r="X201" s="9"/>
-      <c r="Y201" s="9"/>
     </row>
     <row r="202" spans="1:25">
       <c r="A202" s="2" t="s">
@@ -13844,12 +12774,6 @@
         <v>805</v>
       </c>
       <c r="S202" s="9"/>
-      <c r="T202" s="9"/>
-      <c r="U202" s="9"/>
-      <c r="V202" s="9"/>
-      <c r="W202" s="9"/>
-      <c r="X202" s="9"/>
-      <c r="Y202" s="9"/>
     </row>
     <row r="203" spans="1:25">
       <c r="A203" s="2" t="s">
@@ -13897,12 +12821,6 @@
         <v>810</v>
       </c>
       <c r="S203" s="9"/>
-      <c r="T203" s="9"/>
-      <c r="U203" s="9"/>
-      <c r="V203" s="9"/>
-      <c r="W203" s="9"/>
-      <c r="X203" s="9"/>
-      <c r="Y203" s="9"/>
     </row>
     <row r="204" spans="1:25">
       <c r="A204" s="2" t="s">
@@ -13950,12 +12868,6 @@
         <v>53</v>
       </c>
       <c r="S204" s="9"/>
-      <c r="T204" s="9"/>
-      <c r="U204" s="9"/>
-      <c r="V204" s="9"/>
-      <c r="W204" s="9"/>
-      <c r="X204" s="9"/>
-      <c r="Y204" s="9"/>
     </row>
     <row r="205" spans="1:25">
       <c r="A205" s="2" t="s">
@@ -14003,12 +12915,6 @@
         <v>361</v>
       </c>
       <c r="S205" s="9"/>
-      <c r="T205" s="9"/>
-      <c r="U205" s="9"/>
-      <c r="V205" s="9"/>
-      <c r="W205" s="9"/>
-      <c r="X205" s="9"/>
-      <c r="Y205" s="9"/>
     </row>
     <row r="206" spans="1:25">
       <c r="A206" s="2" t="s">
@@ -14056,12 +12962,6 @@
         <v>137</v>
       </c>
       <c r="S206" s="9"/>
-      <c r="T206" s="9"/>
-      <c r="U206" s="9"/>
-      <c r="V206" s="9"/>
-      <c r="W206" s="9"/>
-      <c r="X206" s="9"/>
-      <c r="Y206" s="9"/>
     </row>
     <row r="207" spans="1:25">
       <c r="A207" s="2" t="s">
@@ -14109,12 +13009,6 @@
         <v>47</v>
       </c>
       <c r="S207" s="9"/>
-      <c r="T207" s="9"/>
-      <c r="U207" s="9"/>
-      <c r="V207" s="9"/>
-      <c r="W207" s="9"/>
-      <c r="X207" s="9"/>
-      <c r="Y207" s="9"/>
     </row>
     <row r="208" spans="1:25">
       <c r="A208" s="9"/>
@@ -14136,12 +13030,6 @@
       <c r="Q208" s="9"/>
       <c r="R208" s="9"/>
       <c r="S208" s="9"/>
-      <c r="T208" s="9"/>
-      <c r="U208" s="9"/>
-      <c r="V208" s="9"/>
-      <c r="W208" s="9"/>
-      <c r="X208" s="9"/>
-      <c r="Y208" s="9"/>
     </row>
     <row r="209" spans="1:25">
       <c r="A209" s="11" t="s">
@@ -14165,14 +13053,8 @@
       <c r="Q209" s="11"/>
       <c r="R209" s="11"/>
       <c r="S209" s="11"/>
-      <c r="T209" s="11"/>
-      <c r="U209" s="11"/>
-      <c r="V209" s="11"/>
-      <c r="W209" s="11"/>
-      <c r="X209" s="11"/>
-      <c r="Y209" s="11"/>
-    </row>
-    <row r="210" spans="1:25" ht="22.5">
+    </row>
+    <row ht="22.5" r="210" spans="1:25">
       <c r="A210" s="4" t="s">
         <v>29</v>
       </c>
@@ -14218,12 +13100,6 @@
         <v>41</v>
       </c>
       <c r="S210" s="9"/>
-      <c r="T210" s="9"/>
-      <c r="U210" s="9"/>
-      <c r="V210" s="9"/>
-      <c r="W210" s="9"/>
-      <c r="X210" s="9"/>
-      <c r="Y210" s="9"/>
     </row>
     <row r="211" spans="1:25">
       <c r="A211" s="2" t="s">
@@ -14271,14 +13147,8 @@
         <v>822</v>
       </c>
       <c r="S211" s="9"/>
-      <c r="T211" s="9"/>
-      <c r="U211" s="9"/>
-      <c r="V211" s="9"/>
-      <c r="W211" s="9"/>
-      <c r="X211" s="9"/>
-      <c r="Y211" s="9"/>
-    </row>
-    <row r="212" spans="1:25" ht="22.5">
+    </row>
+    <row ht="22.5" r="212" spans="1:25">
       <c r="A212" s="2" t="s">
         <v>823</v>
       </c>
@@ -14324,14 +13194,8 @@
         <v>577</v>
       </c>
       <c r="S212" s="9"/>
-      <c r="T212" s="9"/>
-      <c r="U212" s="9"/>
-      <c r="V212" s="9"/>
-      <c r="W212" s="9"/>
-      <c r="X212" s="9"/>
-      <c r="Y212" s="9"/>
-    </row>
-    <row r="213" spans="1:25" ht="22.5">
+    </row>
+    <row ht="22.5" r="213" spans="1:25">
       <c r="A213" s="2" t="s">
         <v>826</v>
       </c>
@@ -14377,14 +13241,8 @@
         <v>831</v>
       </c>
       <c r="S213" s="9"/>
-      <c r="T213" s="9"/>
-      <c r="U213" s="9"/>
-      <c r="V213" s="9"/>
-      <c r="W213" s="9"/>
-      <c r="X213" s="9"/>
-      <c r="Y213" s="9"/>
-    </row>
-    <row r="214" spans="1:25" ht="22.5">
+    </row>
+    <row ht="22.5" r="214" spans="1:25">
       <c r="A214" s="2" t="s">
         <v>832</v>
       </c>
@@ -14430,12 +13288,6 @@
         <v>659</v>
       </c>
       <c r="S214" s="9"/>
-      <c r="T214" s="9"/>
-      <c r="U214" s="9"/>
-      <c r="V214" s="9"/>
-      <c r="W214" s="9"/>
-      <c r="X214" s="9"/>
-      <c r="Y214" s="9"/>
     </row>
     <row r="215" spans="1:25">
       <c r="A215" s="2" t="s">
@@ -14483,12 +13335,6 @@
         <v>844</v>
       </c>
       <c r="S215" s="9"/>
-      <c r="T215" s="9"/>
-      <c r="U215" s="9"/>
-      <c r="V215" s="9"/>
-      <c r="W215" s="9"/>
-      <c r="X215" s="9"/>
-      <c r="Y215" s="9"/>
     </row>
     <row r="216" spans="1:25">
       <c r="A216" s="2" t="s">
@@ -14536,12 +13382,6 @@
         <v>849</v>
       </c>
       <c r="S216" s="9"/>
-      <c r="T216" s="9"/>
-      <c r="U216" s="9"/>
-      <c r="V216" s="9"/>
-      <c r="W216" s="9"/>
-      <c r="X216" s="9"/>
-      <c r="Y216" s="9"/>
     </row>
     <row r="217" spans="1:25">
       <c r="A217" s="2" t="s">
@@ -14589,12 +13429,6 @@
         <v>853</v>
       </c>
       <c r="S217" s="9"/>
-      <c r="T217" s="9"/>
-      <c r="U217" s="9"/>
-      <c r="V217" s="9"/>
-      <c r="W217" s="9"/>
-      <c r="X217" s="9"/>
-      <c r="Y217" s="9"/>
     </row>
     <row r="218" spans="1:25">
       <c r="A218" s="2" t="s">
@@ -14642,12 +13476,6 @@
         <v>859</v>
       </c>
       <c r="S218" s="9"/>
-      <c r="T218" s="9"/>
-      <c r="U218" s="9"/>
-      <c r="V218" s="9"/>
-      <c r="W218" s="9"/>
-      <c r="X218" s="9"/>
-      <c r="Y218" s="9"/>
     </row>
     <row r="219" spans="1:25">
       <c r="A219" s="2" t="s">
@@ -14695,12 +13523,6 @@
         <v>865</v>
       </c>
       <c r="S219" s="9"/>
-      <c r="T219" s="9"/>
-      <c r="U219" s="9"/>
-      <c r="V219" s="9"/>
-      <c r="W219" s="9"/>
-      <c r="X219" s="9"/>
-      <c r="Y219" s="9"/>
     </row>
     <row r="220" spans="1:25">
       <c r="A220" s="2" t="s">
@@ -14748,12 +13570,6 @@
         <v>120</v>
       </c>
       <c r="S220" s="9"/>
-      <c r="T220" s="9"/>
-      <c r="U220" s="9"/>
-      <c r="V220" s="9"/>
-      <c r="W220" s="9"/>
-      <c r="X220" s="9"/>
-      <c r="Y220" s="9"/>
     </row>
     <row r="221" spans="1:25">
       <c r="A221" s="2" t="s">
@@ -14801,12 +13617,6 @@
         <v>137</v>
       </c>
       <c r="S221" s="9"/>
-      <c r="T221" s="9"/>
-      <c r="U221" s="9"/>
-      <c r="V221" s="9"/>
-      <c r="W221" s="9"/>
-      <c r="X221" s="9"/>
-      <c r="Y221" s="9"/>
     </row>
     <row r="222" spans="1:25">
       <c r="A222" s="2" t="s">
@@ -14854,12 +13664,6 @@
         <v>47</v>
       </c>
       <c r="S222" s="9"/>
-      <c r="T222" s="9"/>
-      <c r="U222" s="9"/>
-      <c r="V222" s="9"/>
-      <c r="W222" s="9"/>
-      <c r="X222" s="9"/>
-      <c r="Y222" s="9"/>
     </row>
     <row r="223" spans="1:25">
       <c r="A223" s="9"/>
@@ -14881,12 +13685,6 @@
       <c r="Q223" s="9"/>
       <c r="R223" s="9"/>
       <c r="S223" s="9"/>
-      <c r="T223" s="9"/>
-      <c r="U223" s="9"/>
-      <c r="V223" s="9"/>
-      <c r="W223" s="9"/>
-      <c r="X223" s="9"/>
-      <c r="Y223" s="9"/>
     </row>
     <row r="224" spans="1:25">
       <c r="A224" s="9"/>
@@ -14910,12 +13708,6 @@
       <c r="Q224" s="14"/>
       <c r="R224" s="14"/>
       <c r="S224" s="14"/>
-      <c r="T224" s="14"/>
-      <c r="U224" s="14"/>
-      <c r="V224" s="9"/>
-      <c r="W224" s="9"/>
-      <c r="X224" s="3"/>
-      <c r="Y224" s="3"/>
     </row>
     <row r="225" spans="1:25">
       <c r="A225" s="11" t="s">
@@ -14939,14 +13731,8 @@
       <c r="Q225" s="11"/>
       <c r="R225" s="11"/>
       <c r="S225" s="11"/>
-      <c r="T225" s="11"/>
-      <c r="U225" s="11"/>
-      <c r="V225" s="11"/>
-      <c r="W225" s="11"/>
-      <c r="X225" s="11"/>
-      <c r="Y225" s="11"/>
-    </row>
-    <row r="226" spans="1:25" ht="22.5">
+    </row>
+    <row ht="22.5" r="226" spans="1:25">
       <c r="A226" s="4" t="s">
         <v>29</v>
       </c>
@@ -14992,12 +13778,6 @@
         <v>41</v>
       </c>
       <c r="S226" s="9"/>
-      <c r="T226" s="9"/>
-      <c r="U226" s="9"/>
-      <c r="V226" s="9"/>
-      <c r="W226" s="9"/>
-      <c r="X226" s="9"/>
-      <c r="Y226" s="9"/>
     </row>
     <row r="227" spans="1:25">
       <c r="A227" s="2" t="s">
@@ -15045,12 +13825,6 @@
         <v>54</v>
       </c>
       <c r="S227" s="9"/>
-      <c r="T227" s="9"/>
-      <c r="U227" s="9"/>
-      <c r="V227" s="9"/>
-      <c r="W227" s="9"/>
-      <c r="X227" s="9"/>
-      <c r="Y227" s="9"/>
     </row>
     <row r="228" spans="1:25">
       <c r="A228" s="2" t="s">
@@ -15098,12 +13872,6 @@
         <v>47</v>
       </c>
       <c r="S228" s="9"/>
-      <c r="T228" s="9"/>
-      <c r="U228" s="9"/>
-      <c r="V228" s="9"/>
-      <c r="W228" s="9"/>
-      <c r="X228" s="9"/>
-      <c r="Y228" s="9"/>
     </row>
     <row r="229" spans="1:25">
       <c r="A229" s="2" t="s">
@@ -15151,14 +13919,8 @@
         <v>47</v>
       </c>
       <c r="S229" s="9"/>
-      <c r="T229" s="9"/>
-      <c r="U229" s="9"/>
-      <c r="V229" s="9"/>
-      <c r="W229" s="9"/>
-      <c r="X229" s="9"/>
-      <c r="Y229" s="9"/>
-    </row>
-    <row r="230" spans="1:25" ht="22.5">
+    </row>
+    <row ht="22.5" r="230" spans="1:25">
       <c r="A230" s="2" t="s">
         <v>871</v>
       </c>
@@ -15204,12 +13966,6 @@
         <v>879</v>
       </c>
       <c r="S230" s="9"/>
-      <c r="T230" s="9"/>
-      <c r="U230" s="9"/>
-      <c r="V230" s="9"/>
-      <c r="W230" s="9"/>
-      <c r="X230" s="9"/>
-      <c r="Y230" s="9"/>
     </row>
     <row r="231" spans="1:25">
       <c r="A231" s="2" t="s">
@@ -15257,12 +14013,6 @@
         <v>124</v>
       </c>
       <c r="S231" s="9"/>
-      <c r="T231" s="9"/>
-      <c r="U231" s="9"/>
-      <c r="V231" s="9"/>
-      <c r="W231" s="9"/>
-      <c r="X231" s="9"/>
-      <c r="Y231" s="9"/>
     </row>
     <row r="232" spans="1:25">
       <c r="A232" s="2" t="s">
@@ -15310,12 +14060,6 @@
         <v>108</v>
       </c>
       <c r="S232" s="9"/>
-      <c r="T232" s="9"/>
-      <c r="U232" s="9"/>
-      <c r="V232" s="9"/>
-      <c r="W232" s="9"/>
-      <c r="X232" s="9"/>
-      <c r="Y232" s="9"/>
     </row>
     <row r="233" spans="1:25">
       <c r="A233" s="2" t="s">
@@ -15363,12 +14107,6 @@
         <v>120</v>
       </c>
       <c r="S233" s="9"/>
-      <c r="T233" s="9"/>
-      <c r="U233" s="9"/>
-      <c r="V233" s="9"/>
-      <c r="W233" s="9"/>
-      <c r="X233" s="9"/>
-      <c r="Y233" s="9"/>
     </row>
     <row r="234" spans="1:25">
       <c r="A234" s="2" t="s">
@@ -15416,12 +14154,6 @@
         <v>126</v>
       </c>
       <c r="S234" s="9"/>
-      <c r="T234" s="9"/>
-      <c r="U234" s="9"/>
-      <c r="V234" s="9"/>
-      <c r="W234" s="9"/>
-      <c r="X234" s="9"/>
-      <c r="Y234" s="9"/>
     </row>
     <row r="235" spans="1:25">
       <c r="A235" s="2" t="s">
@@ -15469,12 +14201,6 @@
         <v>137</v>
       </c>
       <c r="S235" s="9"/>
-      <c r="T235" s="9"/>
-      <c r="U235" s="9"/>
-      <c r="V235" s="9"/>
-      <c r="W235" s="9"/>
-      <c r="X235" s="9"/>
-      <c r="Y235" s="9"/>
     </row>
     <row r="236" spans="1:25">
       <c r="A236" s="9"/>
@@ -15496,12 +14222,6 @@
       <c r="Q236" s="9"/>
       <c r="R236" s="9"/>
       <c r="S236" s="9"/>
-      <c r="T236" s="9"/>
-      <c r="U236" s="9"/>
-      <c r="V236" s="9"/>
-      <c r="W236" s="9"/>
-      <c r="X236" s="9"/>
-      <c r="Y236" s="9"/>
     </row>
     <row r="237" spans="1:25">
       <c r="A237" s="11" t="s">
@@ -15525,14 +14245,8 @@
       <c r="Q237" s="11"/>
       <c r="R237" s="11"/>
       <c r="S237" s="11"/>
-      <c r="T237" s="11"/>
-      <c r="U237" s="11"/>
-      <c r="V237" s="11"/>
-      <c r="W237" s="11"/>
-      <c r="X237" s="11"/>
-      <c r="Y237" s="11"/>
-    </row>
-    <row r="238" spans="1:25" ht="22.5">
+    </row>
+    <row ht="22.5" r="238" spans="1:25">
       <c r="A238" s="4" t="s">
         <v>29</v>
       </c>
@@ -15578,12 +14292,6 @@
         <v>41</v>
       </c>
       <c r="S238" s="9"/>
-      <c r="T238" s="9"/>
-      <c r="U238" s="9"/>
-      <c r="V238" s="9"/>
-      <c r="W238" s="9"/>
-      <c r="X238" s="9"/>
-      <c r="Y238" s="9"/>
     </row>
     <row r="239" spans="1:25">
       <c r="A239" s="2" t="s">
@@ -15631,12 +14339,6 @@
         <v>887</v>
       </c>
       <c r="S239" s="9"/>
-      <c r="T239" s="9"/>
-      <c r="U239" s="9"/>
-      <c r="V239" s="9"/>
-      <c r="W239" s="9"/>
-      <c r="X239" s="9"/>
-      <c r="Y239" s="9"/>
     </row>
     <row r="240" spans="1:25">
       <c r="A240" s="2" t="s">
@@ -15684,12 +14386,6 @@
         <v>894</v>
       </c>
       <c r="S240" s="9"/>
-      <c r="T240" s="9"/>
-      <c r="U240" s="9"/>
-      <c r="V240" s="9"/>
-      <c r="W240" s="9"/>
-      <c r="X240" s="9"/>
-      <c r="Y240" s="9"/>
     </row>
     <row r="241" spans="1:25">
       <c r="A241" s="2" t="s">
@@ -15737,14 +14433,8 @@
         <v>901</v>
       </c>
       <c r="S241" s="9"/>
-      <c r="T241" s="9"/>
-      <c r="U241" s="9"/>
-      <c r="V241" s="9"/>
-      <c r="W241" s="9"/>
-      <c r="X241" s="9"/>
-      <c r="Y241" s="9"/>
-    </row>
-    <row r="242" spans="1:25" ht="22.5">
+    </row>
+    <row ht="22.5" r="242" spans="1:25">
       <c r="A242" s="2" t="s">
         <v>902</v>
       </c>
@@ -15790,14 +14480,8 @@
         <v>907</v>
       </c>
       <c r="S242" s="9"/>
-      <c r="T242" s="9"/>
-      <c r="U242" s="9"/>
-      <c r="V242" s="9"/>
-      <c r="W242" s="9"/>
-      <c r="X242" s="9"/>
-      <c r="Y242" s="9"/>
-    </row>
-    <row r="243" spans="1:25" ht="22.5">
+    </row>
+    <row ht="22.5" r="243" spans="1:25">
       <c r="A243" s="2" t="s">
         <v>908</v>
       </c>
@@ -15843,12 +14527,6 @@
         <v>913</v>
       </c>
       <c r="S243" s="9"/>
-      <c r="T243" s="9"/>
-      <c r="U243" s="9"/>
-      <c r="V243" s="9"/>
-      <c r="W243" s="9"/>
-      <c r="X243" s="9"/>
-      <c r="Y243" s="9"/>
     </row>
     <row r="244" spans="1:25">
       <c r="A244" s="2" t="s">
@@ -15896,12 +14574,6 @@
         <v>120</v>
       </c>
       <c r="S244" s="9"/>
-      <c r="T244" s="9"/>
-      <c r="U244" s="9"/>
-      <c r="V244" s="9"/>
-      <c r="W244" s="9"/>
-      <c r="X244" s="9"/>
-      <c r="Y244" s="9"/>
     </row>
     <row r="245" spans="1:25">
       <c r="A245" s="2" t="s">
@@ -15949,12 +14621,6 @@
         <v>137</v>
       </c>
       <c r="S245" s="9"/>
-      <c r="T245" s="9"/>
-      <c r="U245" s="9"/>
-      <c r="V245" s="9"/>
-      <c r="W245" s="9"/>
-      <c r="X245" s="9"/>
-      <c r="Y245" s="9"/>
     </row>
     <row r="246" spans="1:25">
       <c r="A246" s="2" t="s">
@@ -16002,12 +14668,6 @@
         <v>47</v>
       </c>
       <c r="S246" s="9"/>
-      <c r="T246" s="9"/>
-      <c r="U246" s="9"/>
-      <c r="V246" s="9"/>
-      <c r="W246" s="9"/>
-      <c r="X246" s="9"/>
-      <c r="Y246" s="9"/>
     </row>
     <row r="247" spans="1:25">
       <c r="A247" s="2" t="s">
@@ -16055,12 +14715,6 @@
         <v>53</v>
       </c>
       <c r="S247" s="9"/>
-      <c r="T247" s="9"/>
-      <c r="U247" s="9"/>
-      <c r="V247" s="9"/>
-      <c r="W247" s="9"/>
-      <c r="X247" s="9"/>
-      <c r="Y247" s="9"/>
     </row>
     <row r="248" spans="1:25">
       <c r="A248" s="9"/>
@@ -16082,12 +14736,6 @@
       <c r="Q248" s="9"/>
       <c r="R248" s="9"/>
       <c r="S248" s="9"/>
-      <c r="T248" s="9"/>
-      <c r="U248" s="9"/>
-      <c r="V248" s="9"/>
-      <c r="W248" s="9"/>
-      <c r="X248" s="9"/>
-      <c r="Y248" s="9"/>
     </row>
     <row r="249" spans="1:25">
       <c r="A249" s="11" t="s">
@@ -16111,14 +14759,8 @@
       <c r="Q249" s="11"/>
       <c r="R249" s="11"/>
       <c r="S249" s="11"/>
-      <c r="T249" s="11"/>
-      <c r="U249" s="11"/>
-      <c r="V249" s="11"/>
-      <c r="W249" s="11"/>
-      <c r="X249" s="11"/>
-      <c r="Y249" s="11"/>
-    </row>
-    <row r="250" spans="1:25" ht="22.5">
+    </row>
+    <row ht="22.5" r="250" spans="1:25">
       <c r="A250" s="4" t="s">
         <v>29</v>
       </c>
@@ -16164,12 +14806,6 @@
         <v>41</v>
       </c>
       <c r="S250" s="9"/>
-      <c r="T250" s="9"/>
-      <c r="U250" s="9"/>
-      <c r="V250" s="9"/>
-      <c r="W250" s="9"/>
-      <c r="X250" s="9"/>
-      <c r="Y250" s="9"/>
     </row>
     <row r="251" spans="1:25">
       <c r="A251" s="2" t="s">
@@ -16217,12 +14853,6 @@
         <v>926</v>
       </c>
       <c r="S251" s="9"/>
-      <c r="T251" s="9"/>
-      <c r="U251" s="9"/>
-      <c r="V251" s="9"/>
-      <c r="W251" s="9"/>
-      <c r="X251" s="9"/>
-      <c r="Y251" s="9"/>
     </row>
     <row r="252" spans="1:25">
       <c r="A252" s="2" t="s">
@@ -16270,12 +14900,6 @@
         <v>932</v>
       </c>
       <c r="S252" s="9"/>
-      <c r="T252" s="9"/>
-      <c r="U252" s="9"/>
-      <c r="V252" s="9"/>
-      <c r="W252" s="9"/>
-      <c r="X252" s="9"/>
-      <c r="Y252" s="9"/>
     </row>
     <row r="253" spans="1:25">
       <c r="A253" s="2" t="s">
@@ -16323,12 +14947,6 @@
         <v>943</v>
       </c>
       <c r="S253" s="9"/>
-      <c r="T253" s="9"/>
-      <c r="U253" s="9"/>
-      <c r="V253" s="9"/>
-      <c r="W253" s="9"/>
-      <c r="X253" s="9"/>
-      <c r="Y253" s="9"/>
     </row>
     <row r="254" spans="1:25">
       <c r="A254" s="2" t="s">
@@ -16376,12 +14994,6 @@
         <v>259</v>
       </c>
       <c r="S254" s="9"/>
-      <c r="T254" s="9"/>
-      <c r="U254" s="9"/>
-      <c r="V254" s="9"/>
-      <c r="W254" s="9"/>
-      <c r="X254" s="9"/>
-      <c r="Y254" s="9"/>
     </row>
     <row r="255" spans="1:25">
       <c r="A255" s="2" t="s">
@@ -16429,12 +15041,6 @@
         <v>952</v>
       </c>
       <c r="S255" s="9"/>
-      <c r="T255" s="9"/>
-      <c r="U255" s="9"/>
-      <c r="V255" s="9"/>
-      <c r="W255" s="9"/>
-      <c r="X255" s="9"/>
-      <c r="Y255" s="9"/>
     </row>
     <row r="256" spans="1:25">
       <c r="A256" s="2" t="s">
@@ -16482,12 +15088,6 @@
         <v>937</v>
       </c>
       <c r="S256" s="9"/>
-      <c r="T256" s="9"/>
-      <c r="U256" s="9"/>
-      <c r="V256" s="9"/>
-      <c r="W256" s="9"/>
-      <c r="X256" s="9"/>
-      <c r="Y256" s="9"/>
     </row>
     <row r="257" spans="1:25">
       <c r="A257" s="2" t="s">
@@ -16535,12 +15135,6 @@
         <v>120</v>
       </c>
       <c r="S257" s="9"/>
-      <c r="T257" s="9"/>
-      <c r="U257" s="9"/>
-      <c r="V257" s="9"/>
-      <c r="W257" s="9"/>
-      <c r="X257" s="9"/>
-      <c r="Y257" s="9"/>
     </row>
     <row r="258" spans="1:25">
       <c r="A258" s="2" t="s">
@@ -16588,12 +15182,6 @@
         <v>967</v>
       </c>
       <c r="S258" s="9"/>
-      <c r="T258" s="9"/>
-      <c r="U258" s="9"/>
-      <c r="V258" s="9"/>
-      <c r="W258" s="9"/>
-      <c r="X258" s="9"/>
-      <c r="Y258" s="9"/>
     </row>
     <row r="259" spans="1:25">
       <c r="A259" s="2" t="s">
@@ -16641,12 +15229,6 @@
         <v>384</v>
       </c>
       <c r="S259" s="9"/>
-      <c r="T259" s="9"/>
-      <c r="U259" s="9"/>
-      <c r="V259" s="9"/>
-      <c r="W259" s="9"/>
-      <c r="X259" s="9"/>
-      <c r="Y259" s="9"/>
     </row>
     <row r="260" spans="1:25">
       <c r="A260" s="2" t="s">
@@ -16694,12 +15276,6 @@
         <v>53</v>
       </c>
       <c r="S260" s="9"/>
-      <c r="T260" s="9"/>
-      <c r="U260" s="9"/>
-      <c r="V260" s="9"/>
-      <c r="W260" s="9"/>
-      <c r="X260" s="9"/>
-      <c r="Y260" s="9"/>
     </row>
     <row r="261" spans="1:25">
       <c r="A261" s="2" t="s">
@@ -16747,12 +15323,6 @@
         <v>980</v>
       </c>
       <c r="S261" s="9"/>
-      <c r="T261" s="9"/>
-      <c r="U261" s="9"/>
-      <c r="V261" s="9"/>
-      <c r="W261" s="9"/>
-      <c r="X261" s="9"/>
-      <c r="Y261" s="9"/>
     </row>
     <row r="262" spans="1:25">
       <c r="A262" s="2" t="s">
@@ -16800,12 +15370,6 @@
         <v>137</v>
       </c>
       <c r="S262" s="9"/>
-      <c r="T262" s="9"/>
-      <c r="U262" s="9"/>
-      <c r="V262" s="9"/>
-      <c r="W262" s="9"/>
-      <c r="X262" s="9"/>
-      <c r="Y262" s="9"/>
     </row>
     <row r="263" spans="1:25">
       <c r="A263" s="2" t="s">
@@ -16853,12 +15417,6 @@
         <v>47</v>
       </c>
       <c r="S263" s="9"/>
-      <c r="T263" s="9"/>
-      <c r="U263" s="9"/>
-      <c r="V263" s="9"/>
-      <c r="W263" s="9"/>
-      <c r="X263" s="9"/>
-      <c r="Y263" s="9"/>
     </row>
     <row r="264" spans="1:25">
       <c r="A264" s="9"/>
@@ -16880,12 +15438,6 @@
       <c r="Q264" s="9"/>
       <c r="R264" s="9"/>
       <c r="S264" s="9"/>
-      <c r="T264" s="9"/>
-      <c r="U264" s="9"/>
-      <c r="V264" s="9"/>
-      <c r="W264" s="9"/>
-      <c r="X264" s="9"/>
-      <c r="Y264" s="9"/>
     </row>
     <row r="265" spans="1:25">
       <c r="A265" s="9"/>
@@ -16909,12 +15461,6 @@
       <c r="Q265" s="14"/>
       <c r="R265" s="14"/>
       <c r="S265" s="14"/>
-      <c r="T265" s="14"/>
-      <c r="U265" s="14"/>
-      <c r="V265" s="9"/>
-      <c r="W265" s="9"/>
-      <c r="X265" s="3"/>
-      <c r="Y265" s="3"/>
     </row>
     <row r="266" spans="1:25">
       <c r="A266" s="11" t="s">
@@ -16938,14 +15484,8 @@
       <c r="Q266" s="11"/>
       <c r="R266" s="11"/>
       <c r="S266" s="11"/>
-      <c r="T266" s="11"/>
-      <c r="U266" s="11"/>
-      <c r="V266" s="11"/>
-      <c r="W266" s="11"/>
-      <c r="X266" s="11"/>
-      <c r="Y266" s="11"/>
-    </row>
-    <row r="267" spans="1:25" ht="22.5">
+    </row>
+    <row ht="22.5" r="267" spans="1:25">
       <c r="A267" s="4" t="s">
         <v>29</v>
       </c>
@@ -16991,12 +15531,6 @@
         <v>41</v>
       </c>
       <c r="S267" s="9"/>
-      <c r="T267" s="9"/>
-      <c r="U267" s="9"/>
-      <c r="V267" s="9"/>
-      <c r="W267" s="9"/>
-      <c r="X267" s="9"/>
-      <c r="Y267" s="9"/>
     </row>
     <row r="268" spans="1:25">
       <c r="A268" s="2" t="s">
@@ -17044,12 +15578,6 @@
         <v>54</v>
       </c>
       <c r="S268" s="9"/>
-      <c r="T268" s="9"/>
-      <c r="U268" s="9"/>
-      <c r="V268" s="9"/>
-      <c r="W268" s="9"/>
-      <c r="X268" s="9"/>
-      <c r="Y268" s="9"/>
     </row>
     <row r="269" spans="1:25">
       <c r="A269" s="2" t="s">
@@ -17097,12 +15625,6 @@
         <v>47</v>
       </c>
       <c r="S269" s="9"/>
-      <c r="T269" s="9"/>
-      <c r="U269" s="9"/>
-      <c r="V269" s="9"/>
-      <c r="W269" s="9"/>
-      <c r="X269" s="9"/>
-      <c r="Y269" s="9"/>
     </row>
     <row r="270" spans="1:25">
       <c r="A270" s="2" t="s">
@@ -17150,12 +15672,6 @@
         <v>318</v>
       </c>
       <c r="S270" s="9"/>
-      <c r="T270" s="9"/>
-      <c r="U270" s="9"/>
-      <c r="V270" s="9"/>
-      <c r="W270" s="9"/>
-      <c r="X270" s="9"/>
-      <c r="Y270" s="9"/>
     </row>
     <row r="271" spans="1:25">
       <c r="A271" s="2" t="s">
@@ -17203,12 +15719,6 @@
         <v>120</v>
       </c>
       <c r="S271" s="9"/>
-      <c r="T271" s="9"/>
-      <c r="U271" s="9"/>
-      <c r="V271" s="9"/>
-      <c r="W271" s="9"/>
-      <c r="X271" s="9"/>
-      <c r="Y271" s="9"/>
     </row>
     <row r="272" spans="1:25">
       <c r="A272" s="2" t="s">
@@ -17256,14 +15766,8 @@
         <v>884</v>
       </c>
       <c r="S272" s="9"/>
-      <c r="T272" s="9"/>
-      <c r="U272" s="9"/>
-      <c r="V272" s="9"/>
-      <c r="W272" s="9"/>
-      <c r="X272" s="9"/>
-      <c r="Y272" s="9"/>
-    </row>
-    <row r="273" spans="1:25" ht="22.5">
+    </row>
+    <row ht="22.5" r="273" spans="1:25">
       <c r="A273" s="2" t="s">
         <v>500</v>
       </c>
@@ -17309,12 +15813,6 @@
         <v>169</v>
       </c>
       <c r="S273" s="9"/>
-      <c r="T273" s="9"/>
-      <c r="U273" s="9"/>
-      <c r="V273" s="9"/>
-      <c r="W273" s="9"/>
-      <c r="X273" s="9"/>
-      <c r="Y273" s="9"/>
     </row>
     <row r="274" spans="1:25">
       <c r="A274" s="2" t="s">
@@ -17362,12 +15860,6 @@
         <v>655</v>
       </c>
       <c r="S274" s="9"/>
-      <c r="T274" s="9"/>
-      <c r="U274" s="9"/>
-      <c r="V274" s="9"/>
-      <c r="W274" s="9"/>
-      <c r="X274" s="9"/>
-      <c r="Y274" s="9"/>
     </row>
     <row r="275" spans="1:25">
       <c r="A275" s="2" t="s">
@@ -17415,12 +15907,6 @@
         <v>126</v>
       </c>
       <c r="S275" s="9"/>
-      <c r="T275" s="9"/>
-      <c r="U275" s="9"/>
-      <c r="V275" s="9"/>
-      <c r="W275" s="9"/>
-      <c r="X275" s="9"/>
-      <c r="Y275" s="9"/>
     </row>
     <row r="276" spans="1:25">
       <c r="A276" s="2" t="s">
@@ -17468,12 +15954,6 @@
         <v>137</v>
       </c>
       <c r="S276" s="9"/>
-      <c r="T276" s="9"/>
-      <c r="U276" s="9"/>
-      <c r="V276" s="9"/>
-      <c r="W276" s="9"/>
-      <c r="X276" s="9"/>
-      <c r="Y276" s="9"/>
     </row>
     <row r="277" spans="1:25">
       <c r="A277" s="9"/>
@@ -17495,12 +15975,6 @@
       <c r="Q277" s="9"/>
       <c r="R277" s="9"/>
       <c r="S277" s="9"/>
-      <c r="T277" s="9"/>
-      <c r="U277" s="9"/>
-      <c r="V277" s="9"/>
-      <c r="W277" s="9"/>
-      <c r="X277" s="9"/>
-      <c r="Y277" s="9"/>
     </row>
     <row r="278" spans="1:25">
       <c r="A278" s="11" t="s">
@@ -17524,14 +15998,8 @@
       <c r="Q278" s="11"/>
       <c r="R278" s="11"/>
       <c r="S278" s="11"/>
-      <c r="T278" s="11"/>
-      <c r="U278" s="11"/>
-      <c r="V278" s="11"/>
-      <c r="W278" s="11"/>
-      <c r="X278" s="11"/>
-      <c r="Y278" s="11"/>
-    </row>
-    <row r="279" spans="1:25" ht="22.5">
+    </row>
+    <row ht="22.5" r="279" spans="1:25">
       <c r="A279" s="4" t="s">
         <v>29</v>
       </c>
@@ -17577,12 +16045,6 @@
         <v>41</v>
       </c>
       <c r="S279" s="9"/>
-      <c r="T279" s="9"/>
-      <c r="U279" s="9"/>
-      <c r="V279" s="9"/>
-      <c r="W279" s="9"/>
-      <c r="X279" s="9"/>
-      <c r="Y279" s="9"/>
     </row>
     <row r="280" spans="1:25">
       <c r="A280" s="2" t="s">
@@ -17630,12 +16092,6 @@
         <v>997</v>
       </c>
       <c r="S280" s="9"/>
-      <c r="T280" s="9"/>
-      <c r="U280" s="9"/>
-      <c r="V280" s="9"/>
-      <c r="W280" s="9"/>
-      <c r="X280" s="9"/>
-      <c r="Y280" s="9"/>
     </row>
     <row r="281" spans="1:25">
       <c r="A281" s="2" t="s">
@@ -17683,12 +16139,6 @@
         <v>1006</v>
       </c>
       <c r="S281" s="9"/>
-      <c r="T281" s="9"/>
-      <c r="U281" s="9"/>
-      <c r="V281" s="9"/>
-      <c r="W281" s="9"/>
-      <c r="X281" s="9"/>
-      <c r="Y281" s="9"/>
     </row>
     <row r="282" spans="1:25">
       <c r="A282" s="2" t="s">
@@ -17736,14 +16186,8 @@
         <v>84</v>
       </c>
       <c r="S282" s="9"/>
-      <c r="T282" s="9"/>
-      <c r="U282" s="9"/>
-      <c r="V282" s="9"/>
-      <c r="W282" s="9"/>
-      <c r="X282" s="9"/>
-      <c r="Y282" s="9"/>
-    </row>
-    <row r="283" spans="1:25" ht="22.5">
+    </row>
+    <row ht="22.5" r="283" spans="1:25">
       <c r="A283" s="2" t="s">
         <v>1009</v>
       </c>
@@ -17789,12 +16233,6 @@
         <v>1015</v>
       </c>
       <c r="S283" s="9"/>
-      <c r="T283" s="9"/>
-      <c r="U283" s="9"/>
-      <c r="V283" s="9"/>
-      <c r="W283" s="9"/>
-      <c r="X283" s="9"/>
-      <c r="Y283" s="9"/>
     </row>
     <row r="284" spans="1:25">
       <c r="A284" s="2" t="s">
@@ -17842,12 +16280,6 @@
         <v>1020</v>
       </c>
       <c r="S284" s="9"/>
-      <c r="T284" s="9"/>
-      <c r="U284" s="9"/>
-      <c r="V284" s="9"/>
-      <c r="W284" s="9"/>
-      <c r="X284" s="9"/>
-      <c r="Y284" s="9"/>
     </row>
     <row r="285" spans="1:25">
       <c r="A285" s="2" t="s">
@@ -17895,12 +16327,6 @@
         <v>955</v>
       </c>
       <c r="S285" s="9"/>
-      <c r="T285" s="9"/>
-      <c r="U285" s="9"/>
-      <c r="V285" s="9"/>
-      <c r="W285" s="9"/>
-      <c r="X285" s="9"/>
-      <c r="Y285" s="9"/>
     </row>
     <row r="286" spans="1:25">
       <c r="A286" s="2" t="s">
@@ -17948,12 +16374,6 @@
         <v>1029</v>
       </c>
       <c r="S286" s="9"/>
-      <c r="T286" s="9"/>
-      <c r="U286" s="9"/>
-      <c r="V286" s="9"/>
-      <c r="W286" s="9"/>
-      <c r="X286" s="9"/>
-      <c r="Y286" s="9"/>
     </row>
     <row r="287" spans="1:25">
       <c r="A287" s="2" t="s">
@@ -18001,12 +16421,6 @@
         <v>605</v>
       </c>
       <c r="S287" s="9"/>
-      <c r="T287" s="9"/>
-      <c r="U287" s="9"/>
-      <c r="V287" s="9"/>
-      <c r="W287" s="9"/>
-      <c r="X287" s="9"/>
-      <c r="Y287" s="9"/>
     </row>
     <row r="288" spans="1:25">
       <c r="A288" s="2" t="s">
@@ -18054,12 +16468,6 @@
         <v>137</v>
       </c>
       <c r="S288" s="9"/>
-      <c r="T288" s="9"/>
-      <c r="U288" s="9"/>
-      <c r="V288" s="9"/>
-      <c r="W288" s="9"/>
-      <c r="X288" s="9"/>
-      <c r="Y288" s="9"/>
     </row>
     <row r="289" spans="1:25">
       <c r="A289" s="2" t="s">
@@ -18107,12 +16515,6 @@
         <v>47</v>
       </c>
       <c r="S289" s="9"/>
-      <c r="T289" s="9"/>
-      <c r="U289" s="9"/>
-      <c r="V289" s="9"/>
-      <c r="W289" s="9"/>
-      <c r="X289" s="9"/>
-      <c r="Y289" s="9"/>
     </row>
     <row r="290" spans="1:25">
       <c r="A290" s="9"/>
@@ -18134,12 +16536,6 @@
       <c r="Q290" s="9"/>
       <c r="R290" s="9"/>
       <c r="S290" s="9"/>
-      <c r="T290" s="9"/>
-      <c r="U290" s="9"/>
-      <c r="V290" s="9"/>
-      <c r="W290" s="9"/>
-      <c r="X290" s="9"/>
-      <c r="Y290" s="9"/>
     </row>
     <row r="291" spans="1:25">
       <c r="A291" s="11" t="s">
@@ -18163,14 +16559,8 @@
       <c r="Q291" s="11"/>
       <c r="R291" s="11"/>
       <c r="S291" s="11"/>
-      <c r="T291" s="11"/>
-      <c r="U291" s="11"/>
-      <c r="V291" s="11"/>
-      <c r="W291" s="11"/>
-      <c r="X291" s="11"/>
-      <c r="Y291" s="11"/>
-    </row>
-    <row r="292" spans="1:25" ht="22.5">
+    </row>
+    <row ht="22.5" r="292" spans="1:25">
       <c r="A292" s="4" t="s">
         <v>29</v>
       </c>
@@ -18216,12 +16606,6 @@
         <v>41</v>
       </c>
       <c r="S292" s="9"/>
-      <c r="T292" s="9"/>
-      <c r="U292" s="9"/>
-      <c r="V292" s="9"/>
-      <c r="W292" s="9"/>
-      <c r="X292" s="9"/>
-      <c r="Y292" s="9"/>
     </row>
     <row r="293" spans="1:25">
       <c r="A293" s="2" t="s">
@@ -18269,12 +16653,6 @@
         <v>1040</v>
       </c>
       <c r="S293" s="9"/>
-      <c r="T293" s="9"/>
-      <c r="U293" s="9"/>
-      <c r="V293" s="9"/>
-      <c r="W293" s="9"/>
-      <c r="X293" s="9"/>
-      <c r="Y293" s="9"/>
     </row>
     <row r="294" spans="1:25">
       <c r="A294" s="2" t="s">
@@ -18322,12 +16700,6 @@
         <v>873</v>
       </c>
       <c r="S294" s="9"/>
-      <c r="T294" s="9"/>
-      <c r="U294" s="9"/>
-      <c r="V294" s="9"/>
-      <c r="W294" s="9"/>
-      <c r="X294" s="9"/>
-      <c r="Y294" s="9"/>
     </row>
     <row r="295" spans="1:25">
       <c r="A295" s="2" t="s">
@@ -18375,14 +16747,8 @@
         <v>1045</v>
       </c>
       <c r="S295" s="9"/>
-      <c r="T295" s="9"/>
-      <c r="U295" s="9"/>
-      <c r="V295" s="9"/>
-      <c r="W295" s="9"/>
-      <c r="X295" s="9"/>
-      <c r="Y295" s="9"/>
-    </row>
-    <row r="296" spans="1:25" ht="22.5">
+    </row>
+    <row ht="22.5" r="296" spans="1:25">
       <c r="A296" s="2" t="s">
         <v>1046</v>
       </c>
@@ -18428,12 +16794,6 @@
         <v>169</v>
       </c>
       <c r="S296" s="9"/>
-      <c r="T296" s="9"/>
-      <c r="U296" s="9"/>
-      <c r="V296" s="9"/>
-      <c r="W296" s="9"/>
-      <c r="X296" s="9"/>
-      <c r="Y296" s="9"/>
     </row>
     <row r="297" spans="1:25">
       <c r="A297" s="2" t="s">
@@ -18481,12 +16841,6 @@
         <v>1054</v>
       </c>
       <c r="S297" s="9"/>
-      <c r="T297" s="9"/>
-      <c r="U297" s="9"/>
-      <c r="V297" s="9"/>
-      <c r="W297" s="9"/>
-      <c r="X297" s="9"/>
-      <c r="Y297" s="9"/>
     </row>
     <row r="298" spans="1:25">
       <c r="A298" s="2" t="s">
@@ -18534,12 +16888,6 @@
         <v>47</v>
       </c>
       <c r="S298" s="9"/>
-      <c r="T298" s="9"/>
-      <c r="U298" s="9"/>
-      <c r="V298" s="9"/>
-      <c r="W298" s="9"/>
-      <c r="X298" s="9"/>
-      <c r="Y298" s="9"/>
     </row>
     <row r="299" spans="1:25">
       <c r="A299" s="2" t="s">
@@ -18587,14 +16935,8 @@
         <v>562</v>
       </c>
       <c r="S299" s="9"/>
-      <c r="T299" s="9"/>
-      <c r="U299" s="9"/>
-      <c r="V299" s="9"/>
-      <c r="W299" s="9"/>
-      <c r="X299" s="9"/>
-      <c r="Y299" s="9"/>
-    </row>
-    <row r="300" spans="1:25" ht="22.5">
+    </row>
+    <row ht="22.5" r="300" spans="1:25">
       <c r="A300" s="2" t="s">
         <v>1060</v>
       </c>
@@ -18640,14 +16982,8 @@
         <v>1061</v>
       </c>
       <c r="S300" s="9"/>
-      <c r="T300" s="9"/>
-      <c r="U300" s="9"/>
-      <c r="V300" s="9"/>
-      <c r="W300" s="9"/>
-      <c r="X300" s="9"/>
-      <c r="Y300" s="9"/>
-    </row>
-    <row r="301" spans="1:25" ht="22.5">
+    </row>
+    <row ht="22.5" r="301" spans="1:25">
       <c r="A301" s="2" t="s">
         <v>1062</v>
       </c>
@@ -18693,12 +17029,6 @@
         <v>1066</v>
       </c>
       <c r="S301" s="9"/>
-      <c r="T301" s="9"/>
-      <c r="U301" s="9"/>
-      <c r="V301" s="9"/>
-      <c r="W301" s="9"/>
-      <c r="X301" s="9"/>
-      <c r="Y301" s="9"/>
     </row>
     <row r="302" spans="1:25">
       <c r="A302" s="2" t="s">
@@ -18746,12 +17076,6 @@
         <v>137</v>
       </c>
       <c r="S302" s="9"/>
-      <c r="T302" s="9"/>
-      <c r="U302" s="9"/>
-      <c r="V302" s="9"/>
-      <c r="W302" s="9"/>
-      <c r="X302" s="9"/>
-      <c r="Y302" s="9"/>
     </row>
     <row r="303" spans="1:25">
       <c r="A303" s="2" t="s">
@@ -18799,12 +17123,6 @@
         <v>47</v>
       </c>
       <c r="S303" s="9"/>
-      <c r="T303" s="9"/>
-      <c r="U303" s="9"/>
-      <c r="V303" s="9"/>
-      <c r="W303" s="9"/>
-      <c r="X303" s="9"/>
-      <c r="Y303" s="9"/>
     </row>
     <row r="304" spans="1:25">
       <c r="A304" s="9"/>
@@ -18826,12 +17144,6 @@
       <c r="Q304" s="9"/>
       <c r="R304" s="9"/>
       <c r="S304" s="9"/>
-      <c r="T304" s="9"/>
-      <c r="U304" s="9"/>
-      <c r="V304" s="9"/>
-      <c r="W304" s="9"/>
-      <c r="X304" s="9"/>
-      <c r="Y304" s="9"/>
     </row>
     <row r="305" spans="1:19">
       <c r="A305" s="7"/>
@@ -18852,7 +17164,6 @@
       <c r="P305" s="7"/>
       <c r="Q305" s="7"/>
       <c r="R305" s="7"/>
-      <c r="S305" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="1064">

--- a/food-service/2021/2021-q2-nutrient-analysis-wk2.xlsx
+++ b/food-service/2021/2021-q2-nutrient-analysis-wk2.xlsx
@@ -3309,7 +3309,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="8" mc:Ignorable="x14ac">
   <numFmts count="8">
     <numFmt numFmtId="5" formatCode="&quot;$&quot;#,##0_);(&quot;$&quot;#,##0)"/>
     <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red](&quot;$&quot;#,##0)"/>
@@ -4436,7 +4436,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetViews>
     <sheetView zoomScale="60" workbookViewId="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100">
-      <selection pane="topLeft" activeCell="T166" sqref="T166"/>
+      <selection pane="topLeft" activeCell="S139" sqref="S139"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
@@ -4453,8 +4453,7 @@
     <col min="16" max="16" width="2.140625" customWidth="1"/>
     <col min="17" max="17" width="6" customWidth="1"/>
     <col min="18" max="18" width="8.28515625" customWidth="1"/>
-    <col min="19" max="19" width="2.7" customWidth="1"/>
-    <col min="20" max="20" width="3.53" customWidth="1"/>
+    <col min="19" max="19" width="3.53" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:25">
@@ -4482,7 +4481,6 @@
       <c r="P1" s="24"/>
       <c r="Q1" s="24"/>
       <c r="R1" s="24"/>
-      <c r="S1" s="24"/>
     </row>
     <row r="2" spans="1:25">
       <c r="A2" s="22"/>
@@ -4505,7 +4503,6 @@
       <c r="P2" s="24"/>
       <c r="Q2" s="24"/>
       <c r="R2" s="24"/>
-      <c r="S2" s="24"/>
     </row>
     <row r="3" spans="1:25">
       <c r="A3" s="22"/>
@@ -4528,7 +4525,6 @@
       <c r="P3" s="24"/>
       <c r="Q3" s="24"/>
       <c r="R3" s="24"/>
-      <c r="S3" s="24"/>
     </row>
     <row r="4" spans="1:25">
       <c r="A4" s="25" t="s">
@@ -4551,7 +4547,6 @@
       <c r="P4" s="26"/>
       <c r="Q4" s="26"/>
       <c r="R4" s="26"/>
-      <c r="S4" s="27"/>
     </row>
     <row r="5" spans="1:25">
       <c r="A5" s="1" t="s">
@@ -4580,7 +4575,6 @@
         <v>9</v>
       </c>
       <c r="R5" s="18"/>
-      <c r="S5" s="19"/>
     </row>
     <row r="6" spans="1:25">
       <c r="A6" s="1" t="s">
@@ -4609,7 +4603,6 @@
         <v>9</v>
       </c>
       <c r="R6" s="18"/>
-      <c r="S6" s="19"/>
     </row>
     <row r="7" spans="1:25">
       <c r="A7" s="1" t="s">
@@ -4638,7 +4631,6 @@
         <v>16</v>
       </c>
       <c r="R7" s="18"/>
-      <c r="S7" s="19"/>
     </row>
     <row r="8" spans="1:25">
       <c r="A8" s="1" t="s">
@@ -4667,7 +4659,6 @@
         <v>20</v>
       </c>
       <c r="R8" s="18"/>
-      <c r="S8" s="19"/>
     </row>
     <row r="9" spans="1:25">
       <c r="A9" s="1" t="s">
@@ -4692,7 +4683,6 @@
       <c r="P9" s="18"/>
       <c r="Q9" s="18"/>
       <c r="R9" s="18"/>
-      <c r="S9" s="19"/>
     </row>
     <row r="10" spans="1:25">
       <c r="A10" s="1" t="s">
@@ -4717,7 +4707,6 @@
       <c r="P10" s="18"/>
       <c r="Q10" s="18"/>
       <c r="R10" s="18"/>
-      <c r="S10" s="19"/>
     </row>
     <row r="11" spans="1:25">
       <c r="A11" s="7"/>
@@ -4738,7 +4727,6 @@
       <c r="P11" s="7"/>
       <c r="Q11" s="7"/>
       <c r="R11" s="7"/>
-      <c r="S11" s="7"/>
     </row>
     <row r="12" spans="1:25">
       <c r="A12" s="20" t="s">
@@ -4761,7 +4749,6 @@
       <c r="P12" s="20"/>
       <c r="Q12" s="20"/>
       <c r="R12" s="20"/>
-      <c r="S12" s="20"/>
     </row>
     <row r="13" spans="1:25">
       <c r="A13" s="10" t="s">
@@ -4784,7 +4771,6 @@
       <c r="P13" s="10"/>
       <c r="Q13" s="10"/>
       <c r="R13" s="10"/>
-      <c r="S13" s="10"/>
     </row>
     <row ht="18" customHeight="1" r="14" spans="1:25">
       <c r="A14" s="21"/>
@@ -4805,7 +4791,6 @@
       <c r="P14" s="21"/>
       <c r="Q14" s="21"/>
       <c r="R14" s="21"/>
-      <c r="S14" s="21"/>
     </row>
     <row r="15" spans="1:25">
       <c r="A15" s="11" t="s">
@@ -4828,7 +4813,6 @@
       <c r="P15" s="11"/>
       <c r="Q15" s="11"/>
       <c r="R15" s="11"/>
-      <c r="S15" s="11"/>
     </row>
     <row r="16" spans="1:25">
       <c r="A16" s="15" t="s">
@@ -4851,7 +4835,6 @@
       <c r="P16" s="15"/>
       <c r="Q16" s="15"/>
       <c r="R16" s="15"/>
-      <c r="S16" s="15"/>
     </row>
     <row r="17" spans="1:25">
       <c r="A17" s="16"/>
@@ -4872,7 +4855,6 @@
       <c r="P17" s="16"/>
       <c r="Q17" s="16"/>
       <c r="R17" s="16"/>
-      <c r="S17" s="16"/>
     </row>
     <row r="18" spans="1:25">
       <c r="A18" s="9"/>
@@ -4895,7 +4877,7 @@
       <c r="P18" s="14"/>
       <c r="Q18" s="14"/>
       <c r="R18" s="14"/>
-      <c r="S18" s="14"/>
+      <c r="U18"/>
     </row>
     <row r="19" spans="1:25">
       <c r="A19" s="11" t="s">
@@ -4918,7 +4900,6 @@
       <c r="P19" s="11"/>
       <c r="Q19" s="11"/>
       <c r="R19" s="11"/>
-      <c r="S19" s="11"/>
     </row>
     <row ht="22.5" r="20" spans="1:25">
       <c r="A20" s="4" t="s">
@@ -4965,7 +4946,6 @@
       <c r="R20" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="S20" s="9"/>
     </row>
     <row r="21" spans="1:25">
       <c r="A21" s="2" t="s">
@@ -5012,7 +4992,6 @@
       <c r="R21" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="S21" s="9"/>
     </row>
     <row r="22" spans="1:25">
       <c r="A22" s="2" t="s">
@@ -5059,7 +5038,6 @@
       <c r="R22" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="S22" s="9"/>
     </row>
     <row r="23" spans="1:25">
       <c r="A23" s="2" t="s">
@@ -5106,7 +5084,6 @@
       <c r="R23" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="S23" s="9"/>
     </row>
     <row r="24" spans="1:25">
       <c r="A24" s="2" t="s">
@@ -5153,7 +5130,6 @@
       <c r="R24" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="S24" s="9"/>
     </row>
     <row r="25" spans="1:25">
       <c r="A25" s="2" t="s">
@@ -5200,7 +5176,6 @@
       <c r="R25" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="S25" s="9"/>
     </row>
     <row r="26" spans="1:25">
       <c r="A26" s="2" t="s">
@@ -5247,7 +5222,6 @@
       <c r="R26" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="S26" s="9"/>
     </row>
     <row r="27" spans="1:25">
       <c r="A27" s="2" t="s">
@@ -5294,7 +5268,6 @@
       <c r="R27" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="S27" s="9"/>
     </row>
     <row r="28" spans="1:25">
       <c r="A28" s="2" t="s">
@@ -5341,7 +5314,6 @@
       <c r="R28" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="S28" s="9"/>
     </row>
     <row r="29" spans="1:25">
       <c r="A29" s="2" t="s">
@@ -5388,7 +5360,6 @@
       <c r="R29" s="6" t="s">
         <v>137</v>
       </c>
-      <c r="S29" s="9"/>
     </row>
     <row r="30" spans="1:25">
       <c r="A30" s="3"/>
@@ -5409,7 +5380,6 @@
       <c r="P30" s="9"/>
       <c r="Q30" s="9"/>
       <c r="R30" s="9"/>
-      <c r="S30" s="9"/>
     </row>
     <row r="31" spans="1:25">
       <c r="A31" s="11" t="s">
@@ -5432,7 +5402,6 @@
       <c r="P31" s="11"/>
       <c r="Q31" s="11"/>
       <c r="R31" s="11"/>
-      <c r="S31" s="11"/>
     </row>
     <row ht="22.5" r="32" spans="1:25">
       <c r="A32" s="4" t="s">
@@ -5479,7 +5448,6 @@
       <c r="R32" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="S32" s="9"/>
     </row>
     <row r="33" spans="1:25">
       <c r="A33" s="2" t="s">
@@ -5526,7 +5494,6 @@
       <c r="R33" s="6" t="s">
         <v>151</v>
       </c>
-      <c r="S33" s="9"/>
     </row>
     <row r="34" spans="1:25">
       <c r="A34" s="2" t="s">
@@ -5573,7 +5540,6 @@
       <c r="R34" s="6" t="s">
         <v>162</v>
       </c>
-      <c r="S34" s="9"/>
     </row>
     <row ht="22.5" r="35" spans="1:25">
       <c r="A35" s="2" t="s">
@@ -5620,7 +5586,6 @@
       <c r="R35" s="6" t="s">
         <v>174</v>
       </c>
-      <c r="S35" s="9"/>
     </row>
     <row r="36" spans="1:25">
       <c r="A36" s="2" t="s">
@@ -5667,7 +5632,6 @@
       <c r="R36" s="6" t="s">
         <v>183</v>
       </c>
-      <c r="S36" s="9"/>
     </row>
     <row r="37" spans="1:25">
       <c r="A37" s="2" t="s">
@@ -5714,7 +5678,6 @@
       <c r="R37" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="S37" s="9"/>
     </row>
     <row r="38" spans="1:25">
       <c r="A38" s="2" t="s">
@@ -5761,7 +5724,6 @@
       <c r="R38" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="S38" s="9"/>
     </row>
     <row r="39" spans="1:25">
       <c r="A39" s="2" t="s">
@@ -5808,7 +5770,6 @@
       <c r="R39" s="6" t="s">
         <v>137</v>
       </c>
-      <c r="S39" s="9"/>
     </row>
     <row r="40" spans="1:25">
       <c r="A40" s="2" t="s">
@@ -5855,7 +5816,6 @@
       <c r="R40" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="S40" s="9"/>
     </row>
     <row r="41" spans="1:25">
       <c r="A41" s="2" t="s">
@@ -5902,7 +5862,6 @@
       <c r="R41" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="S41" s="9"/>
     </row>
     <row r="42" spans="1:25">
       <c r="A42" s="9"/>
@@ -5923,7 +5882,6 @@
       <c r="P42" s="9"/>
       <c r="Q42" s="9"/>
       <c r="R42" s="9"/>
-      <c r="S42" s="9"/>
     </row>
     <row r="43" spans="1:25">
       <c r="A43" s="11" t="s">
@@ -5946,7 +5904,6 @@
       <c r="P43" s="11"/>
       <c r="Q43" s="11"/>
       <c r="R43" s="11"/>
-      <c r="S43" s="11"/>
     </row>
     <row ht="22.5" r="44" spans="1:25">
       <c r="A44" s="4" t="s">
@@ -5993,7 +5950,6 @@
       <c r="R44" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="S44" s="9"/>
     </row>
     <row r="45" spans="1:25">
       <c r="A45" s="2" t="s">
@@ -6040,7 +5996,6 @@
       <c r="R45" s="6" t="s">
         <v>218</v>
       </c>
-      <c r="S45" s="9"/>
     </row>
     <row r="46" spans="1:25">
       <c r="A46" s="2" t="s">
@@ -6087,7 +6042,6 @@
       <c r="R46" s="6" t="s">
         <v>227</v>
       </c>
-      <c r="S46" s="9"/>
     </row>
     <row r="47" spans="1:25">
       <c r="A47" s="2" t="s">
@@ -6134,7 +6088,6 @@
       <c r="R47" s="6" t="s">
         <v>187</v>
       </c>
-      <c r="S47" s="9"/>
     </row>
     <row r="48" spans="1:25">
       <c r="A48" s="2" t="s">
@@ -6181,7 +6134,6 @@
       <c r="R48" s="6" t="s">
         <v>241</v>
       </c>
-      <c r="S48" s="9"/>
     </row>
     <row r="49" spans="1:25">
       <c r="A49" s="2" t="s">
@@ -6228,7 +6180,6 @@
       <c r="R49" s="6" t="s">
         <v>251</v>
       </c>
-      <c r="S49" s="9"/>
     </row>
     <row r="50" spans="1:25">
       <c r="A50" s="2" t="s">
@@ -6275,7 +6226,6 @@
       <c r="R50" s="6" t="s">
         <v>259</v>
       </c>
-      <c r="S50" s="9"/>
     </row>
     <row r="51" spans="1:25">
       <c r="A51" s="2" t="s">
@@ -6322,7 +6272,6 @@
       <c r="R51" s="6" t="s">
         <v>268</v>
       </c>
-      <c r="S51" s="9"/>
     </row>
     <row r="52" spans="1:25">
       <c r="A52" s="2" t="s">
@@ -6369,7 +6318,6 @@
       <c r="R52" s="6" t="s">
         <v>276</v>
       </c>
-      <c r="S52" s="9"/>
     </row>
     <row r="53" spans="1:25">
       <c r="A53" s="2" t="s">
@@ -6416,7 +6364,6 @@
       <c r="R53" s="6" t="s">
         <v>285</v>
       </c>
-      <c r="S53" s="9"/>
     </row>
     <row r="54" spans="1:25">
       <c r="A54" s="2" t="s">
@@ -6463,7 +6410,6 @@
       <c r="R54" s="6" t="s">
         <v>294</v>
       </c>
-      <c r="S54" s="9"/>
     </row>
     <row r="55" spans="1:25">
       <c r="A55" s="2" t="s">
@@ -6510,7 +6456,6 @@
       <c r="R55" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="S55" s="9"/>
     </row>
     <row ht="22.5" r="56" spans="1:25">
       <c r="A56" s="2" t="s">
@@ -6557,7 +6502,6 @@
       <c r="R56" s="6" t="s">
         <v>308</v>
       </c>
-      <c r="S56" s="9"/>
     </row>
     <row r="57" spans="1:25">
       <c r="A57" s="2" t="s">
@@ -6604,7 +6548,6 @@
       <c r="R57" s="6" t="s">
         <v>137</v>
       </c>
-      <c r="S57" s="9"/>
     </row>
     <row r="58" spans="1:25">
       <c r="A58" s="2" t="s">
@@ -6651,7 +6594,6 @@
       <c r="R58" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="S58" s="9"/>
     </row>
     <row r="59" spans="1:25">
       <c r="A59" s="9"/>
@@ -6672,7 +6614,6 @@
       <c r="P59" s="9"/>
       <c r="Q59" s="9"/>
       <c r="R59" s="9"/>
-      <c r="S59" s="9"/>
     </row>
     <row r="60" spans="1:25">
       <c r="A60" s="9"/>
@@ -6695,7 +6636,7 @@
       <c r="P60" s="14"/>
       <c r="Q60" s="14"/>
       <c r="R60" s="14"/>
-      <c r="S60" s="14"/>
+      <c r="U60"/>
     </row>
     <row r="61" spans="1:25">
       <c r="A61" s="11" t="s">
@@ -6718,7 +6659,6 @@
       <c r="P61" s="11"/>
       <c r="Q61" s="11"/>
       <c r="R61" s="11"/>
-      <c r="S61" s="11"/>
     </row>
     <row ht="22.5" r="62" spans="1:25">
       <c r="A62" s="4" t="s">
@@ -6765,7 +6705,6 @@
       <c r="R62" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="S62" s="9"/>
     </row>
     <row r="63" spans="1:25">
       <c r="A63" s="2" t="s">
@@ -6812,7 +6751,6 @@
       <c r="R63" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="S63" s="9"/>
     </row>
     <row r="64" spans="1:25">
       <c r="A64" s="2" t="s">
@@ -6859,7 +6797,6 @@
       <c r="R64" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="S64" s="9"/>
     </row>
     <row r="65" spans="1:25">
       <c r="A65" s="2" t="s">
@@ -6906,7 +6843,6 @@
       <c r="R65" s="6" t="s">
         <v>318</v>
       </c>
-      <c r="S65" s="9"/>
     </row>
     <row r="66" spans="1:25">
       <c r="A66" s="2" t="s">
@@ -6953,7 +6889,6 @@
       <c r="R66" s="6" t="s">
         <v>329</v>
       </c>
-      <c r="S66" s="9"/>
     </row>
     <row r="67" spans="1:25">
       <c r="A67" s="2" t="s">
@@ -7000,7 +6935,6 @@
       <c r="R67" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="S67" s="9"/>
     </row>
     <row r="68" spans="1:25">
       <c r="A68" s="2" t="s">
@@ -7047,7 +6981,6 @@
       <c r="R68" s="6" t="s">
         <v>342</v>
       </c>
-      <c r="S68" s="9"/>
     </row>
     <row r="69" spans="1:25">
       <c r="A69" s="2" t="s">
@@ -7094,7 +7027,6 @@
       <c r="R69" s="6" t="s">
         <v>147</v>
       </c>
-      <c r="S69" s="9"/>
     </row>
     <row r="70" spans="1:25">
       <c r="A70" s="2" t="s">
@@ -7141,7 +7073,6 @@
       <c r="R70" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="S70" s="9"/>
     </row>
     <row r="71" spans="1:25">
       <c r="A71" s="2" t="s">
@@ -7188,7 +7119,6 @@
       <c r="R71" s="6" t="s">
         <v>137</v>
       </c>
-      <c r="S71" s="9"/>
     </row>
     <row r="72" spans="1:25">
       <c r="A72" s="9"/>
@@ -7209,7 +7139,6 @@
       <c r="P72" s="9"/>
       <c r="Q72" s="9"/>
       <c r="R72" s="9"/>
-      <c r="S72" s="9"/>
     </row>
     <row r="73" spans="1:25">
       <c r="A73" s="11" t="s">
@@ -7232,7 +7161,6 @@
       <c r="P73" s="11"/>
       <c r="Q73" s="11"/>
       <c r="R73" s="11"/>
-      <c r="S73" s="11"/>
     </row>
     <row ht="22.5" r="74" spans="1:25">
       <c r="A74" s="4" t="s">
@@ -7279,7 +7207,6 @@
       <c r="R74" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="S74" s="9"/>
     </row>
     <row r="75" spans="1:25">
       <c r="A75" s="2" t="s">
@@ -7326,7 +7253,6 @@
       <c r="R75" s="6" t="s">
         <v>357</v>
       </c>
-      <c r="S75" s="9"/>
     </row>
     <row r="76" spans="1:25">
       <c r="A76" s="2" t="s">
@@ -7373,7 +7299,6 @@
       <c r="R76" s="6" t="s">
         <v>368</v>
       </c>
-      <c r="S76" s="9"/>
     </row>
     <row r="77" spans="1:25">
       <c r="A77" s="2" t="s">
@@ -7420,7 +7345,6 @@
       <c r="R77" s="6" t="s">
         <v>378</v>
       </c>
-      <c r="S77" s="9"/>
     </row>
     <row r="78" spans="1:25">
       <c r="A78" s="2" t="s">
@@ -7467,7 +7391,6 @@
       <c r="R78" s="6" t="s">
         <v>384</v>
       </c>
-      <c r="S78" s="9"/>
     </row>
     <row r="79" spans="1:25">
       <c r="A79" s="2" t="s">
@@ -7514,7 +7437,6 @@
       <c r="R79" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="S79" s="9"/>
     </row>
     <row r="80" spans="1:25">
       <c r="A80" s="2" t="s">
@@ -7561,7 +7483,6 @@
       <c r="R80" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="S80" s="9"/>
     </row>
     <row r="81" spans="1:25">
       <c r="A81" s="2" t="s">
@@ -7608,7 +7529,6 @@
       <c r="R81" s="6" t="s">
         <v>398</v>
       </c>
-      <c r="S81" s="9"/>
     </row>
     <row r="82" spans="1:25">
       <c r="A82" s="2" t="s">
@@ -7655,7 +7575,6 @@
       <c r="R82" s="6" t="s">
         <v>137</v>
       </c>
-      <c r="S82" s="9"/>
     </row>
     <row r="83" spans="1:25">
       <c r="A83" s="2" t="s">
@@ -7702,7 +7621,6 @@
       <c r="R83" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="S83" s="9"/>
     </row>
     <row r="84" spans="1:25">
       <c r="A84" s="9"/>
@@ -7723,7 +7641,6 @@
       <c r="P84" s="9"/>
       <c r="Q84" s="9"/>
       <c r="R84" s="9"/>
-      <c r="S84" s="9"/>
     </row>
     <row r="85" spans="1:25">
       <c r="A85" s="11" t="s">
@@ -7746,7 +7663,6 @@
       <c r="P85" s="11"/>
       <c r="Q85" s="11"/>
       <c r="R85" s="11"/>
-      <c r="S85" s="11"/>
     </row>
     <row ht="22.5" r="86" spans="1:25">
       <c r="A86" s="4" t="s">
@@ -7793,7 +7709,6 @@
       <c r="R86" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="S86" s="9"/>
     </row>
     <row r="87" spans="1:25">
       <c r="A87" s="2" t="s">
@@ -7840,7 +7755,6 @@
       <c r="R87" s="6" t="s">
         <v>405</v>
       </c>
-      <c r="S87" s="9"/>
     </row>
     <row r="88" spans="1:25">
       <c r="A88" s="2" t="s">
@@ -7887,7 +7801,6 @@
       <c r="R88" s="6" t="s">
         <v>416</v>
       </c>
-      <c r="S88" s="9"/>
     </row>
     <row ht="22.5" r="89" spans="1:25">
       <c r="A89" s="2" t="s">
@@ -7934,7 +7847,6 @@
       <c r="R89" s="6" t="s">
         <v>424</v>
       </c>
-      <c r="S89" s="9"/>
     </row>
     <row r="90" spans="1:25">
       <c r="A90" s="2" t="s">
@@ -7981,7 +7893,6 @@
       <c r="R90" s="6" t="s">
         <v>429</v>
       </c>
-      <c r="S90" s="9"/>
     </row>
     <row r="91" spans="1:25">
       <c r="A91" s="2" t="s">
@@ -8028,7 +7939,6 @@
       <c r="R91" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="S91" s="9"/>
     </row>
     <row r="92" spans="1:25">
       <c r="A92" s="2" t="s">
@@ -8075,7 +7985,6 @@
       <c r="R92" s="6" t="s">
         <v>268</v>
       </c>
-      <c r="S92" s="9"/>
     </row>
     <row ht="22.5" r="93" spans="1:25">
       <c r="A93" s="2" t="s">
@@ -8122,7 +8031,6 @@
       <c r="R93" s="6" t="s">
         <v>451</v>
       </c>
-      <c r="S93" s="9"/>
     </row>
     <row r="94" spans="1:25">
       <c r="A94" s="2" t="s">
@@ -8169,7 +8077,6 @@
       <c r="R94" s="6" t="s">
         <v>456</v>
       </c>
-      <c r="S94" s="9"/>
     </row>
     <row r="95" spans="1:25">
       <c r="A95" s="2" t="s">
@@ -8216,7 +8123,6 @@
       <c r="R95" s="6" t="s">
         <v>462</v>
       </c>
-      <c r="S95" s="9"/>
     </row>
     <row r="96" spans="1:25">
       <c r="A96" s="2" t="s">
@@ -8263,7 +8169,6 @@
       <c r="R96" s="6" t="s">
         <v>466</v>
       </c>
-      <c r="S96" s="9"/>
     </row>
     <row r="97" spans="1:25">
       <c r="A97" s="2" t="s">
@@ -8310,7 +8215,6 @@
       <c r="R97" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="S97" s="9"/>
     </row>
     <row ht="22.5" r="98" spans="1:25">
       <c r="A98" s="2" t="s">
@@ -8357,7 +8261,6 @@
       <c r="R98" s="6" t="s">
         <v>217</v>
       </c>
-      <c r="S98" s="9"/>
     </row>
     <row r="99" spans="1:25">
       <c r="A99" s="2" t="s">
@@ -8404,7 +8307,6 @@
       <c r="R99" s="6" t="s">
         <v>137</v>
       </c>
-      <c r="S99" s="9"/>
     </row>
     <row r="100" spans="1:25">
       <c r="A100" s="2" t="s">
@@ -8451,7 +8353,6 @@
       <c r="R100" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="S100" s="9"/>
     </row>
     <row r="101" spans="1:25">
       <c r="A101" s="9"/>
@@ -8472,7 +8373,6 @@
       <c r="P101" s="9"/>
       <c r="Q101" s="9"/>
       <c r="R101" s="9"/>
-      <c r="S101" s="9"/>
     </row>
     <row r="102" spans="1:25">
       <c r="A102" s="9"/>
@@ -8495,7 +8395,7 @@
       <c r="P102" s="14"/>
       <c r="Q102" s="14"/>
       <c r="R102" s="14"/>
-      <c r="S102" s="14"/>
+      <c r="U102"/>
     </row>
     <row r="103" spans="1:25">
       <c r="A103" s="11" t="s">
@@ -8518,7 +8418,6 @@
       <c r="P103" s="11"/>
       <c r="Q103" s="11"/>
       <c r="R103" s="11"/>
-      <c r="S103" s="11"/>
     </row>
     <row ht="22.5" r="104" spans="1:25">
       <c r="A104" s="4" t="s">
@@ -8565,7 +8464,6 @@
       <c r="R104" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="S104" s="9"/>
     </row>
     <row r="105" spans="1:25">
       <c r="A105" s="2" t="s">
@@ -8612,7 +8510,6 @@
       <c r="R105" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="S105" s="9"/>
     </row>
     <row r="106" spans="1:25">
       <c r="A106" s="2" t="s">
@@ -8659,7 +8556,6 @@
       <c r="R106" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="S106" s="9"/>
     </row>
     <row r="107" spans="1:25">
       <c r="A107" s="2" t="s">
@@ -8706,7 +8602,6 @@
       <c r="R107" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="S107" s="9"/>
     </row>
     <row r="108" spans="1:25">
       <c r="A108" s="2" t="s">
@@ -8753,7 +8648,6 @@
       <c r="R108" s="6" t="s">
         <v>493</v>
       </c>
-      <c r="S108" s="9"/>
     </row>
     <row r="109" spans="1:25">
       <c r="A109" s="2" t="s">
@@ -8800,7 +8694,6 @@
       <c r="R109" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="S109" s="9"/>
     </row>
     <row ht="22.5" r="110" spans="1:25">
       <c r="A110" s="2" t="s">
@@ -8847,7 +8740,6 @@
       <c r="R110" s="6" t="s">
         <v>169</v>
       </c>
-      <c r="S110" s="9"/>
     </row>
     <row r="111" spans="1:25">
       <c r="A111" s="2" t="s">
@@ -8894,7 +8786,6 @@
       <c r="R111" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="S111" s="9"/>
     </row>
     <row r="112" spans="1:25">
       <c r="A112" s="2" t="s">
@@ -8941,7 +8832,6 @@
       <c r="R112" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="S112" s="9"/>
     </row>
     <row r="113" spans="1:25">
       <c r="A113" s="2" t="s">
@@ -8988,7 +8878,6 @@
       <c r="R113" s="6" t="s">
         <v>137</v>
       </c>
-      <c r="S113" s="9"/>
     </row>
     <row r="114" spans="1:25">
       <c r="A114" s="9"/>
@@ -9009,7 +8898,6 @@
       <c r="P114" s="9"/>
       <c r="Q114" s="9"/>
       <c r="R114" s="9"/>
-      <c r="S114" s="9"/>
     </row>
     <row r="115" spans="1:25">
       <c r="A115" s="11" t="s">
@@ -9032,7 +8920,6 @@
       <c r="P115" s="11"/>
       <c r="Q115" s="11"/>
       <c r="R115" s="11"/>
-      <c r="S115" s="11"/>
     </row>
     <row ht="22.5" r="116" spans="1:25">
       <c r="A116" s="4" t="s">
@@ -9079,7 +8966,6 @@
       <c r="R116" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="S116" s="9"/>
     </row>
     <row r="117" spans="1:25">
       <c r="A117" s="2" t="s">
@@ -9126,7 +9012,6 @@
       <c r="R117" s="6" t="s">
         <v>519</v>
       </c>
-      <c r="S117" s="9"/>
     </row>
     <row r="118" spans="1:25">
       <c r="A118" s="2" t="s">
@@ -9173,7 +9058,6 @@
       <c r="R118" s="6" t="s">
         <v>424</v>
       </c>
-      <c r="S118" s="9"/>
     </row>
     <row r="119" spans="1:25">
       <c r="A119" s="2" t="s">
@@ -9220,7 +9104,6 @@
       <c r="R119" s="6" t="s">
         <v>534</v>
       </c>
-      <c r="S119" s="9"/>
     </row>
     <row r="120" spans="1:25">
       <c r="A120" s="2" t="s">
@@ -9267,7 +9150,6 @@
       <c r="R120" s="6" t="s">
         <v>542</v>
       </c>
-      <c r="S120" s="9"/>
     </row>
     <row r="121" spans="1:25">
       <c r="A121" s="2" t="s">
@@ -9314,7 +9196,6 @@
       <c r="R121" s="6" t="s">
         <v>551</v>
       </c>
-      <c r="S121" s="9"/>
     </row>
     <row ht="22.5" r="122" spans="1:25">
       <c r="A122" s="2" t="s">
@@ -9361,7 +9242,6 @@
       <c r="R122" s="6" t="s">
         <v>556</v>
       </c>
-      <c r="S122" s="9"/>
     </row>
     <row r="123" spans="1:25">
       <c r="A123" s="2" t="s">
@@ -9408,7 +9288,6 @@
       <c r="R123" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="S123" s="9"/>
     </row>
     <row r="124" spans="1:25">
       <c r="A124" s="2" t="s">
@@ -9455,7 +9334,6 @@
       <c r="R124" s="6" t="s">
         <v>570</v>
       </c>
-      <c r="S124" s="9"/>
     </row>
     <row r="125" spans="1:25">
       <c r="A125" s="2" t="s">
@@ -9502,7 +9380,6 @@
       <c r="R125" s="6" t="s">
         <v>137</v>
       </c>
-      <c r="S125" s="9"/>
     </row>
     <row r="126" spans="1:25">
       <c r="A126" s="2" t="s">
@@ -9549,7 +9426,6 @@
       <c r="R126" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="S126" s="9"/>
     </row>
     <row r="127" spans="1:25">
       <c r="A127" s="9"/>
@@ -9570,7 +9446,6 @@
       <c r="P127" s="9"/>
       <c r="Q127" s="9"/>
       <c r="R127" s="9"/>
-      <c r="S127" s="9"/>
     </row>
     <row r="128" spans="1:25">
       <c r="A128" s="11" t="s">
@@ -9593,7 +9468,6 @@
       <c r="P128" s="11"/>
       <c r="Q128" s="11"/>
       <c r="R128" s="11"/>
-      <c r="S128" s="11"/>
     </row>
     <row ht="22.5" r="129" spans="1:25">
       <c r="A129" s="4" t="s">
@@ -9640,7 +9514,6 @@
       <c r="R129" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="S129" s="9"/>
     </row>
     <row r="130" spans="1:25">
       <c r="A130" s="2" t="s">
@@ -9687,7 +9560,6 @@
       <c r="R130" s="6" t="s">
         <v>578</v>
       </c>
-      <c r="S130" s="9"/>
     </row>
     <row ht="22.5" r="131" spans="1:25">
       <c r="A131" s="2" t="s">
@@ -9734,7 +9606,6 @@
       <c r="R131" s="6" t="s">
         <v>584</v>
       </c>
-      <c r="S131" s="9"/>
     </row>
     <row r="132" spans="1:25">
       <c r="A132" s="2" t="s">
@@ -9781,7 +9652,6 @@
       <c r="R132" s="6" t="s">
         <v>592</v>
       </c>
-      <c r="S132" s="9"/>
     </row>
     <row r="133" spans="1:25">
       <c r="A133" s="2" t="s">
@@ -9828,7 +9698,6 @@
       <c r="R133" s="6" t="s">
         <v>602</v>
       </c>
-      <c r="S133" s="9"/>
     </row>
     <row r="134" spans="1:25">
       <c r="A134" s="2" t="s">
@@ -9875,7 +9744,6 @@
       <c r="R134" s="6" t="s">
         <v>608</v>
       </c>
-      <c r="S134" s="9"/>
     </row>
     <row ht="22.5" r="135" spans="1:25">
       <c r="A135" s="2" t="s">
@@ -9922,7 +9790,6 @@
       <c r="R135" s="6" t="s">
         <v>616</v>
       </c>
-      <c r="S135" s="9"/>
     </row>
     <row r="136" spans="1:25">
       <c r="A136" s="2" t="s">
@@ -9969,7 +9836,6 @@
       <c r="R136" s="6" t="s">
         <v>621</v>
       </c>
-      <c r="S136" s="9"/>
     </row>
     <row r="137" spans="1:25">
       <c r="A137" s="2" t="s">
@@ -10016,7 +9882,6 @@
       <c r="R137" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="S137" s="9"/>
     </row>
     <row r="138" spans="1:25">
       <c r="A138" s="2" t="s">
@@ -10063,7 +9928,6 @@
       <c r="R138" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="S138" s="9"/>
     </row>
     <row ht="22.5" r="139" spans="1:25">
       <c r="A139" s="2" t="s">
@@ -10110,7 +9974,6 @@
       <c r="R139" s="6" t="s">
         <v>633</v>
       </c>
-      <c r="S139" s="9"/>
     </row>
     <row r="140" spans="1:25">
       <c r="A140" s="2" t="s">
@@ -10157,7 +10020,6 @@
       <c r="R140" s="6" t="s">
         <v>137</v>
       </c>
-      <c r="S140" s="9"/>
     </row>
     <row r="141" spans="1:25">
       <c r="A141" s="2" t="s">
@@ -10204,7 +10066,6 @@
       <c r="R141" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="S141" s="9"/>
     </row>
     <row r="142" spans="1:25">
       <c r="A142" s="9"/>
@@ -10225,7 +10086,6 @@
       <c r="P142" s="9"/>
       <c r="Q142" s="9"/>
       <c r="R142" s="9"/>
-      <c r="S142" s="9"/>
     </row>
     <row r="143" spans="1:25">
       <c r="A143" s="9"/>
@@ -10248,7 +10108,7 @@
       <c r="P143" s="14"/>
       <c r="Q143" s="14"/>
       <c r="R143" s="14"/>
-      <c r="S143" s="14"/>
+      <c r="U143"/>
     </row>
     <row r="144" spans="1:25">
       <c r="A144" s="11" t="s">
@@ -10271,7 +10131,6 @@
       <c r="P144" s="11"/>
       <c r="Q144" s="11"/>
       <c r="R144" s="11"/>
-      <c r="S144" s="11"/>
     </row>
     <row ht="22.5" r="145" spans="1:25">
       <c r="A145" s="4" t="s">
@@ -10318,7 +10177,6 @@
       <c r="R145" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="S145" s="9"/>
     </row>
     <row r="146" spans="1:25">
       <c r="A146" s="2" t="s">
@@ -10365,7 +10223,6 @@
       <c r="R146" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="S146" s="9"/>
     </row>
     <row r="147" spans="1:25">
       <c r="A147" s="2" t="s">
@@ -10412,7 +10269,6 @@
       <c r="R147" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="S147" s="9"/>
     </row>
     <row r="148" spans="1:25">
       <c r="A148" s="2" t="s">
@@ -10459,7 +10315,6 @@
       <c r="R148" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="S148" s="9"/>
     </row>
     <row r="149" spans="1:25">
       <c r="A149" s="2" t="s">
@@ -10506,7 +10361,6 @@
       <c r="R149" s="6" t="s">
         <v>641</v>
       </c>
-      <c r="S149" s="9"/>
     </row>
     <row r="150" spans="1:25">
       <c r="A150" s="2" t="s">
@@ -10553,7 +10407,6 @@
       <c r="R150" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="S150" s="9"/>
     </row>
     <row r="151" spans="1:25">
       <c r="A151" s="2" t="s">
@@ -10600,7 +10453,6 @@
       <c r="R151" s="6" t="s">
         <v>647</v>
       </c>
-      <c r="S151" s="9"/>
     </row>
     <row r="152" spans="1:25">
       <c r="A152" s="2" t="s">
@@ -10647,7 +10499,6 @@
       <c r="R152" s="6" t="s">
         <v>655</v>
       </c>
-      <c r="S152" s="9"/>
     </row>
     <row r="153" spans="1:25">
       <c r="A153" s="2" t="s">
@@ -10694,7 +10545,6 @@
       <c r="R153" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="S153" s="9"/>
     </row>
     <row r="154" spans="1:25">
       <c r="A154" s="2" t="s">
@@ -10741,7 +10591,6 @@
       <c r="R154" s="6" t="s">
         <v>137</v>
       </c>
-      <c r="S154" s="9"/>
     </row>
     <row r="155" spans="1:25">
       <c r="A155" s="9"/>
@@ -10762,7 +10611,6 @@
       <c r="P155" s="9"/>
       <c r="Q155" s="9"/>
       <c r="R155" s="9"/>
-      <c r="S155" s="9"/>
     </row>
     <row r="156" spans="1:25">
       <c r="A156" s="11" t="s">
@@ -10785,7 +10633,6 @@
       <c r="P156" s="11"/>
       <c r="Q156" s="11"/>
       <c r="R156" s="11"/>
-      <c r="S156" s="11"/>
     </row>
     <row ht="22.5" r="157" spans="1:25">
       <c r="A157" s="4" t="s">
@@ -10832,7 +10679,6 @@
       <c r="R157" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="S157" s="9"/>
     </row>
     <row r="158" spans="1:25">
       <c r="A158" s="2" t="s">
@@ -10879,7 +10725,6 @@
       <c r="R158" s="6" t="s">
         <v>664</v>
       </c>
-      <c r="S158" s="9"/>
     </row>
     <row r="159" spans="1:25">
       <c r="A159" s="2" t="s">
@@ -10926,7 +10771,6 @@
       <c r="R159" s="6" t="s">
         <v>673</v>
       </c>
-      <c r="S159" s="9"/>
     </row>
     <row r="160" spans="1:25">
       <c r="A160" s="2" t="s">
@@ -10973,7 +10817,6 @@
       <c r="R160" s="6" t="s">
         <v>681</v>
       </c>
-      <c r="S160" s="9"/>
     </row>
     <row r="161" spans="1:25">
       <c r="A161" s="2" t="s">
@@ -11020,7 +10863,6 @@
       <c r="R161" s="6" t="s">
         <v>686</v>
       </c>
-      <c r="S161" s="9"/>
     </row>
     <row r="162" spans="1:25">
       <c r="A162" s="2" t="s">
@@ -11067,7 +10909,6 @@
       <c r="R162" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="S162" s="9"/>
     </row>
     <row r="163" spans="1:25">
       <c r="A163" s="2" t="s">
@@ -11114,7 +10955,6 @@
       <c r="R163" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="S163" s="9"/>
     </row>
     <row r="164" spans="1:25">
       <c r="A164" s="2" t="s">
@@ -11161,7 +11001,6 @@
       <c r="R164" s="6" t="s">
         <v>361</v>
       </c>
-      <c r="S164" s="9"/>
     </row>
     <row r="165" spans="1:25">
       <c r="A165" s="2" t="s">
@@ -11208,7 +11047,6 @@
       <c r="R165" s="6" t="s">
         <v>137</v>
       </c>
-      <c r="S165" s="9"/>
     </row>
     <row r="166" spans="1:25">
       <c r="A166" s="2" t="s">
@@ -11255,7 +11093,6 @@
       <c r="R166" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="S166" s="9"/>
     </row>
     <row r="167" spans="1:25">
       <c r="A167" s="2" t="s">
@@ -11302,7 +11139,6 @@
       <c r="R167" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="S167" s="9"/>
     </row>
     <row r="168" spans="1:25">
       <c r="A168" s="9"/>
@@ -11323,7 +11159,6 @@
       <c r="P168" s="9"/>
       <c r="Q168" s="9"/>
       <c r="R168" s="9"/>
-      <c r="S168" s="9"/>
     </row>
     <row r="169" spans="1:25">
       <c r="A169" s="11" t="s">
@@ -11346,7 +11181,6 @@
       <c r="P169" s="11"/>
       <c r="Q169" s="11"/>
       <c r="R169" s="11"/>
-      <c r="S169" s="11"/>
     </row>
     <row ht="22.5" r="170" spans="1:25">
       <c r="A170" s="4" t="s">
@@ -11393,7 +11227,6 @@
       <c r="R170" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="S170" s="9"/>
     </row>
     <row r="171" spans="1:25">
       <c r="A171" s="2" t="s">
@@ -11440,7 +11273,6 @@
       <c r="R171" s="6" t="s">
         <v>479</v>
       </c>
-      <c r="S171" s="9"/>
     </row>
     <row r="172" spans="1:25">
       <c r="A172" s="2" t="s">
@@ -11487,7 +11319,6 @@
       <c r="R172" s="6" t="s">
         <v>717</v>
       </c>
-      <c r="S172" s="9"/>
     </row>
     <row r="173" spans="1:25">
       <c r="A173" s="2" t="s">
@@ -11534,7 +11365,6 @@
       <c r="R173" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="S173" s="9"/>
     </row>
     <row ht="22.5" r="174" spans="1:25">
       <c r="A174" s="2" t="s">
@@ -11581,7 +11411,6 @@
       <c r="R174" s="6" t="s">
         <v>698</v>
       </c>
-      <c r="S174" s="9"/>
     </row>
     <row ht="22.5" r="175" spans="1:25">
       <c r="A175" s="2" t="s">
@@ -11628,7 +11457,6 @@
       <c r="R175" s="6" t="s">
         <v>733</v>
       </c>
-      <c r="S175" s="9"/>
     </row>
     <row r="176" spans="1:25">
       <c r="A176" s="2" t="s">
@@ -11675,7 +11503,6 @@
       <c r="R176" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="S176" s="9"/>
     </row>
     <row r="177" spans="1:25">
       <c r="A177" s="2" t="s">
@@ -11722,7 +11549,6 @@
       <c r="R177" s="6" t="s">
         <v>742</v>
       </c>
-      <c r="S177" s="9"/>
     </row>
     <row r="178" spans="1:25">
       <c r="A178" s="2" t="s">
@@ -11769,7 +11595,6 @@
       <c r="R178" s="6" t="s">
         <v>747</v>
       </c>
-      <c r="S178" s="9"/>
     </row>
     <row r="179" spans="1:25">
       <c r="A179" s="2" t="s">
@@ -11816,7 +11641,6 @@
       <c r="R179" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="S179" s="9"/>
     </row>
     <row ht="22.5" r="180" spans="1:25">
       <c r="A180" s="2" t="s">
@@ -11863,7 +11687,6 @@
       <c r="R180" s="6" t="s">
         <v>761</v>
       </c>
-      <c r="S180" s="9"/>
     </row>
     <row r="181" spans="1:25">
       <c r="A181" s="2" t="s">
@@ -11910,7 +11733,6 @@
       <c r="R181" s="6" t="s">
         <v>137</v>
       </c>
-      <c r="S181" s="9"/>
     </row>
     <row r="182" spans="1:25">
       <c r="A182" s="2" t="s">
@@ -11957,7 +11779,6 @@
       <c r="R182" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="S182" s="9"/>
     </row>
     <row r="183" spans="1:25">
       <c r="A183" s="9"/>
@@ -11978,7 +11799,6 @@
       <c r="P183" s="9"/>
       <c r="Q183" s="9"/>
       <c r="R183" s="9"/>
-      <c r="S183" s="9"/>
     </row>
     <row r="184" spans="1:25">
       <c r="A184" s="9"/>
@@ -12001,7 +11821,7 @@
       <c r="P184" s="14"/>
       <c r="Q184" s="14"/>
       <c r="R184" s="14"/>
-      <c r="S184" s="14"/>
+      <c r="U184"/>
     </row>
     <row r="185" spans="1:25">
       <c r="A185" s="11" t="s">
@@ -12024,7 +11844,6 @@
       <c r="P185" s="11"/>
       <c r="Q185" s="11"/>
       <c r="R185" s="11"/>
-      <c r="S185" s="11"/>
     </row>
     <row ht="22.5" r="186" spans="1:25">
       <c r="A186" s="4" t="s">
@@ -12071,7 +11890,6 @@
       <c r="R186" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="S186" s="9"/>
     </row>
     <row r="187" spans="1:25">
       <c r="A187" s="2" t="s">
@@ -12118,7 +11936,6 @@
       <c r="R187" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="S187" s="9"/>
     </row>
     <row r="188" spans="1:25">
       <c r="A188" s="2" t="s">
@@ -12165,7 +11982,6 @@
       <c r="R188" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="S188" s="9"/>
     </row>
     <row r="189" spans="1:25">
       <c r="A189" s="2" t="s">
@@ -12212,7 +12028,6 @@
       <c r="R189" s="6" t="s">
         <v>318</v>
       </c>
-      <c r="S189" s="9"/>
     </row>
     <row r="190" spans="1:25">
       <c r="A190" s="2" t="s">
@@ -12259,7 +12074,6 @@
       <c r="R190" s="6" t="s">
         <v>771</v>
       </c>
-      <c r="S190" s="9"/>
     </row>
     <row r="191" spans="1:25">
       <c r="A191" s="2" t="s">
@@ -12306,7 +12120,6 @@
       <c r="R191" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="S191" s="9"/>
     </row>
     <row r="192" spans="1:25">
       <c r="A192" s="2" t="s">
@@ -12353,7 +12166,6 @@
       <c r="R192" s="6" t="s">
         <v>342</v>
       </c>
-      <c r="S192" s="9"/>
     </row>
     <row r="193" spans="1:25">
       <c r="A193" s="2" t="s">
@@ -12400,7 +12212,6 @@
       <c r="R193" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="S193" s="9"/>
     </row>
     <row r="194" spans="1:25">
       <c r="A194" s="2" t="s">
@@ -12447,7 +12258,6 @@
       <c r="R194" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="S194" s="9"/>
     </row>
     <row r="195" spans="1:25">
       <c r="A195" s="2" t="s">
@@ -12494,7 +12304,6 @@
       <c r="R195" s="6" t="s">
         <v>137</v>
       </c>
-      <c r="S195" s="9"/>
     </row>
     <row r="196" spans="1:25">
       <c r="A196" s="9"/>
@@ -12515,7 +12324,6 @@
       <c r="P196" s="9"/>
       <c r="Q196" s="9"/>
       <c r="R196" s="9"/>
-      <c r="S196" s="9"/>
     </row>
     <row r="197" spans="1:25">
       <c r="A197" s="11" t="s">
@@ -12538,7 +12346,6 @@
       <c r="P197" s="11"/>
       <c r="Q197" s="11"/>
       <c r="R197" s="11"/>
-      <c r="S197" s="11"/>
     </row>
     <row ht="22.5" r="198" spans="1:25">
       <c r="A198" s="4" t="s">
@@ -12585,7 +12392,6 @@
       <c r="R198" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="S198" s="9"/>
     </row>
     <row r="199" spans="1:25">
       <c r="A199" s="2" t="s">
@@ -12632,7 +12438,6 @@
       <c r="R199" s="6" t="s">
         <v>782</v>
       </c>
-      <c r="S199" s="9"/>
     </row>
     <row r="200" spans="1:25">
       <c r="A200" s="2" t="s">
@@ -12679,7 +12484,6 @@
       <c r="R200" s="6" t="s">
         <v>791</v>
       </c>
-      <c r="S200" s="9"/>
     </row>
     <row r="201" spans="1:25">
       <c r="A201" s="2" t="s">
@@ -12726,7 +12530,6 @@
       <c r="R201" s="6" t="s">
         <v>799</v>
       </c>
-      <c r="S201" s="9"/>
     </row>
     <row r="202" spans="1:25">
       <c r="A202" s="2" t="s">
@@ -12773,7 +12576,6 @@
       <c r="R202" s="6" t="s">
         <v>805</v>
       </c>
-      <c r="S202" s="9"/>
     </row>
     <row r="203" spans="1:25">
       <c r="A203" s="2" t="s">
@@ -12820,7 +12622,6 @@
       <c r="R203" s="6" t="s">
         <v>810</v>
       </c>
-      <c r="S203" s="9"/>
     </row>
     <row r="204" spans="1:25">
       <c r="A204" s="2" t="s">
@@ -12867,7 +12668,6 @@
       <c r="R204" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="S204" s="9"/>
     </row>
     <row r="205" spans="1:25">
       <c r="A205" s="2" t="s">
@@ -12914,7 +12714,6 @@
       <c r="R205" s="6" t="s">
         <v>361</v>
       </c>
-      <c r="S205" s="9"/>
     </row>
     <row r="206" spans="1:25">
       <c r="A206" s="2" t="s">
@@ -12961,7 +12760,6 @@
       <c r="R206" s="6" t="s">
         <v>137</v>
       </c>
-      <c r="S206" s="9"/>
     </row>
     <row r="207" spans="1:25">
       <c r="A207" s="2" t="s">
@@ -13008,7 +12806,6 @@
       <c r="R207" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="S207" s="9"/>
     </row>
     <row r="208" spans="1:25">
       <c r="A208" s="9"/>
@@ -13029,7 +12826,6 @@
       <c r="P208" s="9"/>
       <c r="Q208" s="9"/>
       <c r="R208" s="9"/>
-      <c r="S208" s="9"/>
     </row>
     <row r="209" spans="1:25">
       <c r="A209" s="11" t="s">
@@ -13052,7 +12848,6 @@
       <c r="P209" s="11"/>
       <c r="Q209" s="11"/>
       <c r="R209" s="11"/>
-      <c r="S209" s="11"/>
     </row>
     <row ht="22.5" r="210" spans="1:25">
       <c r="A210" s="4" t="s">
@@ -13099,7 +12894,6 @@
       <c r="R210" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="S210" s="9"/>
     </row>
     <row r="211" spans="1:25">
       <c r="A211" s="2" t="s">
@@ -13146,7 +12940,6 @@
       <c r="R211" s="6" t="s">
         <v>822</v>
       </c>
-      <c r="S211" s="9"/>
     </row>
     <row ht="22.5" r="212" spans="1:25">
       <c r="A212" s="2" t="s">
@@ -13193,7 +12986,6 @@
       <c r="R212" s="6" t="s">
         <v>577</v>
       </c>
-      <c r="S212" s="9"/>
     </row>
     <row ht="22.5" r="213" spans="1:25">
       <c r="A213" s="2" t="s">
@@ -13240,7 +13032,6 @@
       <c r="R213" s="6" t="s">
         <v>831</v>
       </c>
-      <c r="S213" s="9"/>
     </row>
     <row ht="22.5" r="214" spans="1:25">
       <c r="A214" s="2" t="s">
@@ -13287,7 +13078,6 @@
       <c r="R214" s="6" t="s">
         <v>659</v>
       </c>
-      <c r="S214" s="9"/>
     </row>
     <row r="215" spans="1:25">
       <c r="A215" s="2" t="s">
@@ -13334,7 +13124,6 @@
       <c r="R215" s="6" t="s">
         <v>844</v>
       </c>
-      <c r="S215" s="9"/>
     </row>
     <row r="216" spans="1:25">
       <c r="A216" s="2" t="s">
@@ -13381,7 +13170,6 @@
       <c r="R216" s="6" t="s">
         <v>849</v>
       </c>
-      <c r="S216" s="9"/>
     </row>
     <row r="217" spans="1:25">
       <c r="A217" s="2" t="s">
@@ -13428,7 +13216,6 @@
       <c r="R217" s="6" t="s">
         <v>853</v>
       </c>
-      <c r="S217" s="9"/>
     </row>
     <row r="218" spans="1:25">
       <c r="A218" s="2" t="s">
@@ -13475,7 +13262,6 @@
       <c r="R218" s="6" t="s">
         <v>859</v>
       </c>
-      <c r="S218" s="9"/>
     </row>
     <row r="219" spans="1:25">
       <c r="A219" s="2" t="s">
@@ -13522,7 +13308,6 @@
       <c r="R219" s="6" t="s">
         <v>865</v>
       </c>
-      <c r="S219" s="9"/>
     </row>
     <row r="220" spans="1:25">
       <c r="A220" s="2" t="s">
@@ -13569,7 +13354,6 @@
       <c r="R220" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="S220" s="9"/>
     </row>
     <row r="221" spans="1:25">
       <c r="A221" s="2" t="s">
@@ -13616,7 +13400,6 @@
       <c r="R221" s="6" t="s">
         <v>137</v>
       </c>
-      <c r="S221" s="9"/>
     </row>
     <row r="222" spans="1:25">
       <c r="A222" s="2" t="s">
@@ -13663,7 +13446,6 @@
       <c r="R222" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="S222" s="9"/>
     </row>
     <row r="223" spans="1:25">
       <c r="A223" s="9"/>
@@ -13684,7 +13466,6 @@
       <c r="P223" s="9"/>
       <c r="Q223" s="9"/>
       <c r="R223" s="9"/>
-      <c r="S223" s="9"/>
     </row>
     <row r="224" spans="1:25">
       <c r="A224" s="9"/>
@@ -13707,7 +13488,7 @@
       <c r="P224" s="14"/>
       <c r="Q224" s="14"/>
       <c r="R224" s="14"/>
-      <c r="S224" s="14"/>
+      <c r="U224"/>
     </row>
     <row r="225" spans="1:25">
       <c r="A225" s="11" t="s">
@@ -13730,7 +13511,6 @@
       <c r="P225" s="11"/>
       <c r="Q225" s="11"/>
       <c r="R225" s="11"/>
-      <c r="S225" s="11"/>
     </row>
     <row ht="22.5" r="226" spans="1:25">
       <c r="A226" s="4" t="s">
@@ -13777,7 +13557,6 @@
       <c r="R226" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="S226" s="9"/>
     </row>
     <row r="227" spans="1:25">
       <c r="A227" s="2" t="s">
@@ -13824,7 +13603,6 @@
       <c r="R227" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="S227" s="9"/>
     </row>
     <row r="228" spans="1:25">
       <c r="A228" s="2" t="s">
@@ -13871,7 +13649,6 @@
       <c r="R228" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="S228" s="9"/>
     </row>
     <row r="229" spans="1:25">
       <c r="A229" s="2" t="s">
@@ -13918,7 +13695,6 @@
       <c r="R229" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="S229" s="9"/>
     </row>
     <row ht="22.5" r="230" spans="1:25">
       <c r="A230" s="2" t="s">
@@ -13965,7 +13741,6 @@
       <c r="R230" s="6" t="s">
         <v>879</v>
       </c>
-      <c r="S230" s="9"/>
     </row>
     <row r="231" spans="1:25">
       <c r="A231" s="2" t="s">
@@ -14012,7 +13787,6 @@
       <c r="R231" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="S231" s="9"/>
     </row>
     <row r="232" spans="1:25">
       <c r="A232" s="2" t="s">
@@ -14059,7 +13833,6 @@
       <c r="R232" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="S232" s="9"/>
     </row>
     <row r="233" spans="1:25">
       <c r="A233" s="2" t="s">
@@ -14106,7 +13879,6 @@
       <c r="R233" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="S233" s="9"/>
     </row>
     <row r="234" spans="1:25">
       <c r="A234" s="2" t="s">
@@ -14153,7 +13925,6 @@
       <c r="R234" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="S234" s="9"/>
     </row>
     <row r="235" spans="1:25">
       <c r="A235" s="2" t="s">
@@ -14200,7 +13971,6 @@
       <c r="R235" s="6" t="s">
         <v>137</v>
       </c>
-      <c r="S235" s="9"/>
     </row>
     <row r="236" spans="1:25">
       <c r="A236" s="9"/>
@@ -14221,7 +13991,6 @@
       <c r="P236" s="9"/>
       <c r="Q236" s="9"/>
       <c r="R236" s="9"/>
-      <c r="S236" s="9"/>
     </row>
     <row r="237" spans="1:25">
       <c r="A237" s="11" t="s">
@@ -14244,7 +14013,6 @@
       <c r="P237" s="11"/>
       <c r="Q237" s="11"/>
       <c r="R237" s="11"/>
-      <c r="S237" s="11"/>
     </row>
     <row ht="22.5" r="238" spans="1:25">
       <c r="A238" s="4" t="s">
@@ -14291,7 +14059,6 @@
       <c r="R238" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="S238" s="9"/>
     </row>
     <row r="239" spans="1:25">
       <c r="A239" s="2" t="s">
@@ -14338,7 +14105,6 @@
       <c r="R239" s="6" t="s">
         <v>887</v>
       </c>
-      <c r="S239" s="9"/>
     </row>
     <row r="240" spans="1:25">
       <c r="A240" s="2" t="s">
@@ -14385,7 +14151,6 @@
       <c r="R240" s="6" t="s">
         <v>894</v>
       </c>
-      <c r="S240" s="9"/>
     </row>
     <row r="241" spans="1:25">
       <c r="A241" s="2" t="s">
@@ -14432,7 +14197,6 @@
       <c r="R241" s="6" t="s">
         <v>901</v>
       </c>
-      <c r="S241" s="9"/>
     </row>
     <row ht="22.5" r="242" spans="1:25">
       <c r="A242" s="2" t="s">
@@ -14479,7 +14243,6 @@
       <c r="R242" s="6" t="s">
         <v>907</v>
       </c>
-      <c r="S242" s="9"/>
     </row>
     <row ht="22.5" r="243" spans="1:25">
       <c r="A243" s="2" t="s">
@@ -14526,7 +14289,6 @@
       <c r="R243" s="6" t="s">
         <v>913</v>
       </c>
-      <c r="S243" s="9"/>
     </row>
     <row r="244" spans="1:25">
       <c r="A244" s="2" t="s">
@@ -14573,7 +14335,6 @@
       <c r="R244" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="S244" s="9"/>
     </row>
     <row r="245" spans="1:25">
       <c r="A245" s="2" t="s">
@@ -14620,7 +14381,6 @@
       <c r="R245" s="6" t="s">
         <v>137</v>
       </c>
-      <c r="S245" s="9"/>
     </row>
     <row r="246" spans="1:25">
       <c r="A246" s="2" t="s">
@@ -14667,7 +14427,6 @@
       <c r="R246" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="S246" s="9"/>
     </row>
     <row r="247" spans="1:25">
       <c r="A247" s="2" t="s">
@@ -14714,7 +14473,6 @@
       <c r="R247" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="S247" s="9"/>
     </row>
     <row r="248" spans="1:25">
       <c r="A248" s="9"/>
@@ -14735,7 +14493,6 @@
       <c r="P248" s="9"/>
       <c r="Q248" s="9"/>
       <c r="R248" s="9"/>
-      <c r="S248" s="9"/>
     </row>
     <row r="249" spans="1:25">
       <c r="A249" s="11" t="s">
@@ -14758,7 +14515,6 @@
       <c r="P249" s="11"/>
       <c r="Q249" s="11"/>
       <c r="R249" s="11"/>
-      <c r="S249" s="11"/>
     </row>
     <row ht="22.5" r="250" spans="1:25">
       <c r="A250" s="4" t="s">
@@ -14805,7 +14561,6 @@
       <c r="R250" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="S250" s="9"/>
     </row>
     <row r="251" spans="1:25">
       <c r="A251" s="2" t="s">
@@ -14852,7 +14607,6 @@
       <c r="R251" s="6" t="s">
         <v>926</v>
       </c>
-      <c r="S251" s="9"/>
     </row>
     <row r="252" spans="1:25">
       <c r="A252" s="2" t="s">
@@ -14899,7 +14653,6 @@
       <c r="R252" s="6" t="s">
         <v>932</v>
       </c>
-      <c r="S252" s="9"/>
     </row>
     <row r="253" spans="1:25">
       <c r="A253" s="2" t="s">
@@ -14946,7 +14699,6 @@
       <c r="R253" s="6" t="s">
         <v>943</v>
       </c>
-      <c r="S253" s="9"/>
     </row>
     <row r="254" spans="1:25">
       <c r="A254" s="2" t="s">
@@ -14993,7 +14745,6 @@
       <c r="R254" s="6" t="s">
         <v>259</v>
       </c>
-      <c r="S254" s="9"/>
     </row>
     <row r="255" spans="1:25">
       <c r="A255" s="2" t="s">
@@ -15040,7 +14791,6 @@
       <c r="R255" s="6" t="s">
         <v>952</v>
       </c>
-      <c r="S255" s="9"/>
     </row>
     <row r="256" spans="1:25">
       <c r="A256" s="2" t="s">
@@ -15087,7 +14837,6 @@
       <c r="R256" s="6" t="s">
         <v>937</v>
       </c>
-      <c r="S256" s="9"/>
     </row>
     <row r="257" spans="1:25">
       <c r="A257" s="2" t="s">
@@ -15134,7 +14883,6 @@
       <c r="R257" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="S257" s="9"/>
     </row>
     <row r="258" spans="1:25">
       <c r="A258" s="2" t="s">
@@ -15181,7 +14929,6 @@
       <c r="R258" s="6" t="s">
         <v>967</v>
       </c>
-      <c r="S258" s="9"/>
     </row>
     <row r="259" spans="1:25">
       <c r="A259" s="2" t="s">
@@ -15228,7 +14975,6 @@
       <c r="R259" s="6" t="s">
         <v>384</v>
       </c>
-      <c r="S259" s="9"/>
     </row>
     <row r="260" spans="1:25">
       <c r="A260" s="2" t="s">
@@ -15275,7 +15021,6 @@
       <c r="R260" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="S260" s="9"/>
     </row>
     <row r="261" spans="1:25">
       <c r="A261" s="2" t="s">
@@ -15322,7 +15067,6 @@
       <c r="R261" s="6" t="s">
         <v>980</v>
       </c>
-      <c r="S261" s="9"/>
     </row>
     <row r="262" spans="1:25">
       <c r="A262" s="2" t="s">
@@ -15369,7 +15113,6 @@
       <c r="R262" s="6" t="s">
         <v>137</v>
       </c>
-      <c r="S262" s="9"/>
     </row>
     <row r="263" spans="1:25">
       <c r="A263" s="2" t="s">
@@ -15416,7 +15159,6 @@
       <c r="R263" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="S263" s="9"/>
     </row>
     <row r="264" spans="1:25">
       <c r="A264" s="9"/>
@@ -15437,7 +15179,6 @@
       <c r="P264" s="9"/>
       <c r="Q264" s="9"/>
       <c r="R264" s="9"/>
-      <c r="S264" s="9"/>
     </row>
     <row r="265" spans="1:25">
       <c r="A265" s="9"/>
@@ -15460,7 +15201,7 @@
       <c r="P265" s="14"/>
       <c r="Q265" s="14"/>
       <c r="R265" s="14"/>
-      <c r="S265" s="14"/>
+      <c r="U265"/>
     </row>
     <row r="266" spans="1:25">
       <c r="A266" s="11" t="s">
@@ -15483,7 +15224,6 @@
       <c r="P266" s="11"/>
       <c r="Q266" s="11"/>
       <c r="R266" s="11"/>
-      <c r="S266" s="11"/>
     </row>
     <row ht="22.5" r="267" spans="1:25">
       <c r="A267" s="4" t="s">
@@ -15530,7 +15270,6 @@
       <c r="R267" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="S267" s="9"/>
     </row>
     <row r="268" spans="1:25">
       <c r="A268" s="2" t="s">
@@ -15577,7 +15316,6 @@
       <c r="R268" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="S268" s="9"/>
     </row>
     <row r="269" spans="1:25">
       <c r="A269" s="2" t="s">
@@ -15624,7 +15362,6 @@
       <c r="R269" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="S269" s="9"/>
     </row>
     <row r="270" spans="1:25">
       <c r="A270" s="2" t="s">
@@ -15671,7 +15408,6 @@
       <c r="R270" s="6" t="s">
         <v>318</v>
       </c>
-      <c r="S270" s="9"/>
     </row>
     <row r="271" spans="1:25">
       <c r="A271" s="2" t="s">
@@ -15718,7 +15454,6 @@
       <c r="R271" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="S271" s="9"/>
     </row>
     <row r="272" spans="1:25">
       <c r="A272" s="2" t="s">
@@ -15765,7 +15500,6 @@
       <c r="R272" s="6" t="s">
         <v>884</v>
       </c>
-      <c r="S272" s="9"/>
     </row>
     <row ht="22.5" r="273" spans="1:25">
       <c r="A273" s="2" t="s">
@@ -15812,7 +15546,6 @@
       <c r="R273" s="6" t="s">
         <v>169</v>
       </c>
-      <c r="S273" s="9"/>
     </row>
     <row r="274" spans="1:25">
       <c r="A274" s="2" t="s">
@@ -15859,7 +15592,6 @@
       <c r="R274" s="6" t="s">
         <v>655</v>
       </c>
-      <c r="S274" s="9"/>
     </row>
     <row r="275" spans="1:25">
       <c r="A275" s="2" t="s">
@@ -15906,7 +15638,6 @@
       <c r="R275" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="S275" s="9"/>
     </row>
     <row r="276" spans="1:25">
       <c r="A276" s="2" t="s">
@@ -15953,7 +15684,6 @@
       <c r="R276" s="6" t="s">
         <v>137</v>
       </c>
-      <c r="S276" s="9"/>
     </row>
     <row r="277" spans="1:25">
       <c r="A277" s="9"/>
@@ -15974,7 +15704,6 @@
       <c r="P277" s="9"/>
       <c r="Q277" s="9"/>
       <c r="R277" s="9"/>
-      <c r="S277" s="9"/>
     </row>
     <row r="278" spans="1:25">
       <c r="A278" s="11" t="s">
@@ -15997,7 +15726,6 @@
       <c r="P278" s="11"/>
       <c r="Q278" s="11"/>
       <c r="R278" s="11"/>
-      <c r="S278" s="11"/>
     </row>
     <row ht="22.5" r="279" spans="1:25">
       <c r="A279" s="4" t="s">
@@ -16044,7 +15772,6 @@
       <c r="R279" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="S279" s="9"/>
     </row>
     <row r="280" spans="1:25">
       <c r="A280" s="2" t="s">
@@ -16091,7 +15818,6 @@
       <c r="R280" s="6" t="s">
         <v>997</v>
       </c>
-      <c r="S280" s="9"/>
     </row>
     <row r="281" spans="1:25">
       <c r="A281" s="2" t="s">
@@ -16138,7 +15864,6 @@
       <c r="R281" s="6" t="s">
         <v>1006</v>
       </c>
-      <c r="S281" s="9"/>
     </row>
     <row r="282" spans="1:25">
       <c r="A282" s="2" t="s">
@@ -16185,7 +15910,6 @@
       <c r="R282" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="S282" s="9"/>
     </row>
     <row ht="22.5" r="283" spans="1:25">
       <c r="A283" s="2" t="s">
@@ -16232,7 +15956,6 @@
       <c r="R283" s="6" t="s">
         <v>1015</v>
       </c>
-      <c r="S283" s="9"/>
     </row>
     <row r="284" spans="1:25">
       <c r="A284" s="2" t="s">
@@ -16279,7 +16002,6 @@
       <c r="R284" s="6" t="s">
         <v>1020</v>
       </c>
-      <c r="S284" s="9"/>
     </row>
     <row r="285" spans="1:25">
       <c r="A285" s="2" t="s">
@@ -16326,7 +16048,6 @@
       <c r="R285" s="6" t="s">
         <v>955</v>
       </c>
-      <c r="S285" s="9"/>
     </row>
     <row r="286" spans="1:25">
       <c r="A286" s="2" t="s">
@@ -16373,7 +16094,6 @@
       <c r="R286" s="6" t="s">
         <v>1029</v>
       </c>
-      <c r="S286" s="9"/>
     </row>
     <row r="287" spans="1:25">
       <c r="A287" s="2" t="s">
@@ -16420,7 +16140,6 @@
       <c r="R287" s="6" t="s">
         <v>605</v>
       </c>
-      <c r="S287" s="9"/>
     </row>
     <row r="288" spans="1:25">
       <c r="A288" s="2" t="s">
@@ -16467,7 +16186,6 @@
       <c r="R288" s="6" t="s">
         <v>137</v>
       </c>
-      <c r="S288" s="9"/>
     </row>
     <row r="289" spans="1:25">
       <c r="A289" s="2" t="s">
@@ -16514,7 +16232,6 @@
       <c r="R289" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="S289" s="9"/>
     </row>
     <row r="290" spans="1:25">
       <c r="A290" s="9"/>
@@ -16535,7 +16252,6 @@
       <c r="P290" s="9"/>
       <c r="Q290" s="9"/>
       <c r="R290" s="9"/>
-      <c r="S290" s="9"/>
     </row>
     <row r="291" spans="1:25">
       <c r="A291" s="11" t="s">
@@ -16558,7 +16274,6 @@
       <c r="P291" s="11"/>
       <c r="Q291" s="11"/>
       <c r="R291" s="11"/>
-      <c r="S291" s="11"/>
     </row>
     <row ht="22.5" r="292" spans="1:25">
       <c r="A292" s="4" t="s">
@@ -16605,7 +16320,6 @@
       <c r="R292" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="S292" s="9"/>
     </row>
     <row r="293" spans="1:25">
       <c r="A293" s="2" t="s">
@@ -16652,7 +16366,6 @@
       <c r="R293" s="6" t="s">
         <v>1040</v>
       </c>
-      <c r="S293" s="9"/>
     </row>
     <row r="294" spans="1:25">
       <c r="A294" s="2" t="s">
@@ -16699,7 +16412,6 @@
       <c r="R294" s="6" t="s">
         <v>873</v>
       </c>
-      <c r="S294" s="9"/>
     </row>
     <row r="295" spans="1:25">
       <c r="A295" s="2" t="s">
@@ -16746,7 +16458,6 @@
       <c r="R295" s="6" t="s">
         <v>1045</v>
       </c>
-      <c r="S295" s="9"/>
     </row>
     <row ht="22.5" r="296" spans="1:25">
       <c r="A296" s="2" t="s">
@@ -16793,7 +16504,6 @@
       <c r="R296" s="6" t="s">
         <v>169</v>
       </c>
-      <c r="S296" s="9"/>
     </row>
     <row r="297" spans="1:25">
       <c r="A297" s="2" t="s">
@@ -16840,7 +16550,6 @@
       <c r="R297" s="6" t="s">
         <v>1054</v>
       </c>
-      <c r="S297" s="9"/>
     </row>
     <row r="298" spans="1:25">
       <c r="A298" s="2" t="s">
@@ -16887,7 +16596,6 @@
       <c r="R298" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="S298" s="9"/>
     </row>
     <row r="299" spans="1:25">
       <c r="A299" s="2" t="s">
@@ -16934,7 +16642,6 @@
       <c r="R299" s="6" t="s">
         <v>562</v>
       </c>
-      <c r="S299" s="9"/>
     </row>
     <row ht="22.5" r="300" spans="1:25">
       <c r="A300" s="2" t="s">
@@ -16981,7 +16688,6 @@
       <c r="R300" s="6" t="s">
         <v>1061</v>
       </c>
-      <c r="S300" s="9"/>
     </row>
     <row ht="22.5" r="301" spans="1:25">
       <c r="A301" s="2" t="s">
@@ -17028,7 +16734,6 @@
       <c r="R301" s="6" t="s">
         <v>1066</v>
       </c>
-      <c r="S301" s="9"/>
     </row>
     <row r="302" spans="1:25">
       <c r="A302" s="2" t="s">
@@ -17075,7 +16780,6 @@
       <c r="R302" s="6" t="s">
         <v>137</v>
       </c>
-      <c r="S302" s="9"/>
     </row>
     <row r="303" spans="1:25">
       <c r="A303" s="2" t="s">
@@ -17122,7 +16826,6 @@
       <c r="R303" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="S303" s="9"/>
     </row>
     <row r="304" spans="1:25">
       <c r="A304" s="9"/>
@@ -17143,7 +16846,6 @@
       <c r="P304" s="9"/>
       <c r="Q304" s="9"/>
       <c r="R304" s="9"/>
-      <c r="S304" s="9"/>
     </row>
     <row r="305" spans="1:19">
       <c r="A305" s="7"/>

--- a/food-service/2021/2021-q2-nutrient-analysis-wk2.xlsx
+++ b/food-service/2021/2021-q2-nutrient-analysis-wk2.xlsx
@@ -4436,7 +4436,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetViews>
     <sheetView zoomScale="60" workbookViewId="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100">
-      <selection pane="topLeft" activeCell="S139" sqref="S139"/>
+      <selection pane="topLeft" activeCell="S1" sqref="S1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
@@ -4453,7 +4453,6 @@
     <col min="16" max="16" width="2.140625" customWidth="1"/>
     <col min="17" max="17" width="6" customWidth="1"/>
     <col min="18" max="18" width="8.28515625" customWidth="1"/>
-    <col min="19" max="19" width="3.53" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:25">
@@ -4877,7 +4876,6 @@
       <c r="P18" s="14"/>
       <c r="Q18" s="14"/>
       <c r="R18" s="14"/>
-      <c r="U18"/>
     </row>
     <row r="19" spans="1:25">
       <c r="A19" s="11" t="s">
@@ -6636,7 +6634,6 @@
       <c r="P60" s="14"/>
       <c r="Q60" s="14"/>
       <c r="R60" s="14"/>
-      <c r="U60"/>
     </row>
     <row r="61" spans="1:25">
       <c r="A61" s="11" t="s">
@@ -8395,7 +8392,6 @@
       <c r="P102" s="14"/>
       <c r="Q102" s="14"/>
       <c r="R102" s="14"/>
-      <c r="U102"/>
     </row>
     <row r="103" spans="1:25">
       <c r="A103" s="11" t="s">
@@ -10108,7 +10104,6 @@
       <c r="P143" s="14"/>
       <c r="Q143" s="14"/>
       <c r="R143" s="14"/>
-      <c r="U143"/>
     </row>
     <row r="144" spans="1:25">
       <c r="A144" s="11" t="s">
@@ -11821,7 +11816,6 @@
       <c r="P184" s="14"/>
       <c r="Q184" s="14"/>
       <c r="R184" s="14"/>
-      <c r="U184"/>
     </row>
     <row r="185" spans="1:25">
       <c r="A185" s="11" t="s">
@@ -13488,7 +13482,6 @@
       <c r="P224" s="14"/>
       <c r="Q224" s="14"/>
       <c r="R224" s="14"/>
-      <c r="U224"/>
     </row>
     <row r="225" spans="1:25">
       <c r="A225" s="11" t="s">
@@ -15201,7 +15194,6 @@
       <c r="P265" s="14"/>
       <c r="Q265" s="14"/>
       <c r="R265" s="14"/>
-      <c r="U265"/>
     </row>
     <row r="266" spans="1:25">
       <c r="A266" s="11" t="s">
